--- a/docs/VerifPlans/Simulation/debug-trace/CV32E40XS_debug.xlsx
+++ b/docs/VerifPlans/Simulation/debug-trace/CV32E40XS_debug.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ropeders\Documents\triggers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A45D2D-6154-4308-AE71-0F4EC7A084F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6588973-708C-49EC-A6BA-8AE9EDC37B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debug" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,8 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={D9EEDE3E-E072-4C98-B246-19B316E078C6}</author>
-    <author>tc={05D62CA5-E1D2-41FE-9ABC-295647FBFDAB}</author>
+    <author>tc={B5466D92-7DA9-4086-AD74-BECB443BFC35}</author>
+    <author>tc={409B10D5-F2FF-4A54-AF8E-8F8611120E5A}</author>
     <author>tc={BA1AC254-BC56-45F6-939F-6147CCC4C4EF}</author>
     <author>tc={3E8FC26E-988D-433F-B2EE-92366FB68F86}</author>
     <author>tc={0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}</author>
@@ -54,7 +54,7 @@
     <author>tc={330593C8-663F-4984-BA49-9E72F46FD622}</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{D9EEDE3E-E072-4C98-B246-19B316E078C6}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{B5466D92-7DA9-4086-AD74-BECB443BFC35}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
     Team decided to keep it here.</t>
       </text>
     </comment>
-    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{05D62CA5-E1D2-41FE-9ABC-295647FBFDAB}">
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{409B10D5-F2FF-4A54-AF8E-8F8611120E5A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="358">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -2177,26 +2177,6 @@
     <t>Enter ebreak exception during single stepping</t>
   </si>
   <si>
-    <t>Add EBREAK or/and C.EBREAK to arbitrary code
-Verify that:
-Core switches into debug mode.
-PC of EBREAK instruction must be saved to DPC
-Cause of debug must be saved to DCSR (cause=1)
-PC is updated to value on dm_haltaddr_i input
-Core starts executing debug code
-Ensure exception routine is not entered</t>
-  </si>
-  <si>
-    <t>Add EBREAK or/and C.EBREAK to arbitrary single stepping code
-Verify that:
-Core switches into debug mode.
-PC of EBREAK instruction must be saved to DPC
-Cause of debug must be saved to DCSR (cause=1)
-PC is updated to value on dm_haltaddr_i input
-Core starts executing debug code
-Ensure exception routine is not entered</t>
-  </si>
-  <si>
     <t>Covered in DTC "debug_test_known_miscompares"</t>
   </si>
   <si>
@@ -2608,9 +2588,6 @@
     </r>
   </si>
   <si>
-    <t>40X user manual</t>
-  </si>
-  <si>
     <t>Debug &amp; Trigger</t>
   </si>
   <si>
@@ -2643,10 +2620,6 @@
 Data matching is not supported (only addr matching), so "mcontrol6.select" is always 0.</t>
   </si>
   <si>
-    <t>40X user manual
-Debug 1.0.0</t>
-  </si>
-  <si>
     <t>Control and Status Registers
 Match Control Type 6</t>
   </si>
@@ -2673,16 +2646,7 @@
     <t>Check that these types can be selected, and check that no other types can be selected. (Functionality of these types should be handled by other items in this plan.) Check also that the default is "15".</t>
   </si>
   <si>
-    <t>The only supported types are "5 = Exception trigger", "6 = Address match",  and "15 = Disabled".</t>
-  </si>
-  <si>
-    <t>This bit is WARL (0x1), so only D-mode can write tdata registers. And this bit is still WARL (0x1) regardless of "type" (5, 6, 15).</t>
-  </si>
-  <si>
     <t>Try to write tdata registers outside of debug mode, check that it traps. Try changing "tdata1.dmode" and check that it is WARL (0x1). Cross the above checks with all supported types.</t>
-  </si>
-  <si>
-    <t>"tinfo.info" holds the  supported types {5, 6, 15}, and the register is otherwise WARL (0x0).</t>
   </si>
   <si>
     <t>Control and Status Registers
@@ -2730,9 +2694,6 @@
     <t>"tdata2" should always be RW (any), and "tdata3" is always WARL (0x0).</t>
   </si>
   <si>
-    <t>Change the type to 5/6/15 and write any data to "tdata2", read it back and check that it always gets set. Do the same for "tdata3" and check that it always reads back 0.</t>
-  </si>
-  <si>
     <t>Read the state of all triggers, write to tdata1/2/3 (using all types in tdata1), read back the state of all triggers and check that nothing got changes except the one "tdata*" register that was written.</t>
   </si>
   <si>
@@ -2759,10 +2720,6 @@
   </si>
   <si>
     <t>Be in debug mode, set "dcsr.prv" to U-mode, let "mstatus.MPRV" be set and clear (different runs), exit debug mode with a "dret", check that "mstatus.MPRV" ends up cleared. (Note overlap with user mode vplan.)</t>
-  </si>
-  <si>
-    <t>40X User Manual
-OBI-v1.4</t>
   </si>
   <si>
     <t>Core Integration
@@ -2948,9 +2905,6 @@
       <t>. Observe no change in status registers
 According to specification, the core supports several types of exceptions: {instr access fault, illegal instruction, ... etc}</t>
     </r>
-  </si>
-  <si>
-    <t>40s User Manual 8.0.0</t>
   </si>
   <si>
     <r>
@@ -3481,18 +3435,92 @@
       <t>[PZ] This is not a test but a warning or assumption that debug entry should not occur between a lr and sc instruction pair. Moreover, CV32E40s does not support A-extension</t>
     </r>
   </si>
+  <si>
+    <t>Review (Henrik)</t>
+  </si>
+  <si>
+    <t>"[type 2]"</t>
+  </si>
+  <si>
+    <t>The only supported types are "2 = address match legacy", "5 = Exception trigger", "6 = Address match",  and "15 = Disabled".</t>
+  </si>
+  <si>
+    <t>This bit is WARL (0x1), so only D-mode can write tdata registers. And this bit is still WARL (0x1) regardless of "type" (2, 5, 6, 15).</t>
+  </si>
+  <si>
+    <t>"tinfo.info" holds the  supported types {2, 5, 6, 15}, and the register is otherwise WARL (0x0).</t>
+  </si>
+  <si>
+    <t>Type 2</t>
+  </si>
+  <si>
+    <t>Change the type to 2/5/6/15 and write any data to "tdata2", read it back and check that it always gets set. Do the same for "tdata3" and check that it always reads back 0.</t>
+  </si>
+  <si>
+    <t>"[40x? Also below.]"</t>
+  </si>
+  <si>
+    <t>"0.8.0"</t>
+  </si>
+  <si>
+    <t>40S User Manual 0.8.0</t>
+  </si>
+  <si>
+    <t>40S User Manual
+Debug 1.0.0</t>
+  </si>
+  <si>
+    <t>40S User Manual 0.8.0
+OBI-v1.4</t>
+  </si>
+  <si>
+    <t>40S User Manual 0.8.0
+Debug 1.0.0</t>
+  </si>
+  <si>
+    <t>"[ebreakm=1?]"</t>
+  </si>
+  <si>
+    <t>Add EBREAK or/and C.EBREAK to arbitrary code while ebreakm/u==0.
+Verify that:
+Core does not switch to debug mode, but exception routine is entered as normal.</t>
+  </si>
+  <si>
+    <t>Add EBREAK or/and C.EBREAK to arbitrary single stepping code
+Verify that:
+Core switches into debug mode.
+DPC set to handler.
+Debug cause must be step (unless something else happened simultaneously).
+PC is updated to value on dm_haltaddr_i input
+Core starts executing debug code
+Ensure exception routine is not entered</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3840,26 +3868,83 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3868,94 +3953,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4343,7 +4377,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4351,16 +4385,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E6" dT="2020-09-24T16:50:23.85" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{D9EEDE3E-E072-4C98-B246-19B316E078C6}" done="1">
+  <threadedComment ref="E6" dT="2020-09-24T16:50:23.85" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B5466D92-7DA9-4086-AD74-BECB443BFC35}" done="1">
     <text>This is covered in Exceptions Vplan.  If it is already covered by debug_test (or related), let's keep with here with an acknowledgement that it is also in Exceptions.  Otherwise, we can strike it from this Vplan.</text>
   </threadedComment>
-  <threadedComment ref="E6" dT="2020-09-30T13:17:06.19" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{A0064B0B-E77B-42FB-A2EC-648A5B3F131D}" parentId="{D9EEDE3E-E072-4C98-B246-19B316E078C6}">
+  <threadedComment ref="E6" dT="2020-09-30T13:17:06.19" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8E0134D6-17A8-4034-A6DA-38E2971DBCA4}" parentId="{B5466D92-7DA9-4086-AD74-BECB443BFC35}">
     <text>Team decided to keep it here.</text>
   </threadedComment>
-  <threadedComment ref="E8" dT="2020-09-24T16:50:23.85" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{05D62CA5-E1D2-41FE-9ABC-295647FBFDAB}" done="1">
+  <threadedComment ref="E8" dT="2020-09-24T16:50:23.85" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{409B10D5-F2FF-4A54-AF8E-8F8611120E5A}" done="1">
     <text>This is covered in Exceptions Vplan.  If it is already covered by debug_test (or related), let's keep with here with an acknowledgement that it is also in Exceptions.  Otherwise, we can strike it from this Vplan.</text>
   </threadedComment>
-  <threadedComment ref="E8" dT="2020-09-30T13:17:06.19" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{A80BA0DD-50BE-48F8-9FC2-61B76D0F08E8}" parentId="{05D62CA5-E1D2-41FE-9ABC-295647FBFDAB}">
+  <threadedComment ref="E8" dT="2020-09-30T13:17:06.19" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{90E355DC-DFE0-4393-901C-C7BA637FF5FE}" parentId="{409B10D5-F2FF-4A54-AF8E-8F8611120E5A}">
     <text>Team decided to keep it here.</text>
   </threadedComment>
   <threadedComment ref="E44" dT="2020-09-24T16:55:04.12" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}" done="1">
@@ -4454,7 +4488,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4481,7 +4515,7 @@
     <col min="1035" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -4513,30 +4547,36 @@
         <v>8</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="1:19" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+    </row>
+    <row r="2" spans="1:17" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>121</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -4552,19 +4592,22 @@
         <v>114</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+        <v>301</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="7" t="s">
         <v>24</v>
       </c>
@@ -4578,29 +4621,32 @@
         <v>148</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -4616,19 +4662,22 @@
         <v>114</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+        <v>303</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
@@ -4642,30 +4691,33 @@
         <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>185</v>
+      <c r="E6" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>356</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>10</v>
@@ -4680,19 +4732,22 @@
         <v>114</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="108.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+        <v>241</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="108.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="11" t="s">
         <v>24</v>
       </c>
@@ -4703,33 +4758,36 @@
         <v>21</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>186</v>
+      <c r="E8" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>357</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>10</v>
@@ -4741,22 +4799,25 @@
         <v>20</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="108.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+        <v>241</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="108.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="11" t="s">
         <v>24</v>
       </c>
@@ -4767,32 +4828,35 @@
         <v>21</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="32" t="s">
         <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -4808,13 +4872,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="175.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+    <row r="11" spans="1:17" ht="175.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="7" t="s">
         <v>24</v>
       </c>
@@ -4828,23 +4892,23 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="E12" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>105</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -4860,19 +4924,22 @@
         <v>181</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="282" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="282" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="7" t="s">
         <v>24</v>
       </c>
@@ -4886,30 +4953,33 @@
         <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>232</v>
+      <c r="F14" s="28" t="s">
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>10</v>
@@ -4924,13 +4994,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+    <row r="15" spans="1:17" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="7" t="s">
         <v>24</v>
       </c>
@@ -4944,24 +5014,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:17" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>233</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>10</v>
@@ -4973,19 +5043,22 @@
         <v>20</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
@@ -4996,22 +5069,25 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>238</v>
+        <v>241</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>235</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>10</v>
@@ -5023,19 +5099,22 @@
         <v>20</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="7" t="s">
         <v>24</v>
       </c>
@@ -5046,30 +5125,33 @@
         <v>21</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>243</v>
+      <c r="D20" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>239</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>10</v>
@@ -5081,19 +5163,22 @@
         <v>20</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="7" t="s">
         <v>24</v>
       </c>
@@ -5104,24 +5189,27 @@
         <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>244</v>
+        <v>241</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>240</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>10</v>
@@ -5133,19 +5221,22 @@
         <v>20</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="7" t="s">
         <v>24</v>
       </c>
@@ -5156,24 +5247,27 @@
         <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>246</v>
+        <v>241</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>10</v>
@@ -5185,19 +5279,22 @@
         <v>20</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="7" t="s">
         <v>24</v>
       </c>
@@ -5208,24 +5305,27 @@
         <v>21</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>247</v>
+        <v>241</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>243</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>10</v>
@@ -5237,19 +5337,22 @@
         <v>20</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="7" t="s">
         <v>24</v>
       </c>
@@ -5260,50 +5363,56 @@
         <v>21</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="F29" s="28" t="s">
         <v>245</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>249</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>10</v>
@@ -5315,19 +5424,22 @@
         <v>20</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="7" t="s">
         <v>24</v>
       </c>
@@ -5338,24 +5450,27 @@
         <v>21</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>252</v>
+        <v>241</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>246</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>10</v>
@@ -5367,19 +5482,22 @@
         <v>20</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="7" t="s">
         <v>24</v>
       </c>
@@ -5390,30 +5508,33 @@
         <v>21</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="C33" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>255</v>
+      <c r="D33" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>248</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>10</v>
@@ -5425,19 +5546,22 @@
         <v>20</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="7" t="s">
         <v>24</v>
       </c>
@@ -5448,30 +5572,33 @@
         <v>21</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C35" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>258</v>
+      <c r="D35" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>251</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>10</v>
@@ -5483,19 +5610,22 @@
         <v>20</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
       <c r="G36" s="7" t="s">
         <v>24</v>
       </c>
@@ -5506,22 +5636,25 @@
         <v>21</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>259</v>
+        <v>241</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>252</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>10</v>
@@ -5533,19 +5666,22 @@
         <v>20</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="7" t="s">
         <v>24</v>
       </c>
@@ -5556,28 +5692,31 @@
         <v>21</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="B39" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="B39" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22" t="s">
+      <c r="D39" s="28"/>
+      <c r="E39" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="22" t="s">
-        <v>314</v>
+      <c r="F39" s="28" t="s">
+        <v>305</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>10</v>
@@ -5592,16 +5731,19 @@
         <v>114</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
+        <v>289</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
       <c r="G40" s="7" t="s">
         <v>24</v>
       </c>
@@ -5615,23 +5757,23 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="22" t="s">
+    <row r="41" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="B41" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="E41" s="22" t="s">
+      <c r="D41" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="28" t="s">
         <v>40</v>
       </c>
       <c r="G41" s="7" t="s">
@@ -5647,13 +5789,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
+    <row r="42" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="7" t="s">
         <v>24</v>
       </c>
@@ -5667,21 +5809,21 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>19</v>
@@ -5693,30 +5835,33 @@
         <v>21</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="B44" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>317</v>
+      <c r="D44" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>307</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>10</v>
@@ -5731,19 +5876,22 @@
         <v>114</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
       <c r="G45" s="7" t="s">
         <v>24</v>
       </c>
@@ -5757,30 +5905,33 @@
         <v>153</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C46" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>265</v>
+      <c r="D46" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>258</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>10</v>
@@ -5792,19 +5943,22 @@
         <v>20</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
       <c r="G47" s="7" t="s">
         <v>24</v>
       </c>
@@ -5815,24 +5969,27 @@
         <v>21</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>268</v>
+        <v>241</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>348</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>10</v>
@@ -5844,19 +6001,22 @@
         <v>20</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="L48" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
       <c r="G49" s="7" t="s">
         <v>24</v>
       </c>
@@ -5867,24 +6027,27 @@
         <v>21</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="L49" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>269</v>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>261</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>10</v>
@@ -5896,19 +6059,22 @@
         <v>20</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="7" t="s">
         <v>24</v>
       </c>
@@ -5919,29 +6085,32 @@
         <v>21</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="F52" s="32" t="s">
         <v>128</v>
       </c>
       <c r="G52" s="7" t="s">
@@ -5956,15 +6125,16 @@
       <c r="J52" s="10" t="s">
         <v>114</v>
       </c>
+      <c r="M52" s="7"/>
       <c r="S52" s="19"/>
     </row>
     <row r="53" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="7" t="s">
         <v>24</v>
       </c>
@@ -5979,22 +6149,22 @@
       </c>
     </row>
     <row r="54" spans="1:19" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F54" s="33" t="s">
         <v>46</v>
       </c>
       <c r="G54" s="15" t="s">
@@ -6008,12 +6178,12 @@
       <c r="L54" s="8"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
       <c r="G55" s="15" t="s">
         <v>24</v>
       </c>
@@ -6025,22 +6195,22 @@
       <c r="L55" s="8"/>
     </row>
     <row r="56" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="28" t="s">
         <v>74</v>
       </c>
       <c r="G56" s="7" t="s">
@@ -6059,12 +6229,12 @@
       <c r="L56" s="8"/>
     </row>
     <row r="57" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
       <c r="G57" s="7" t="s">
         <v>24</v>
       </c>
@@ -6081,21 +6251,21 @@
       <c r="L57" s="8"/>
     </row>
     <row r="58" spans="1:19" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="C58" s="22" t="s">
+      <c r="A58" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C58" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>344</v>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>334</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>10</v>
@@ -6110,19 +6280,22 @@
         <v>114</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L58" s="21" t="s">
-        <v>341</v>
+        <v>331</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
       <c r="G59" s="7" t="s">
         <v>24</v>
       </c>
@@ -6136,10 +6309,13 @@
         <v>156</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>347</v>
+        <v>337</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -6159,33 +6335,33 @@
         <v>116</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>122</v>
       </c>
       <c r="K60" s="8"/>
       <c r="L60" s="21" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="28" t="s">
         <v>67</v>
       </c>
       <c r="G61" s="7" t="s">
@@ -6202,12 +6378,12 @@
       </c>
     </row>
     <row r="62" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
       <c r="G62" s="7" t="s">
         <v>24</v>
       </c>
@@ -6222,22 +6398,22 @@
       </c>
     </row>
     <row r="63" spans="1:19" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E63" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="28" t="s">
         <v>130</v>
       </c>
       <c r="G63" s="7" t="s">
@@ -6254,12 +6430,12 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
       <c r="G64" s="7" t="s">
         <v>24</v>
       </c>
@@ -6274,35 +6450,35 @@
       </c>
     </row>
     <row r="65" spans="1:19" ht="236.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D65" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E65" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F65" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
+      <c r="E65" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
       <c r="J65" s="7" t="s">
         <v>122</v>
       </c>
       <c r="K65" s="21" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="L65" s="21" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -6322,13 +6498,13 @@
         <v>117</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6348,13 +6524,13 @@
         <v>118</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L67" s="21" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6374,50 +6550,50 @@
         <v>119</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L68" s="21" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F69" s="30" t="s">
-        <v>350</v>
+      <c r="F69" s="33" t="s">
+        <v>340</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
       <c r="J70" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L70" s="21" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="102" customHeight="1" x14ac:dyDescent="0.3">
@@ -6431,32 +6607,32 @@
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="28" t="s">
         <v>132</v>
       </c>
       <c r="G72" s="7" t="s">
@@ -6471,18 +6647,18 @@
       <c r="J72" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K72" s="35" t="s">
-        <v>301</v>
+      <c r="K72" s="24" t="s">
+        <v>292</v>
       </c>
       <c r="S72" s="20"/>
     </row>
     <row r="73" spans="1:19" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
       <c r="G73" s="7" t="s">
         <v>24</v>
       </c>
@@ -6497,22 +6673,22 @@
       </c>
     </row>
     <row r="74" spans="1:19" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="F74" s="28" t="s">
         <v>107</v>
       </c>
       <c r="G74" s="7" t="s">
@@ -6529,12 +6705,12 @@
       </c>
     </row>
     <row r="75" spans="1:19" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
       <c r="G75" s="7" t="s">
         <v>24</v>
       </c>
@@ -6549,23 +6725,23 @@
       </c>
     </row>
     <row r="76" spans="1:19" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E76" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>321</v>
+      <c r="E76" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="F76" s="28" t="s">
+        <v>311</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>10</v>
@@ -6580,16 +6756,16 @@
         <v>114</v>
       </c>
       <c r="K76" s="21" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
       <c r="G77" s="7" t="s">
         <v>24</v>
       </c>
@@ -6604,22 +6780,22 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D78" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E78" s="22" t="s">
+      <c r="E78" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="F78" s="28" t="s">
         <v>98</v>
       </c>
       <c r="G78" s="7" t="s">
@@ -6636,12 +6812,12 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
       <c r="G79" s="7" t="s">
         <v>24</v>
       </c>
@@ -6656,22 +6832,22 @@
       </c>
     </row>
     <row r="80" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E80" s="30" t="s">
+      <c r="E80" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="30" t="s">
+      <c r="F80" s="33" t="s">
         <v>97</v>
       </c>
       <c r="G80" s="15" t="s">
@@ -6683,13 +6859,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
+    <row r="81" spans="1:13" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
       <c r="G81" s="15" t="s">
         <v>24</v>
       </c>
@@ -6699,23 +6875,23 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="22" t="s">
+    <row r="82" spans="1:13" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E82" s="22" t="s">
+      <c r="E82" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F82" s="22" t="s">
+      <c r="F82" s="28" t="s">
         <v>106</v>
       </c>
       <c r="G82" s="7" t="s">
@@ -6731,13 +6907,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
+    <row r="83" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
       <c r="G83" s="7" t="s">
         <v>24</v>
       </c>
@@ -6751,23 +6927,23 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="22" t="s">
+    <row r="84" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F84" s="28" t="s">
         <v>99</v>
       </c>
       <c r="G84" s="7" t="s">
@@ -6783,13 +6959,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
+    <row r="85" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
       <c r="G85" s="7" t="s">
         <v>24</v>
       </c>
@@ -6803,23 +6979,23 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="22" t="s">
+    <row r="86" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F86" s="22" t="s">
+      <c r="F86" s="28" t="s">
         <v>100</v>
       </c>
       <c r="G86" s="7" t="s">
@@ -6835,13 +7011,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
+    <row r="87" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
       <c r="G87" s="7" t="s">
         <v>24</v>
       </c>
@@ -6855,23 +7031,23 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="22" t="s">
+    <row r="88" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F88" s="22" t="s">
+      <c r="F88" s="28" t="s">
         <v>103</v>
       </c>
       <c r="G88" s="7" t="s">
@@ -6887,13 +7063,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
+    <row r="89" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
       <c r="G89" s="7" t="s">
         <v>24</v>
       </c>
@@ -6907,23 +7083,23 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="22" t="s">
+    <row r="90" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D90" s="29" t="s">
+      <c r="D90" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E90" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="F90" s="22" t="s">
+      <c r="E90" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="F90" s="28" t="s">
         <v>104</v>
       </c>
       <c r="G90" s="7" t="s">
@@ -6939,16 +7115,16 @@
         <v>114</v>
       </c>
       <c r="K90" s="21" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="22"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
       <c r="G91" s="7" t="s">
         <v>24</v>
       </c>
@@ -6962,24 +7138,24 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C92" s="22" t="s">
+    <row r="92" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C92" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D92" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="F92" s="22" t="s">
-        <v>276</v>
+      <c r="D92" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>268</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>10</v>
@@ -6991,19 +7167,22 @@
         <v>20</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M92" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
       <c r="G93" s="7" t="s">
         <v>24</v>
       </c>
@@ -7014,30 +7193,33 @@
         <v>21</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="C94" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D94" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="F94" s="22" t="s">
-        <v>277</v>
+      <c r="D94" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>269</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>10</v>
@@ -7049,19 +7231,22 @@
         <v>20</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="22"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
       <c r="G95" s="7" t="s">
         <v>24</v>
       </c>
@@ -7072,30 +7257,33 @@
         <v>21</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B96" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="C96" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D96" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="F96" s="22" t="s">
-        <v>275</v>
+      <c r="D96" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>267</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>10</v>
@@ -7107,19 +7295,22 @@
         <v>20</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
       <c r="G97" s="7" t="s">
         <v>24</v>
       </c>
@@ -7130,13 +7321,16 @@
         <v>21</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>95</v>
       </c>
@@ -7160,19 +7354,19 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22" t="s">
+    <row r="99" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="D99" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E99" s="22" t="s">
+      <c r="E99" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F99" s="22" t="s">
+      <c r="F99" s="28" t="s">
         <v>138</v>
       </c>
       <c r="G99" s="7" t="s">
@@ -7188,13 +7382,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="92.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
+    <row r="100" spans="1:13" ht="92.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
       <c r="G100" s="7" t="s">
         <v>24</v>
       </c>
@@ -7208,19 +7402,19 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22" t="s">
+    <row r="101" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E101" s="22" t="s">
+      <c r="E101" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F101" s="22" t="s">
+      <c r="F101" s="28" t="s">
         <v>140</v>
       </c>
       <c r="G101" s="7" t="s">
@@ -7236,13 +7430,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="22"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
+    <row r="102" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
       <c r="G102" s="7" t="s">
         <v>24</v>
       </c>
@@ -7256,22 +7450,22 @@
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="F103" s="22" t="s">
-        <v>280</v>
+    <row r="103" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="F103" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>10</v>
@@ -7283,19 +7477,22 @@
         <v>20</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="22"/>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M103" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
       <c r="G104" s="7" t="s">
         <v>24</v>
       </c>
@@ -7306,28 +7503,31 @@
         <v>21</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B105" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="F105" s="22" t="s">
-        <v>284</v>
+        <v>241</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F105" s="28" t="s">
+        <v>275</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>10</v>
@@ -7339,19 +7539,22 @@
         <v>20</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="22"/>
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M105" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
       <c r="G106" s="7" t="s">
         <v>24</v>
       </c>
@@ -7362,28 +7565,31 @@
         <v>21</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="B107" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="F107" s="22" t="s">
-        <v>287</v>
+        <v>241</v>
+      </c>
+      <c r="M106" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B107" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="F107" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>10</v>
@@ -7395,19 +7601,22 @@
         <v>20</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="22"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M107" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
       <c r="G108" s="7" t="s">
         <v>24</v>
       </c>
@@ -7418,28 +7627,31 @@
         <v>21</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M108" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E109" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="D109" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F109" s="22" t="s">
-        <v>288</v>
+      <c r="F109" s="28" t="s">
+        <v>279</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>10</v>
@@ -7451,19 +7663,22 @@
         <v>20</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="22"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M109" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
       <c r="G110" s="7" t="s">
         <v>24</v>
       </c>
@@ -7474,28 +7689,31 @@
         <v>21</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B111" s="22"/>
-      <c r="C111" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="F111" s="22" t="s">
-        <v>290</v>
+        <v>241</v>
+      </c>
+      <c r="M110" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E111" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" s="28" t="s">
+        <v>281</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>10</v>
@@ -7507,19 +7725,22 @@
         <v>20</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="22"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="M111" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="28"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
       <c r="G112" s="7" t="s">
         <v>24</v>
       </c>
@@ -7530,29 +7751,32 @@
         <v>21</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="M112" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="22" t="s">
+      <c r="C113" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D113" s="22" t="s">
+      <c r="D113" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E113" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="F113" s="22" t="s">
+      <c r="E113" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" s="28" t="s">
         <v>142</v>
       </c>
       <c r="G113" s="7" t="s">
@@ -7568,19 +7792,22 @@
         <v>114</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="M113" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="22"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
+      <c r="A114" s="28"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
       <c r="G114" s="7" t="s">
         <v>24</v>
       </c>
@@ -7594,20 +7821,23 @@
         <v>169</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L114" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="M114" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="22"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22" t="s">
-        <v>291</v>
+      <c r="A115" s="28"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28" t="s">
+        <v>282</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>10</v>
@@ -7619,19 +7849,22 @@
         <v>20</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L115" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="M115" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
       <c r="G116" s="7" t="s">
         <v>24</v>
       </c>
@@ -7642,23 +7875,26 @@
         <v>21</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="M116" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="22"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22" t="s">
+      <c r="A117" s="28"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D117" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E117" s="22"/>
-      <c r="F117" s="36" t="s">
+      <c r="D117" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="E117" s="28"/>
+      <c r="F117" s="38" t="s">
         <v>143</v>
       </c>
       <c r="G117" s="7" t="s">
@@ -7675,12 +7911,12 @@
       </c>
     </row>
     <row r="118" spans="1:19" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="22"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="24"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="39"/>
       <c r="G118" s="7" t="s">
         <v>24</v>
       </c>
@@ -7694,19 +7930,19 @@
         <v>170</v>
       </c>
       <c r="K118" s="21" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="22"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="E119" s="22"/>
-      <c r="F119" s="25" t="s">
-        <v>292</v>
+      <c r="A119" s="28"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E119" s="28"/>
+      <c r="F119" s="40" t="s">
+        <v>283</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>10</v>
@@ -7718,19 +7954,22 @@
         <v>20</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="M119" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="22"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="24"/>
+      <c r="A120" s="28"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="39"/>
       <c r="G120" s="7" t="s">
         <v>24</v>
       </c>
@@ -7741,10 +7980,13 @@
         <v>21</v>
       </c>
       <c r="K120" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L120" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="M120" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7771,16 +8013,16 @@
       </c>
     </row>
     <row r="122" spans="1:19" ht="99" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="22"/>
-      <c r="B122" s="22"/>
-      <c r="C122" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="D122" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="E122" s="22"/>
-      <c r="F122" s="23" t="s">
+      <c r="A122" s="28"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="E122" s="28"/>
+      <c r="F122" s="29" t="s">
         <v>113</v>
       </c>
       <c r="G122" s="7" t="s">
@@ -7797,12 +8039,12 @@
       </c>
     </row>
     <row r="123" spans="1:19" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="22"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="23"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="29"/>
       <c r="G123" s="7" t="s">
         <v>24</v>
       </c>
@@ -7817,11 +8059,11 @@
       </c>
     </row>
     <row r="124" spans="1:19" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="22"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
+      <c r="A124" s="28"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
       <c r="F124" s="9" t="s">
         <v>146</v>
       </c>
@@ -7839,11 +8081,11 @@
       </c>
     </row>
     <row r="125" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="22"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="22"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
       <c r="F125" s="9" t="s">
         <v>109</v>
       </c>
@@ -7852,15 +8094,15 @@
       </c>
     </row>
     <row r="126" spans="1:19" ht="106.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="22"/>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="28" t="s">
+      <c r="A126" s="28"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="F126" s="28" t="s">
-        <v>326</v>
+      <c r="F126" s="27" t="s">
+        <v>316</v>
       </c>
       <c r="G126" s="8" t="s">
         <v>10</v>
@@ -7872,20 +8114,20 @@
         <v>20</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K126" s="21" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="S126" s="20"/>
     </row>
     <row r="127" spans="1:19" ht="106.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="22"/>
-      <c r="B127" s="22"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
       <c r="G127" s="8" t="s">
         <v>24</v>
       </c>
@@ -7901,14 +8143,14 @@
       <c r="S127" s="20"/>
     </row>
     <row r="128" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="22"/>
-      <c r="B128" s="22"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="F128" s="28" t="s">
+      <c r="A128" s="28"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="F128" s="27" t="s">
         <v>175</v>
       </c>
       <c r="G128" s="8" t="s">
@@ -7924,19 +8166,22 @@
         <v>183</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="167.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="22"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
+        <v>241</v>
+      </c>
+      <c r="M128" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="167.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="28"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
       <c r="G129" s="8" t="s">
         <v>24</v>
       </c>
@@ -7950,24 +8195,27 @@
         <v>178</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="22"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="E130" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="F130" s="28" t="s">
-        <v>337</v>
+        <v>241</v>
+      </c>
+      <c r="M129" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="28"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E130" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>327</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>10</v>
@@ -7980,13 +8228,13 @@
       </c>
       <c r="J130" s="8"/>
     </row>
-    <row r="131" spans="1:12" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="22"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
+    <row r="131" spans="1:13" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
       <c r="G131" s="8" t="s">
         <v>24</v>
       </c>
@@ -7998,18 +8246,18 @@
       </c>
       <c r="J131" s="8"/>
     </row>
-    <row r="132" spans="1:12" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="22"/>
-      <c r="B132" s="22"/>
-      <c r="C132" s="22"/>
-      <c r="D132" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="E132" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="F132" s="28" t="s">
-        <v>337</v>
+    <row r="132" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="28"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="E132" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="F132" s="27" t="s">
+        <v>327</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>10</v>
@@ -8022,13 +8270,13 @@
       </c>
       <c r="J132" s="8"/>
     </row>
-    <row r="133" spans="1:12" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="22"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
+    <row r="133" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="28"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
       <c r="G133" s="8" t="s">
         <v>24</v>
       </c>
@@ -8040,18 +8288,18 @@
       </c>
       <c r="J133" s="8"/>
     </row>
-    <row r="134" spans="1:12" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="22"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
+    <row r="134" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="28"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
       <c r="D134" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G134" s="8" t="s">
         <v>19</v>
@@ -8064,18 +8312,18 @@
       </c>
       <c r="J134" s="8"/>
     </row>
-    <row r="135" spans="1:12" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="22"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
+    <row r="135" spans="1:13" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="28"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
       <c r="D135" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="E135" s="38" t="s">
-        <v>339</v>
+        <v>328</v>
+      </c>
+      <c r="E135" s="25" t="s">
+        <v>329</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>19</v>
@@ -8088,20 +8336,20 @@
       </c>
       <c r="J135" s="8"/>
     </row>
-    <row r="136" spans="1:12" ht="95.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="95.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>10</v>
@@ -8113,33 +8361,36 @@
         <v>20</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K136" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="L136" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="B137" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="C137" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="L136" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="M136" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="C137" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D137" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="E137" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="F137" s="28" t="s">
-        <v>329</v>
+      <c r="D137" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="E137" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="F137" s="27" t="s">
+        <v>319</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>10</v>
@@ -8152,19 +8403,22 @@
       </c>
       <c r="J137" s="8"/>
       <c r="K137" s="21" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A138" s="28"/>
-      <c r="B138" s="28"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
+        <v>241</v>
+      </c>
+      <c r="M137" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" s="27"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
       <c r="G138" s="8" t="s">
         <v>24</v>
       </c>
@@ -8176,7 +8430,7 @@
       </c>
       <c r="J138" s="8"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -8188,7 +8442,7 @@
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -8222,183 +8476,137 @@
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" s="18"/>
-      <c r="B166" s="32" t="s">
+      <c r="B166" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C166" s="32"/>
-      <c r="D166" s="32"/>
-      <c r="E166" s="32"/>
-      <c r="F166" s="32"/>
-      <c r="G166" s="32"/>
-      <c r="H166" s="32"/>
-      <c r="I166" s="32"/>
-      <c r="J166" s="32"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="31"/>
+      <c r="H166" s="31"/>
+      <c r="I166" s="31"/>
+      <c r="J166" s="31"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R169" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="319">
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="C122:C135"/>
-    <mergeCell ref="B122:B135"/>
-    <mergeCell ref="A122:A135"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="B166:J166"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="D113:D116"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D38"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -8423,18 +8631,100 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="D16:D19"/>
@@ -8450,117 +8740,201 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="A20:A28"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="B166:J166"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
     <mergeCell ref="F96:F97"/>
     <mergeCell ref="E96:E97"/>
     <mergeCell ref="D96:D97"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B109:B110"/>
     <mergeCell ref="F111:F112"/>
     <mergeCell ref="E119:E120"/>
     <mergeCell ref="D119:D120"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="A113:A116"/>
     <mergeCell ref="B117:B120"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="C122:C135"/>
+    <mergeCell ref="B122:B135"/>
+    <mergeCell ref="A122:A135"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="F122:F123"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="K2 K10 K39 K41 K52 K54 K56 K58:K59 K63 K66 K68 K77 K79 K81 K83 K85 K87 K89 K125:K126 K136:K137 K139 K141 K143 K61 K6 K91:K97 K121:L121 K117:L118">
+  <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="K10 K2 K39 K41 K52 K54 K56 K58:K59 K63 K66 K68 K77 K79 K81 K83 K85 K87 K89 K125:K126 K136:K137 K139 K141 K143 K61 K6 K91:K97 K121:L121 K117:L118">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K101 K99">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:K8">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10 L2 L39 L41 L52 L54 L56 L63 L77 L79 L81 L83 L85 L87 L89 L125:L126 L136:L137 L139 L141 L143 L6 L91:L97 L66:L68 L58:L61">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L99 L101">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8572,7 +8946,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="L3">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8584,7 +8958,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K99 K101">
+  <conditionalFormatting sqref="L4">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8596,7 +8970,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
+  <conditionalFormatting sqref="L5">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8608,7 +8982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
+  <conditionalFormatting sqref="L7:L8">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8620,7 +8994,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
+  <conditionalFormatting sqref="L9">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8632,7 +9006,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K8">
+  <conditionalFormatting sqref="L71">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8644,7 +9018,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="L70">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8656,7 +9030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2 L10 L39 L41 L52 L54 L56 L63 L77 L79 L81 L83 L85 L87 L89 L125:L126 L136:L137 L139 L141 L143 L6 L91:L97 L66:L68 L58:L61">
+  <conditionalFormatting sqref="M6:M9 M2">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8668,7 +9042,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="M3">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8680,7 +9054,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L101 L99">
+  <conditionalFormatting sqref="M4">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8692,7 +9066,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
+  <conditionalFormatting sqref="M5">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8704,31 +9078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="100"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="100"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L8">
+  <conditionalFormatting sqref="M136">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8740,7 +9090,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
+  <conditionalFormatting sqref="M137">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8752,7 +9102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L71">
+  <conditionalFormatting sqref="M92:M97">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8764,7 +9114,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70">
+  <conditionalFormatting sqref="M58:M59">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/docs/VerifPlans/Simulation/debug-trace/CV32E40XS_debug.xlsx
+++ b/docs/VerifPlans/Simulation/debug-trace/CV32E40XS_debug.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ropeders\Documents\triggers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\localWork\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6588973-708C-49EC-A6BA-8AE9EDC37B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ED006EC-CC56-4C33-811D-F6E23DB65676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debug" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="License Statement" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -229,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="363">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -2025,28 +2026,6 @@
     <t>[PZ] Add coverage to ensure debug_req asserted on every FSM state</t>
   </si>
   <si>
-    <t>N/A: Hard to detect that we are executing an exception handler.
-Covered in debug_test with ISS enabled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_ebreak_execute_with_ebreakm
-CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_cebreak_execute_with_ebreakm
-A  :uvmt_cv32_tb.u_debug_assert.a_cebreak_debug_mode</t>
-  </si>
-  <si>
-    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_debug_mode_ext
-A:   uvmt_cv32_tb.u_debug_assert.a_debug_mode_ext_req
-A:   uvmt_cv32_tb.u_debug_assert.a_debug_mode_pc
-A:   uvmt_cv32_tb.u_debug_assert.a_enter_debug</t>
-  </si>
-  <si>
-    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_trigger_match
-A:   uvmt_cv32_tb.u_debug_assert.a_trigger_match
-A:  uvmt_cv32_tb.u_debug_assert.a_debug_mode_pc
-A:  uvmt_cv32_tb.u_debug_assert.a_enter_debug</t>
-  </si>
-  <si>
     <t xml:space="preserve">CG: cg_trigger_match_disabled
 A:   uvmt_cv32_tb.u_debug_assert.a_trigger_match_disabled
 </t>
@@ -2076,15 +2055,6 @@
 A:   uvmt_cv32_tb.u_debug_assert.a_wfi_in_debug</t>
   </si>
   <si>
-    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_ebreak_with_ebreakm (.ebreak_in_debug)
-CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_cebreak_with_ebreakm (.ebreak_in_debug)
-A:   uvmt_cv32_tb.u_debug_assert.a_ebreak_during_debug_mode
-A:   uvmt_cv32_tb.u_debug_assert.a_cebreak_during_debug_mode</t>
-  </si>
-  <si>
-    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_wfi_debug_req</t>
-  </si>
-  <si>
     <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_single_step (.mmode_step)
 A:   uvmt_cv32_tb.u_debug_assert.a_single_step
 A:   uvmt_cv32_tb.u_debug_assert.a_enter_debug</t>
@@ -2099,9 +2069,6 @@
 A:   uvmt_cv32_tb.u_debug_assert.a_enter_debug</t>
   </si>
   <si>
-    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_single_step (.mmode_step_next_pc_will_match)</t>
-  </si>
-  <si>
     <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_single_step (.mmode_step_wfi)
 A:   uvmt_cv32_tb.u_debug_assert.a_single_step_wfi</t>
   </si>
@@ -2114,18 +2081,7 @@
   </si>
   <si>
     <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_mmode_dret
-A:  uvmt_cv32_tb.u_debug_assert.a_mmode_dret</t>
-  </si>
-  <si>
-    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_mmode_dret
 A:   uvmt_cv32_tb.u_debug_assert.a_dmode_dret</t>
-  </si>
-  <si>
-    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_single_step (mmode_step_stepie)</t>
-  </si>
-  <si>
-    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_irq_dreq
-A:   uvmt_cv32_tb.u_debug_assert.a_debug_req_and_irq</t>
   </si>
   <si>
     <t xml:space="preserve">CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_debug_mode_ext
@@ -2178,20 +2134,6 @@
   </si>
   <si>
     <t>Covered in DTC "debug_test_known_miscompares"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_ebreak_execute_without_ebreakm (ebreak_regular_nodebug)
-CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_cebreak_execute_without_ebreakm (cebreak_regular_nodebug)
-A: uvmt_cv32_tb.u_debug_assert.a_ebreak_exception
-A: uvmt_cv32_tb.u_debug_assert.a.cebreak_exception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_ebreak_execute_without_ebreakm (ebreak_step_nodebug)
-CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_cebreak_execute_without_ebreakm (cebreak_step_nodebug)
-A: uvmt_cv32_tb.u_debug_assert.a_ebreak_exception
-A: uvmt_cv32_tb.u_debug_assert.a.cebreak_exception</t>
   </si>
   <si>
     <t>Covered in DTC debug_test_known_miscompares</t>
@@ -2765,53 +2707,6 @@
   </si>
   <si>
     <t>Set up triggers to match the following scenario, execute misaligned loads/stores, push/pops, and table jumps, have a trigger fire while the instruction has started its sub operations, check that the instruction gets interrupted "midway" and that debug mode is entered correctly.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Set up single stepping. Ensure NMI is asserted while performing a step. Ensure that the NMI is taken when </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dcsr.stepie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 1, and not taken when </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dcsr.stepie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 0.</t>
-    </r>
   </si>
   <si>
     <t>Have debug_req_i and NMI asserted on same clock cycle. Ensure debugger entered with PC reflecting normal PC thread (not the NMI exception address)</t>
@@ -3495,25 +3390,160 @@
 Core starts executing debug code
 Ensure exception routine is not entered</t>
   </si>
+  <si>
+    <t>N/A: Hard to detect that we are executing an exception handler.
+Covered in debug_test with ISS enabled.
+A: uvmt_cv32_tb.u_debug_assert.a_enter_debug
+A: uvmt_cv32_tb.u_debug_assert.dcsr_cause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_ebreak_execute_with_ebreakm
+CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_cebreak_execute_with_ebreakm
+A  :uvmt_cv32_tb.u_debug_assert.a_enter_debug
+A: uvmt_cv32_tb.u_debug_assert.dcsr_cause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_ebreak_execute_without_ebreakm (ebreak_regular_nodebug)
+CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_cebreak_execute_without_ebreakm (cebreak_regular_nodebug)
+A: uvmt_cv32_tb.u_debug_assert.a_ebreak_umode_exception
+A: uvmt_cv32_tb.u_debug_assert.a.ebreak_mmode_exception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_ebreak_execute_without_ebreakm (ebreak_step_nodebug)
+CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_cebreak_execute_without_ebreakm (cebreak_step_nodebug)
+A: uvmt_cv32_tb.u_debug_assert.a_ebreak_umode_exception
+A: uvmt_cv32_tb.u_debug_assert.a.ebreak_mmode_exception</t>
+  </si>
+  <si>
+    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_debug_mode_ext
+A:   uvmt_cv32_tb.u_debug_assert.a_enter_debug
+A:   uvmt_cv32_tb.u_debug_assert.a_dcsr_cause
+A:   uvmt_cv32_tb.u_debug_assert.a_debug_mode_pc
+A: uvmt_cv32_tb.u_debug_assert.a_dpc_dbg_haltreq
+A: uvmt_cv32_tb.u_debug_assert.a_debug_req_taken</t>
+  </si>
+  <si>
+    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_trigger_match
+A:   uvmt_cv32_tb.u_debug_assert.a_dcsr_cause
+A:  uvmt_cv32_tb.u_debug_assert.a_dpc_dbg_trigger
+A:  uvmt_cv32_tb.u_debug_assert.a_enter_debug</t>
+  </si>
+  <si>
+    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_ebreak_with_ebreakm (.ebreak_in_debug)
+CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_cebreak_with_ebreakm (.ebreak_in_debug)
+A:   uvmt_cv32_tb.u_debug_assert.a_ebreak_during_debug_mode</t>
+  </si>
+  <si>
+    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_single_step (.mmode_step_next_pc_will_match)
+A: uvmt_cv32_tb.u_debug_assert.a_single_step_trigger
+A: uvmt_cv32_tb.u_debug_assert.a_enter_debug</t>
+  </si>
+  <si>
+    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_mmode_dret
+A:  uvmt_cv32_tb.u_debug_assert.a_mumode_dret</t>
+  </si>
+  <si>
+    <t>With timing=0 the core will not attempt to execute instruction at trigger address
+A:   uvmt_cv32_tb.u_debug_assert.a_dcsr_cause
+A:   uvmt_cv32_tb.u_debug_assert.a_dpc_dbg_trigger</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set up single stepping. Ensure NMI is asserted while performing a step. Ensure that the NMI is taken when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dcsr.stepie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1, and not taken when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dcsr.stepie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 0.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_single_step (mmode_step_stepie)
+A:   uvmt_cv32_tb.u_debug_assert.a_stepie_irq_dis</t>
+  </si>
+  <si>
+    <t>CG: uvmt_cv32_tb.u_debug_assert.cov_step_stepie_nmi
+A:   uvmt_cv32_tb.u_debug_assert.a_stepie_irq_dis</t>
+  </si>
+  <si>
+    <t>NOTE: not tested specifically, but is covered in formal verification of:
+A:   uvmt_cv32_tb.u_debug_assert.a_enter_debug
+A:   uvmt_cv32_tb.u_debug_assert.a_dcsr_cause</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32_tb.u_debug_assert.a_mumode_dret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_irq_dreq
+"NOTE: not tested specifically, but is covered in formal verification of:
+A:   uvmt_cv32_tb.u_debug_assert.a_enter_debug
+A:   uvmt_cv32_tb.u_debug_assert.a_dcsr_cause"
+</t>
+  </si>
+  <si>
+    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_wfi_debug_req
+A:   uvmt_cv32_tb.u_debug_assert.a_sleep_debug_req_wu
+A:   uvmt_cv32_tb.u_debug_assert.a_sleep_debug_req</t>
+  </si>
+  <si>
+    <t>A:   uvmt_cv32_tb.u_debug_assert.a_obi_dbg_instr
+A:   uvmt_cv32_tb.u_debug_assert.a_obi_dbg_instr_inv
+A:   uvmt_cv32_tb.u_debug_assert.a_obi_dbg_data
+A:   uvmt_cv32_tb.u_debug_assert.a_obi_dbg_data_inv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3868,41 +3898,44 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3911,85 +3944,85 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4377,7 +4410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4486,9 +4519,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8:E9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F99" sqref="F99:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4502,7 +4535,7 @@
     <col min="7" max="7" width="21.6640625" style="7" customWidth="1"/>
     <col min="8" max="8" width="31" style="7" customWidth="1"/>
     <col min="9" max="9" width="22.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="41.109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="56.33203125" style="7" customWidth="1"/>
     <col min="11" max="12" width="26.44140625" style="7" customWidth="1"/>
     <col min="13" max="13" width="17" style="8" customWidth="1"/>
     <col min="14" max="14" width="8.44140625" style="8" customWidth="1"/>
@@ -4547,13 +4580,13 @@
         <v>8</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
@@ -4561,22 +4594,22 @@
       <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>121</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -4592,22 +4625,22 @@
         <v>114</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="7" t="s">
         <v>24</v>
       </c>
@@ -4618,35 +4651,35 @@
         <v>21</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="E4" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -4658,26 +4691,26 @@
       <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="27" t="s">
         <v>114</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
@@ -4688,23 +4721,23 @@
         <v>21</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="36" t="s">
@@ -4713,11 +4746,11 @@
       <c r="D6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>356</v>
+      <c r="E6" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>343</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>10</v>
@@ -4732,22 +4765,22 @@
         <v>114</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="108.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="11" t="s">
         <v>24</v>
       </c>
@@ -4758,36 +4791,36 @@
         <v>21</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>184</v>
+      <c r="C8" s="38" t="s">
+        <v>174</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>357</v>
+      <c r="E8" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>344</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>10</v>
@@ -4799,25 +4832,25 @@
         <v>20</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="108.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="11" t="s">
         <v>24</v>
       </c>
@@ -4828,35 +4861,35 @@
         <v>21</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>187</v>
+        <v>348</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="33" t="s">
         <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -4873,12 +4906,12 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="175.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="7" t="s">
         <v>24</v>
       </c>
@@ -4889,26 +4922,26 @@
         <v>21</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>149</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="F12" s="28" t="s">
+      <c r="E12" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>105</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -4921,25 +4954,25 @@
         <v>20</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="282" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="7" t="s">
         <v>24</v>
       </c>
@@ -4950,36 +4983,36 @@
         <v>21</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>230</v>
+      <c r="F14" s="29" t="s">
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>10</v>
@@ -4991,16 +5024,16 @@
         <v>20</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="7" t="s">
         <v>24</v>
       </c>
@@ -5011,27 +5044,27 @@
         <v>21</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" s="28" t="s">
+      <c r="A16" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>233</v>
+      <c r="D16" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>221</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>10</v>
@@ -5043,22 +5076,22 @@
         <v>20</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
@@ -5069,25 +5102,25 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>235</v>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>223</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>10</v>
@@ -5099,22 +5132,22 @@
         <v>20</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="7" t="s">
         <v>24</v>
       </c>
@@ -5125,33 +5158,33 @@
         <v>21</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>239</v>
+      <c r="D20" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>10</v>
@@ -5163,22 +5196,22 @@
         <v>20</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="7" t="s">
         <v>24</v>
       </c>
@@ -5189,27 +5222,27 @@
         <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>240</v>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>10</v>
@@ -5221,22 +5254,22 @@
         <v>20</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="7" t="s">
         <v>24</v>
       </c>
@@ -5247,27 +5280,27 @@
         <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>242</v>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>230</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>10</v>
@@ -5279,22 +5312,22 @@
         <v>20</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="7" t="s">
         <v>24</v>
       </c>
@@ -5305,27 +5338,27 @@
         <v>21</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>243</v>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>231</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>10</v>
@@ -5337,22 +5370,22 @@
         <v>20</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
       <c r="G27" s="7" t="s">
         <v>24</v>
       </c>
@@ -5363,56 +5396,56 @@
         <v>21</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" s="28" t="s">
+      <c r="A29" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>245</v>
+      <c r="D29" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>233</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>10</v>
@@ -5424,22 +5457,22 @@
         <v>20</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
       <c r="G30" s="7" t="s">
         <v>24</v>
       </c>
@@ -5450,27 +5483,27 @@
         <v>21</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>246</v>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>234</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>10</v>
@@ -5482,22 +5515,22 @@
         <v>20</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
       <c r="G32" s="7" t="s">
         <v>24</v>
       </c>
@@ -5508,33 +5541,33 @@
         <v>21</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" s="28" t="s">
+      <c r="A33" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>248</v>
+      <c r="D33" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>236</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>10</v>
@@ -5546,22 +5579,22 @@
         <v>20</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
       <c r="G34" s="7" t="s">
         <v>24</v>
       </c>
@@ -5572,33 +5605,33 @@
         <v>21</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="28" t="s">
+      <c r="A35" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>251</v>
+      <c r="D35" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>10</v>
@@ -5610,22 +5643,22 @@
         <v>20</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
       <c r="G36" s="7" t="s">
         <v>24</v>
       </c>
@@ -5636,25 +5669,25 @@
         <v>21</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>252</v>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>10</v>
@@ -5666,22 +5699,22 @@
         <v>20</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
       <c r="G38" s="7" t="s">
         <v>24</v>
       </c>
@@ -5692,31 +5725,31 @@
         <v>21</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="B39" s="28" t="s">
+      <c r="A39" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28" t="s">
+      <c r="D39" s="29"/>
+      <c r="E39" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="28" t="s">
-        <v>305</v>
+      <c r="F39" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>10</v>
@@ -5731,19 +5764,19 @@
         <v>114</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
       <c r="G40" s="7" t="s">
         <v>24</v>
       </c>
@@ -5754,26 +5787,26 @@
         <v>21</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="B41" s="28" t="s">
+      <c r="A41" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="E41" s="28" t="s">
+      <c r="D41" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="29" t="s">
         <v>40</v>
       </c>
       <c r="G41" s="7" t="s">
@@ -5790,12 +5823,12 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
       <c r="G42" s="7" t="s">
         <v>24</v>
       </c>
@@ -5806,24 +5839,24 @@
         <v>21</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>19</v>
@@ -5835,33 +5868,33 @@
         <v>21</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="B44" s="28" t="s">
+      <c r="A44" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="B44" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>307</v>
+      <c r="D44" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>294</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>10</v>
@@ -5876,22 +5909,22 @@
         <v>114</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
       <c r="G45" s="7" t="s">
         <v>24</v>
       </c>
@@ -5902,36 +5935,36 @@
         <v>21</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="C46" s="28" t="s">
+      <c r="A46" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>258</v>
+      <c r="D46" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>246</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>10</v>
@@ -5943,22 +5976,22 @@
         <v>20</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
       <c r="G47" s="7" t="s">
         <v>24</v>
       </c>
@@ -5969,27 +6002,27 @@
         <v>21</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>348</v>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>335</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>10</v>
@@ -6001,22 +6034,22 @@
         <v>20</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
       <c r="G49" s="7" t="s">
         <v>24</v>
       </c>
@@ -6027,27 +6060,27 @@
         <v>21</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L49" s="21" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>261</v>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>249</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>10</v>
@@ -6059,22 +6092,22 @@
         <v>20</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
       <c r="G51" s="7" t="s">
         <v>24</v>
       </c>
@@ -6085,32 +6118,32 @@
         <v>21</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="33" t="s">
         <v>128</v>
       </c>
       <c r="G52" s="7" t="s">
@@ -6128,13 +6161,13 @@
       <c r="M52" s="7"/>
       <c r="S52" s="19"/>
     </row>
-    <row r="53" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
+    <row r="53" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
       <c r="G53" s="7" t="s">
         <v>24</v>
       </c>
@@ -6145,26 +6178,26 @@
         <v>21</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E54" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="34" t="s">
         <v>46</v>
       </c>
       <c r="G54" s="15" t="s">
@@ -6178,12 +6211,12 @@
       <c r="L54" s="8"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
       <c r="G55" s="15" t="s">
         <v>24</v>
       </c>
@@ -6195,22 +6228,22 @@
       <c r="L55" s="8"/>
     </row>
     <row r="56" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="28" t="s">
+      <c r="F56" s="29" t="s">
         <v>74</v>
       </c>
       <c r="G56" s="7" t="s">
@@ -6229,12 +6262,12 @@
       <c r="L56" s="8"/>
     </row>
     <row r="57" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
       <c r="G57" s="7" t="s">
         <v>24</v>
       </c>
@@ -6245,27 +6278,27 @@
         <v>21</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
     <row r="58" spans="1:19" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="C58" s="28" t="s">
+      <c r="A58" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>334</v>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>321</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>10</v>
@@ -6280,22 +6313,22 @@
         <v>114</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L58" s="21" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
       <c r="G59" s="7" t="s">
         <v>24</v>
       </c>
@@ -6306,16 +6339,16 @@
         <v>21</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -6335,33 +6368,33 @@
         <v>116</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>122</v>
       </c>
       <c r="K60" s="8"/>
       <c r="L60" s="21" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="28" t="s">
+      <c r="E61" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="28" t="s">
+      <c r="F61" s="29" t="s">
         <v>67</v>
       </c>
       <c r="G61" s="7" t="s">
@@ -6378,12 +6411,12 @@
       </c>
     </row>
     <row r="62" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
       <c r="G62" s="7" t="s">
         <v>24</v>
       </c>
@@ -6394,26 +6427,26 @@
         <v>21</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E63" s="32" t="s">
+      <c r="E63" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="F63" s="28" t="s">
+      <c r="F63" s="29" t="s">
         <v>130</v>
       </c>
       <c r="G63" s="7" t="s">
@@ -6430,12 +6463,12 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
       <c r="G64" s="7" t="s">
         <v>24</v>
       </c>
@@ -6446,7 +6479,7 @@
         <v>21</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>158</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="236.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6463,10 +6496,10 @@
         <v>101</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
@@ -6475,10 +6508,10 @@
         <v>122</v>
       </c>
       <c r="K65" s="21" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="L65" s="21" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -6498,13 +6531,13 @@
         <v>117</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6524,13 +6557,13 @@
         <v>118</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L67" s="21" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6550,50 +6583,50 @@
         <v>119</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L68" s="21" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="33" t="s">
+      <c r="D69" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E69" s="33" t="s">
+      <c r="E69" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F69" s="33" t="s">
-        <v>340</v>
+      <c r="F69" s="34" t="s">
+        <v>327</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
       <c r="J70" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L70" s="21" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="102" customHeight="1" x14ac:dyDescent="0.3">
@@ -6607,32 +6640,32 @@
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E72" s="28" t="s">
+      <c r="E72" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="F72" s="28" t="s">
+      <c r="F72" s="29" t="s">
         <v>132</v>
       </c>
       <c r="G72" s="7" t="s">
@@ -6648,17 +6681,17 @@
         <v>114</v>
       </c>
       <c r="K72" s="24" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="S72" s="20"/>
     </row>
     <row r="73" spans="1:19" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
       <c r="G73" s="7" t="s">
         <v>24</v>
       </c>
@@ -6669,26 +6702,26 @@
         <v>21</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>159</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D74" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E74" s="28" t="s">
+      <c r="E74" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="29" t="s">
         <v>107</v>
       </c>
       <c r="G74" s="7" t="s">
@@ -6705,12 +6738,12 @@
       </c>
     </row>
     <row r="75" spans="1:19" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
       <c r="G75" s="7" t="s">
         <v>24</v>
       </c>
@@ -6721,27 +6754,27 @@
         <v>21</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D76" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E76" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>311</v>
+      <c r="E76" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>298</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>10</v>
@@ -6756,16 +6789,16 @@
         <v>114</v>
       </c>
       <c r="K76" s="21" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
       <c r="G77" s="7" t="s">
         <v>24</v>
       </c>
@@ -6776,26 +6809,26 @@
         <v>21</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D78" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="F78" s="28" t="s">
+      <c r="F78" s="29" t="s">
         <v>98</v>
       </c>
       <c r="G78" s="7" t="s">
@@ -6812,12 +6845,12 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
       <c r="G79" s="7" t="s">
         <v>24</v>
       </c>
@@ -6828,26 +6861,26 @@
         <v>21</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="D80" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E80" s="33" t="s">
+      <c r="E80" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="33" t="s">
+      <c r="F80" s="34" t="s">
         <v>97</v>
       </c>
       <c r="G80" s="15" t="s">
@@ -6860,12 +6893,12 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
       <c r="G81" s="15" t="s">
         <v>24</v>
       </c>
@@ -6876,22 +6909,22 @@
       </c>
     </row>
     <row r="82" spans="1:13" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="C82" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="D82" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E82" s="28" t="s">
+      <c r="E82" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F82" s="28" t="s">
+      <c r="F82" s="29" t="s">
         <v>106</v>
       </c>
       <c r="G82" s="7" t="s">
@@ -6907,13 +6940,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
+    <row r="83" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
       <c r="G83" s="7" t="s">
         <v>24</v>
       </c>
@@ -6924,26 +6957,26 @@
         <v>21</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>163</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B84" s="28" t="s">
+      <c r="B84" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D84" s="28" t="s">
+      <c r="D84" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E84" s="28" t="s">
+      <c r="E84" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="F84" s="28" t="s">
+      <c r="F84" s="29" t="s">
         <v>99</v>
       </c>
       <c r="G84" s="7" t="s">
@@ -6959,13 +6992,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
+    <row r="85" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="29"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
       <c r="G85" s="7" t="s">
         <v>24</v>
       </c>
@@ -6976,26 +7009,26 @@
         <v>21</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="28" t="s">
+      <c r="B86" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D86" s="28" t="s">
+      <c r="D86" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E86" s="28" t="s">
+      <c r="E86" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F86" s="28" t="s">
+      <c r="F86" s="29" t="s">
         <v>100</v>
       </c>
       <c r="G86" s="7" t="s">
@@ -7008,16 +7041,16 @@
         <v>20</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
       <c r="G87" s="7" t="s">
         <v>24</v>
       </c>
@@ -7028,26 +7061,26 @@
         <v>21</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="29" t="s">
         <v>49</v>
       </c>
       <c r="D88" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E88" s="28" t="s">
+      <c r="E88" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F88" s="28" t="s">
+      <c r="F88" s="29" t="s">
         <v>103</v>
       </c>
       <c r="G88" s="7" t="s">
@@ -7063,13 +7096,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
+    <row r="89" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
       <c r="D89" s="35"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
       <c r="G89" s="7" t="s">
         <v>24</v>
       </c>
@@ -7080,26 +7113,26 @@
         <v>21</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>167</v>
+        <v>353</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="28" t="s">
+      <c r="B90" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="C90" s="29" t="s">
         <v>49</v>
       </c>
       <c r="D90" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E90" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="F90" s="28" t="s">
+      <c r="E90" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="F90" s="29" t="s">
         <v>104</v>
       </c>
       <c r="G90" s="7" t="s">
@@ -7115,16 +7148,16 @@
         <v>114</v>
       </c>
       <c r="K90" s="21" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
       <c r="D91" s="35"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
       <c r="G91" s="7" t="s">
         <v>24</v>
       </c>
@@ -7135,27 +7168,27 @@
         <v>21</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="C92" s="28" t="s">
+      <c r="A92" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C92" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D92" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E92" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="F92" s="28" t="s">
-        <v>268</v>
+      <c r="D92" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="F92" s="29" t="s">
+        <v>256</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>10</v>
@@ -7167,22 +7200,22 @@
         <v>20</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M92" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
       <c r="G93" s="7" t="s">
         <v>24</v>
       </c>
@@ -7193,33 +7226,33 @@
         <v>21</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B94" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="C94" s="28" t="s">
+      <c r="A94" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B94" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C94" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D94" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E94" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="F94" s="28" t="s">
-        <v>269</v>
+      <c r="D94" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E94" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>257</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>10</v>
@@ -7231,22 +7264,22 @@
         <v>20</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
       <c r="G95" s="7" t="s">
         <v>24</v>
       </c>
@@ -7257,33 +7290,33 @@
         <v>21</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="B96" s="28" t="s">
+      <c r="F96" s="29" t="s">
         <v>255</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E96" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="F96" s="28" t="s">
-        <v>267</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>10</v>
@@ -7295,22 +7328,22 @@
         <v>20</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
       <c r="G97" s="7" t="s">
         <v>24</v>
       </c>
@@ -7321,13 +7354,13 @@
         <v>21</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -7355,18 +7388,18 @@
       </c>
     </row>
     <row r="99" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28" t="s">
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D99" s="28" t="s">
+      <c r="D99" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E99" s="28" t="s">
+      <c r="E99" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F99" s="28" t="s">
+      <c r="F99" s="29" t="s">
         <v>138</v>
       </c>
       <c r="G99" s="7" t="s">
@@ -7379,16 +7412,16 @@
         <v>20</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="92.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="28"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
       <c r="G100" s="7" t="s">
         <v>24</v>
       </c>
@@ -7399,22 +7432,22 @@
         <v>21</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>179</v>
+        <v>354</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28" t="s">
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D101" s="28" t="s">
+      <c r="D101" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E101" s="28" t="s">
+      <c r="E101" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F101" s="28" t="s">
+      <c r="F101" s="29" t="s">
         <v>140</v>
       </c>
       <c r="G101" s="7" t="s">
@@ -7427,16 +7460,16 @@
         <v>20</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="28"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
+      <c r="A102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
       <c r="G102" s="7" t="s">
         <v>24</v>
       </c>
@@ -7447,25 +7480,25 @@
         <v>21</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>179</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="B103" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="C103" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="F103" s="28" t="s">
-        <v>271</v>
+      <c r="A103" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="B103" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>259</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>10</v>
@@ -7477,22 +7510,22 @@
         <v>20</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="28"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
       <c r="G104" s="7" t="s">
         <v>24</v>
       </c>
@@ -7502,32 +7535,35 @@
       <c r="I104" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="J104" s="7" t="s">
+        <v>362</v>
+      </c>
       <c r="K104" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M104" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="B105" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="F105" s="28" t="s">
-        <v>275</v>
+      <c r="A105" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="B105" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>263</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>10</v>
@@ -7539,22 +7575,22 @@
         <v>20</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M105" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="28"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
       <c r="G106" s="7" t="s">
         <v>24</v>
       </c>
@@ -7565,31 +7601,31 @@
         <v>21</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B107" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="F107" s="28" t="s">
-        <v>278</v>
+      <c r="A107" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>266</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>10</v>
@@ -7601,22 +7637,22 @@
         <v>20</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="28"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
       <c r="G108" s="7" t="s">
         <v>24</v>
       </c>
@@ -7627,31 +7663,31 @@
         <v>21</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="B109" s="28"/>
-      <c r="C109" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="D109" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E109" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="F109" s="28" t="s">
-        <v>279</v>
+      <c r="A109" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E109" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>267</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>10</v>
@@ -7663,22 +7699,22 @@
         <v>20</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="28"/>
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
+      <c r="A110" s="29"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
       <c r="G110" s="7" t="s">
         <v>24</v>
       </c>
@@ -7689,31 +7725,31 @@
         <v>21</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B111" s="28"/>
-      <c r="C111" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="D111" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="E111" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="F111" s="28" t="s">
-        <v>281</v>
+      <c r="A111" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E111" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="F111" s="29" t="s">
+        <v>269</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>10</v>
@@ -7725,22 +7761,22 @@
         <v>20</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="28"/>
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
       <c r="G112" s="7" t="s">
         <v>24</v>
       </c>
@@ -7751,32 +7787,32 @@
         <v>21</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="28" t="s">
+      <c r="A113" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="C113" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D113" s="28" t="s">
+      <c r="D113" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E113" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="F113" s="28" t="s">
+      <c r="E113" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F113" s="29" t="s">
         <v>142</v>
       </c>
       <c r="G113" s="7" t="s">
@@ -7792,22 +7828,22 @@
         <v>114</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="28"/>
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="29"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
       <c r="G114" s="7" t="s">
         <v>24</v>
       </c>
@@ -7818,26 +7854,26 @@
         <v>21</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>169</v>
+        <v>356</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L114" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="28"/>
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28" t="s">
-        <v>282</v>
+      <c r="A115" s="29"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29" t="s">
+        <v>355</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>10</v>
@@ -7849,22 +7885,22 @@
         <v>20</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L115" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="28"/>
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
+      <c r="A116" s="29"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
       <c r="G116" s="7" t="s">
         <v>24</v>
       </c>
@@ -7874,27 +7910,30 @@
       <c r="I116" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="J116" s="7" t="s">
+        <v>357</v>
+      </c>
       <c r="K116" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="28"/>
-      <c r="B117" s="28"/>
-      <c r="C117" s="28" t="s">
+      <c r="A117" s="29"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D117" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="E117" s="28"/>
-      <c r="F117" s="38" t="s">
+      <c r="D117" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="E117" s="29"/>
+      <c r="F117" s="39" t="s">
         <v>143</v>
       </c>
       <c r="G117" s="7" t="s">
@@ -7911,12 +7950,12 @@
       </c>
     </row>
     <row r="118" spans="1:19" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="28"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="39"/>
+      <c r="A118" s="29"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="40"/>
       <c r="G118" s="7" t="s">
         <v>24</v>
       </c>
@@ -7927,22 +7966,22 @@
         <v>21</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="K118" s="21" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="28"/>
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="E119" s="28"/>
-      <c r="F119" s="40" t="s">
-        <v>283</v>
+      <c r="A119" s="29"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E119" s="29"/>
+      <c r="F119" s="41" t="s">
+        <v>270</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>10</v>
@@ -7954,22 +7993,22 @@
         <v>20</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="28"/>
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="39"/>
+      <c r="A120" s="29"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="40"/>
       <c r="G120" s="7" t="s">
         <v>24</v>
       </c>
@@ -7979,14 +8018,17 @@
       <c r="I120" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="J120" s="8" t="s">
+        <v>358</v>
+      </c>
       <c r="K120" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L120" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8009,20 +8051,20 @@
         <v>20</v>
       </c>
       <c r="J121" s="17" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:19" ht="99" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="28"/>
-      <c r="B122" s="28"/>
-      <c r="C122" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="D122" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="E122" s="28"/>
-      <c r="F122" s="29" t="s">
+      <c r="A122" s="29"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="E122" s="29"/>
+      <c r="F122" s="30" t="s">
         <v>113</v>
       </c>
       <c r="G122" s="7" t="s">
@@ -8035,16 +8077,16 @@
         <v>20</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="28"/>
-      <c r="B123" s="28"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="29"/>
+      <c r="A123" s="29"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="30"/>
       <c r="G123" s="7" t="s">
         <v>24</v>
       </c>
@@ -8052,18 +8094,18 @@
         <v>18</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="28"/>
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
+      <c r="A124" s="29"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
       <c r="F124" s="9" t="s">
         <v>146</v>
       </c>
@@ -8077,32 +8119,32 @@
         <v>21</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="28"/>
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
+      <c r="A125" s="29"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
       <c r="F125" s="9" t="s">
         <v>109</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="1:19" ht="106.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="28"/>
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="F126" s="27" t="s">
-        <v>316</v>
+      <c r="A126" s="29"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F126" s="28" t="s">
+        <v>303</v>
       </c>
       <c r="G126" s="8" t="s">
         <v>10</v>
@@ -8114,20 +8156,20 @@
         <v>20</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="K126" s="21" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="S126" s="20"/>
     </row>
     <row r="127" spans="1:19" ht="106.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="28"/>
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="28"/>
       <c r="G127" s="8" t="s">
         <v>24</v>
       </c>
@@ -8138,20 +8180,20 @@
         <v>21</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="S127" s="20"/>
     </row>
-    <row r="128" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="28"/>
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="F128" s="27" t="s">
-        <v>175</v>
+    <row r="128" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A128" s="29"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F128" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>10</v>
@@ -8163,25 +8205,25 @@
         <v>20</v>
       </c>
       <c r="J128" s="13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="167.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="28"/>
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
+      <c r="A129" s="29"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="28"/>
       <c r="G129" s="8" t="s">
         <v>24</v>
       </c>
@@ -8192,30 +8234,30 @@
         <v>21</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="28"/>
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="E130" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="F130" s="27" t="s">
-        <v>327</v>
+      <c r="A130" s="29"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E130" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="F130" s="28" t="s">
+        <v>314</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>10</v>
@@ -8229,12 +8271,12 @@
       <c r="J130" s="8"/>
     </row>
     <row r="131" spans="1:13" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="28"/>
-      <c r="B131" s="28"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
+      <c r="A131" s="29"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
       <c r="G131" s="8" t="s">
         <v>24</v>
       </c>
@@ -8244,20 +8286,22 @@
       <c r="I131" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J131" s="8"/>
+      <c r="J131" s="8" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="132" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="28"/>
-      <c r="B132" s="28"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="E132" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="F132" s="27" t="s">
-        <v>327</v>
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="E132" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="F132" s="28" t="s">
+        <v>314</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>10</v>
@@ -8271,12 +8315,12 @@
       <c r="J132" s="8"/>
     </row>
     <row r="133" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="28"/>
-      <c r="B133" s="28"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
       <c r="G133" s="8" t="s">
         <v>24</v>
       </c>
@@ -8286,20 +8330,22 @@
       <c r="I133" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J133" s="8"/>
+      <c r="J133" s="8" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="134" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="28"/>
-      <c r="B134" s="28"/>
-      <c r="C134" s="28"/>
+      <c r="A134" s="29"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
       <c r="D134" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G134" s="8" t="s">
         <v>19</v>
@@ -8310,20 +8356,22 @@
       <c r="I134" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J134" s="8"/>
+      <c r="J134" s="8" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="135" spans="1:13" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="28"/>
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
+      <c r="A135" s="29"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
       <c r="D135" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>19</v>
@@ -8334,22 +8382,24 @@
       <c r="I135" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J135" s="8"/>
+      <c r="J135" s="8" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="136" spans="1:13" ht="95.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>10</v>
@@ -8361,36 +8411,36 @@
         <v>20</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="K136" s="21" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="L136" s="21" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="M136" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="B137" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="C137" s="30" t="s">
+      <c r="A137" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B137" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C137" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D137" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="E137" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="F137" s="27" t="s">
-        <v>319</v>
+      <c r="D137" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="E137" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="F137" s="28" t="s">
+        <v>306</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>10</v>
@@ -8403,22 +8453,22 @@
       </c>
       <c r="J137" s="8"/>
       <c r="K137" s="21" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M137" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A138" s="27"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
+      <c r="A138" s="28"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="28"/>
       <c r="G138" s="8" t="s">
         <v>24</v>
       </c>
@@ -8476,17 +8526,17 @@
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" s="18"/>
-      <c r="B166" s="31" t="s">
+      <c r="B166" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C166" s="31"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="31"/>
-      <c r="F166" s="31"/>
-      <c r="G166" s="31"/>
-      <c r="H166" s="31"/>
-      <c r="I166" s="31"/>
-      <c r="J166" s="31"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="32"/>
+      <c r="H166" s="32"/>
+      <c r="I166" s="32"/>
+      <c r="J166" s="32"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R169" s="18"/>
@@ -8631,11 +8681,6 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
     <mergeCell ref="E82:E83"/>
     <mergeCell ref="A90:A91"/>
     <mergeCell ref="B90:B91"/>
@@ -8649,15 +8694,7 @@
     <mergeCell ref="D88:D89"/>
     <mergeCell ref="E88:E89"/>
     <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F69:F70"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="C76:C77"/>
@@ -8668,7 +8705,19 @@
     <mergeCell ref="C86:C87"/>
     <mergeCell ref="D86:D87"/>
     <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="C69:C70"/>
@@ -8679,8 +8728,6 @@
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F76:F77"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
@@ -8704,6 +8751,7 @@
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F63:F64"/>
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
@@ -8795,6 +8843,8 @@
     <mergeCell ref="E119:E120"/>
     <mergeCell ref="D119:D120"/>
     <mergeCell ref="B117:B120"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F90:F91"/>
     <mergeCell ref="A137:A138"/>
     <mergeCell ref="C122:C135"/>
     <mergeCell ref="B122:B135"/>
@@ -8813,7 +8863,7 @@
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="F122:F123"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="K10 K2 K39 K41 K52 K54 K56 K58:K59 K63 K66 K68 K77 K79 K81 K83 K85 K87 K89 K125:K126 K136:K137 K139 K141 K143 K61 K6 K91:K97 K121:L121 K117:L118">
     <cfRule type="colorScale" priority="28">
       <colorScale>

--- a/docs/VerifPlans/Simulation/debug-trace/CV32E40XS_debug.xlsx
+++ b/docs/VerifPlans/Simulation/debug-trace/CV32E40XS_debug.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\localWork\WIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\silabs.com\design\work\mateilga\openhw\core-v-verif_40s\cv32e40s\docs\VerifPlans\Simulation\debug-trace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ED006EC-CC56-4C33-811D-F6E23DB65676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7DADA9-9F9A-4450-9CC1-7F751C1050FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="0" windowWidth="30936" windowHeight="16680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debug" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="License Statement" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -75,7 +74,7 @@
     Team decided to keep it here.</t>
       </text>
     </comment>
-    <comment ref="E44" authorId="2" shapeId="0" xr:uid="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
+    <comment ref="E45" authorId="2" shapeId="0" xr:uid="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +84,7 @@
     Redundant but already here, soo we will leave it.</t>
       </text>
     </comment>
-    <comment ref="E52" authorId="3" shapeId="0" xr:uid="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
+    <comment ref="E53" authorId="3" shapeId="0" xr:uid="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +92,7 @@
     I like Paul's suggested re-wording.</t>
       </text>
     </comment>
-    <comment ref="E54" authorId="4" shapeId="0" xr:uid="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
+    <comment ref="E55" authorId="4" shapeId="0" xr:uid="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -103,7 +102,7 @@
     yes</t>
       </text>
     </comment>
-    <comment ref="F60" authorId="5" shapeId="0" xr:uid="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
+    <comment ref="F61" authorId="5" shapeId="0" xr:uid="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -113,7 +112,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="E63" authorId="6" shapeId="0" xr:uid="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
+    <comment ref="E64" authorId="6" shapeId="0" xr:uid="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -123,7 +122,7 @@
     No privl levels - used PZ wording</t>
       </text>
     </comment>
-    <comment ref="F65" authorId="7" shapeId="0" xr:uid="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
+    <comment ref="F66" authorId="7" shapeId="0" xr:uid="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -133,7 +132,7 @@
     Boils down to : execute fence instruction while in debug mode.</t>
       </text>
     </comment>
-    <comment ref="E66" authorId="8" shapeId="0" xr:uid="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
+    <comment ref="E67" authorId="8" shapeId="0" xr:uid="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -143,7 +142,7 @@
     agreed</t>
       </text>
     </comment>
-    <comment ref="E67" authorId="9" shapeId="0" xr:uid="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
+    <comment ref="E68" authorId="9" shapeId="0" xr:uid="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -153,7 +152,7 @@
     Agreed.</t>
       </text>
     </comment>
-    <comment ref="E68" authorId="10" shapeId="0" xr:uid="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
+    <comment ref="E69" authorId="10" shapeId="0" xr:uid="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -163,7 +162,7 @@
     Agreed.</t>
       </text>
     </comment>
-    <comment ref="E69" authorId="11" shapeId="0" xr:uid="{8D03C130-0376-4058-ACC4-1AFE35483BC5}">
+    <comment ref="E70" authorId="11" shapeId="0" xr:uid="{8D03C130-0376-4058-ACC4-1AFE35483BC5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -171,7 +170,7 @@
     Strike it?</t>
       </text>
     </comment>
-    <comment ref="E71" authorId="12" shapeId="0" xr:uid="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}">
+    <comment ref="E72" authorId="12" shapeId="0" xr:uid="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -179,7 +178,7 @@
     Strike it?</t>
       </text>
     </comment>
-    <comment ref="G73" authorId="13" shapeId="0" xr:uid="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
+    <comment ref="G74" authorId="13" shapeId="0" xr:uid="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -189,7 +188,7 @@
     No, the random test already does that.</t>
       </text>
     </comment>
-    <comment ref="F76" authorId="14" shapeId="0" xr:uid="{359070A5-02B6-4A16-8859-1CF1672E058F}">
+    <comment ref="F77" authorId="14" shapeId="0" xr:uid="{359070A5-02B6-4A16-8859-1CF1672E058F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -199,7 +198,7 @@
     Oystein to update test - may already be done.</t>
       </text>
     </comment>
-    <comment ref="E90" authorId="15" shapeId="0" xr:uid="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}">
+    <comment ref="E91" authorId="15" shapeId="0" xr:uid="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -207,7 +206,7 @@
     Strike the bit about priv level.</t>
       </text>
     </comment>
-    <comment ref="E98" authorId="16" shapeId="0" xr:uid="{DBF077C8-A084-4C20-8E27-8023879A0FAD}">
+    <comment ref="E99" authorId="16" shapeId="0" xr:uid="{DBF077C8-A084-4C20-8E27-8023879A0FAD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -215,7 +214,7 @@
     Agree with Paul.  Recommend we strike this Feature from the Vplan.</t>
       </text>
     </comment>
-    <comment ref="F121" authorId="17" shapeId="0" xr:uid="{330593C8-663F-4984-BA49-9E72F46FD622}">
+    <comment ref="F122" authorId="17" shapeId="0" xr:uid="{330593C8-663F-4984-BA49-9E72F46FD622}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -230,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="369">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -3532,18 +3531,44 @@
 A:   uvmt_cv32_tb.u_debug_assert.a_obi_dbg_data
 A:   uvmt_cv32_tb.u_debug_assert.a_obi_dbg_data_inv</t>
   </si>
+  <si>
+    <t>40s User Manual 0.8.0</t>
+  </si>
+  <si>
+    <t>Debug Chapter</t>
+  </si>
+  <si>
+    <t>debug_pc_o</t>
+  </si>
+  <si>
+    <t>Signal "debug_pc_o" is the PC of the last retired instruction The signal is only valid when "debug_pc_valid_o" is equal to 1</t>
+  </si>
+  <si>
+    <t>Verify that the signal can be matched with related rvfi signals</t>
+  </si>
+  <si>
+    <t>A:   uvmt_cv32_tb.u_debug_assert.a_debug_pc_o
+A:   uvmt_cv32_tb.u_debug_assert.a_debug_pc_o_inv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3898,44 +3923,41 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3944,67 +3966,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4013,13 +4020,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4430,85 +4458,85 @@
   <threadedComment ref="E8" dT="2020-09-30T13:17:06.19" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{90E355DC-DFE0-4393-901C-C7BA637FF5FE}" parentId="{409B10D5-F2FF-4A54-AF8E-8F8611120E5A}">
     <text>Team decided to keep it here.</text>
   </threadedComment>
-  <threadedComment ref="E44" dT="2020-09-24T16:55:04.12" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}" done="1">
+  <threadedComment ref="E45" dT="2020-09-24T16:55:04.12" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}" done="1">
     <text>This is already covered in the CSR Vplan.   Suggest we strike it from this Vplan.</text>
   </threadedComment>
-  <threadedComment ref="E44" dT="2020-09-30T13:18:41.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3BF6FA3E-FAF4-478E-85E9-6205296B01C9}" parentId="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
+  <threadedComment ref="E45" dT="2020-09-30T13:18:41.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3BF6FA3E-FAF4-478E-85E9-6205296B01C9}" parentId="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
     <text>Redundant but already here, soo we will leave it.</text>
   </threadedComment>
-  <threadedComment ref="E52" dT="2020-09-24T16:57:01.54" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
+  <threadedComment ref="E53" dT="2020-09-24T16:57:01.54" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
     <text>I like Paul's suggested re-wording.</text>
   </threadedComment>
-  <threadedComment ref="E54" dT="2020-09-24T16:53:52.20" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}" done="1">
+  <threadedComment ref="E55" dT="2020-09-24T16:53:52.20" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E54" dT="2020-09-30T13:25:11.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{2F5A1AE8-17CB-4809-9BBC-4658D9626781}" parentId="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
+  <threadedComment ref="E55" dT="2020-09-30T13:25:11.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{2F5A1AE8-17CB-4809-9BBC-4658D9626781}" parentId="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
     <text>yes</text>
   </threadedComment>
-  <threadedComment ref="F60" dT="2020-09-24T16:59:11.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8859A4C9-6A41-4816-B62E-43D40684F8F2}" done="1">
+  <threadedComment ref="F61" dT="2020-09-24T16:59:11.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8859A4C9-6A41-4816-B62E-43D40684F8F2}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="F60" dT="2020-09-30T13:25:59.46" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14A99125-C214-42BC-9CBF-4BFF9258C81D}" parentId="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
+  <threadedComment ref="F61" dT="2020-09-30T13:25:59.46" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14A99125-C214-42BC-9CBF-4BFF9258C81D}" parentId="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
     <text>Done</text>
   </threadedComment>
-  <threadedComment ref="E63" dT="2020-09-24T18:24:13.37" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}" done="1">
+  <threadedComment ref="E64" dT="2020-09-24T18:24:13.37" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}" done="1">
     <text>These two statements seem incompatible...</text>
   </threadedComment>
-  <threadedComment ref="E63" dT="2020-09-30T13:27:53.85" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{7AB65A33-1A15-4445-9245-4D95F9A28763}" parentId="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
+  <threadedComment ref="E64" dT="2020-09-30T13:27:53.85" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{7AB65A33-1A15-4445-9245-4D95F9A28763}" parentId="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
     <text>No privl levels - used PZ wording</text>
   </threadedComment>
-  <threadedComment ref="F65" dT="2020-09-24T18:25:18.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
+  <threadedComment ref="F66" dT="2020-09-24T18:25:18.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
     <text>Where are we on this?</text>
   </threadedComment>
-  <threadedComment ref="F65" dT="2020-09-30T13:30:53.84" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{47003926-6041-4466-90A2-2C10C5C85296}" parentId="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
+  <threadedComment ref="F66" dT="2020-09-30T13:30:53.84" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{47003926-6041-4466-90A2-2C10C5C85296}" parentId="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
     <text>Boils down to : execute fence instruction while in debug mode.</text>
   </threadedComment>
-  <threadedComment ref="E66" dT="2020-09-24T18:30:19.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{AA8182C6-5B9E-4486-B389-DB07B4061F09}" done="1">
+  <threadedComment ref="E67" dT="2020-09-24T18:30:19.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{AA8182C6-5B9E-4486-B389-DB07B4061F09}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E66" dT="2020-09-30T13:31:48.03" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{E2660D4C-ABB0-4A74-8E26-618F8054984D}" parentId="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
+  <threadedComment ref="E67" dT="2020-09-30T13:31:48.03" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{E2660D4C-ABB0-4A74-8E26-618F8054984D}" parentId="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
     <text>agreed</text>
   </threadedComment>
-  <threadedComment ref="E67" dT="2020-09-24T18:30:28.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}" done="1">
+  <threadedComment ref="E68" dT="2020-09-24T18:30:28.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E67" dT="2020-09-30T13:32:19.99" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14422222-B948-462F-AB79-03264D9DD8D6}" parentId="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
+  <threadedComment ref="E68" dT="2020-09-30T13:32:19.99" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14422222-B948-462F-AB79-03264D9DD8D6}" parentId="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
     <text>Agreed.</text>
   </threadedComment>
-  <threadedComment ref="E68" dT="2020-09-24T18:30:34.82" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}" done="1">
+  <threadedComment ref="E69" dT="2020-09-24T18:30:34.82" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E68" dT="2020-09-30T13:32:40.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0284E229-AC40-4DE7-B509-C230FD082319}" parentId="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
+  <threadedComment ref="E69" dT="2020-09-30T13:32:40.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0284E229-AC40-4DE7-B509-C230FD082319}" parentId="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
     <text>Agreed.</text>
   </threadedComment>
-  <threadedComment ref="E69" dT="2020-09-24T18:31:32.23" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8D03C130-0376-4058-ACC4-1AFE35483BC5}" done="1">
+  <threadedComment ref="E70" dT="2020-09-24T18:31:32.23" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8D03C130-0376-4058-ACC4-1AFE35483BC5}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E71" dT="2020-09-24T18:31:54.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}" done="1">
+  <threadedComment ref="E72" dT="2020-09-24T18:31:54.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="G73" dT="2020-09-24T18:33:02.27" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}" done="1">
+  <threadedComment ref="G74" dT="2020-09-24T18:33:02.27" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}" done="1">
     <text>Strike the random test?</text>
   </threadedComment>
-  <threadedComment ref="G73" dT="2020-09-30T13:34:31.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{ED00C003-ADD3-4337-A61F-D4F72597A94A}" parentId="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
+  <threadedComment ref="G74" dT="2020-09-30T13:34:31.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{ED00C003-ADD3-4337-A61F-D4F72597A94A}" parentId="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
     <text>No, the random test already does that.</text>
   </threadedComment>
-  <threadedComment ref="F76" dT="2020-09-24T18:34:22.08" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{359070A5-02B6-4A16-8859-1CF1672E058F}" done="1">
+  <threadedComment ref="F77" dT="2020-09-24T18:34:22.08" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{359070A5-02B6-4A16-8859-1CF1672E058F}" done="1">
     <text>Agree with Paul's suggestion (very clever).</text>
   </threadedComment>
-  <threadedComment ref="F76" dT="2020-09-30T13:35:41.79" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{18F9F807-0A03-4BDC-94E3-F905A81B75E9}" parentId="{359070A5-02B6-4A16-8859-1CF1672E058F}">
+  <threadedComment ref="F77" dT="2020-09-30T13:35:41.79" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{18F9F807-0A03-4BDC-94E3-F905A81B75E9}" parentId="{359070A5-02B6-4A16-8859-1CF1672E058F}">
     <text>Oystein to update test - may already be done.</text>
   </threadedComment>
-  <threadedComment ref="E90" dT="2020-09-24T18:40:37.04" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}" done="1">
+  <threadedComment ref="E91" dT="2020-09-24T18:40:37.04" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}" done="1">
     <text>Strike the bit about priv level.</text>
   </threadedComment>
-  <threadedComment ref="E98" dT="2020-09-24T18:41:13.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{DBF077C8-A084-4C20-8E27-8023879A0FAD}" done="1">
+  <threadedComment ref="E99" dT="2020-09-24T18:41:13.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{DBF077C8-A084-4C20-8E27-8023879A0FAD}" done="1">
     <text>Agree with Paul.  Recommend we strike this Feature from the Vplan.</text>
   </threadedComment>
-  <threadedComment ref="F121" dT="2020-09-24T18:43:39.52" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{330593C8-663F-4984-BA49-9E72F46FD622}" done="1">
+  <threadedComment ref="F122" dT="2020-09-24T18:43:39.52" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{330593C8-663F-4984-BA49-9E72F46FD622}" done="1">
     <text>Interesting.   I will take this one.  Not sure of the mechanics, but should be able to figure it out.  The extension would be to run any randomly generated test-program in debug mode.</text>
   </threadedComment>
-  <threadedComment ref="F121" dT="2020-09-30T13:54:53.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{EBD10753-F33F-41FF-8334-571D8778E2AA}" parentId="{330593C8-663F-4984-BA49-9E72F46FD622}">
+  <threadedComment ref="F122" dT="2020-09-30T13:54:53.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{EBD10753-F33F-41FF-8334-571D8778E2AA}" parentId="{330593C8-663F-4984-BA49-9E72F46FD622}">
     <text>Better idea: cross coverage of debug mode entry and instruction executed</text>
   </threadedComment>
 </ThreadedComments>
@@ -4517,11 +4545,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S169"/>
+  <dimension ref="A1:S170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F99" sqref="F99:F100"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4594,22 +4622,22 @@
       <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>121</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -4635,12 +4663,12 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="7" t="s">
         <v>24</v>
       </c>
@@ -4664,22 +4692,22 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -4705,12 +4733,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
@@ -4734,22 +4762,22 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="33" t="s">
         <v>343</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -4775,12 +4803,12 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="11" t="s">
         <v>24</v>
       </c>
@@ -4804,22 +4832,22 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="33" t="s">
         <v>344</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -4845,12 +4873,12 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="147" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="11" t="s">
         <v>24</v>
       </c>
@@ -4874,22 +4902,22 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="37" t="s">
         <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -4906,12 +4934,12 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="175.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="7" t="s">
         <v>24</v>
       </c>
@@ -4926,22 +4954,22 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="28" t="s">
         <v>105</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -4967,12 +4995,12 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="282" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="7" t="s">
         <v>24</v>
       </c>
@@ -4996,22 +5024,22 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="28" t="s">
         <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -5028,12 +5056,12 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="7" t="s">
         <v>24</v>
       </c>
@@ -5048,22 +5076,22 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="28" t="s">
         <v>221</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -5086,12 +5114,12 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
@@ -5112,14 +5140,14 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="28" t="s">
         <v>223</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -5142,12 +5170,12 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="7" t="s">
         <v>24</v>
       </c>
@@ -5168,22 +5196,22 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="28" t="s">
         <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -5206,12 +5234,12 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="7" t="s">
         <v>24</v>
       </c>
@@ -5232,16 +5260,16 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="28" t="s">
         <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
@@ -5264,12 +5292,12 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="7" t="s">
         <v>24</v>
       </c>
@@ -5290,16 +5318,16 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="28" t="s">
         <v>230</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -5322,12 +5350,12 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="7" t="s">
         <v>24</v>
       </c>
@@ -5348,16 +5376,16 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="28" t="s">
         <v>231</v>
       </c>
       <c r="G26" s="7" t="s">
@@ -5380,12 +5408,12 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="7" t="s">
         <v>24</v>
       </c>
@@ -5406,9 +5434,9 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="7" t="s">
         <v>209</v>
       </c>
@@ -5429,22 +5457,22 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="28" t="s">
         <v>233</v>
       </c>
       <c r="G29" s="7" t="s">
@@ -5467,12 +5495,12 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="7" t="s">
         <v>24</v>
       </c>
@@ -5493,16 +5521,16 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="28" t="s">
         <v>234</v>
       </c>
       <c r="G31" s="7" t="s">
@@ -5525,12 +5553,12 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="7" t="s">
         <v>24</v>
       </c>
@@ -5551,22 +5579,22 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="28" t="s">
         <v>236</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -5589,12 +5617,12 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="7" t="s">
         <v>24</v>
       </c>
@@ -5615,22 +5643,22 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="28" t="s">
         <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
@@ -5653,12 +5681,12 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
       <c r="G36" s="7" t="s">
         <v>24</v>
       </c>
@@ -5679,14 +5707,14 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="28" t="s">
         <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
@@ -5709,12 +5737,12 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="7" t="s">
         <v>24</v>
       </c>
@@ -5734,132 +5762,133 @@
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
+    <row r="39" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B40" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C40" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29" t="s">
+      <c r="D40" s="28"/>
+      <c r="E40" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F40" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J40" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K39" s="21" t="s">
+      <c r="K40" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="L39" s="21" t="s">
+      <c r="L40" s="21" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="7" t="s">
+    <row r="41" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I41" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J41" s="42" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+    <row r="42" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B42" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C42" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D42" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E42" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F42" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J42" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="7" t="s">
+    <row r="43" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>18</v>
@@ -5867,197 +5896,200 @@
       <c r="I43" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
+      <c r="J43" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B45" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C45" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D45" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E45" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F45" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I45" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J45" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K44" s="21" t="s">
+      <c r="K45" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="7" t="s">
+      <c r="L45" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I46" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J46" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K45" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
+      <c r="K46" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B47" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C47" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D47" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E47" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F47" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="7" t="s">
+      <c r="K47" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H48" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I48" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29" t="s">
+      <c r="K48" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E49" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F49" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I49" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L48" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>229</v>
@@ -6069,156 +6101,165 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29" t="s">
+    <row r="50" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L50" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E51" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="F51" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="7" t="s">
+      <c r="K51" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H52" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I52" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K51" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
+      <c r="K52" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B53" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C53" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D53" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E53" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F53" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H53" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I53" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J53" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="M52" s="7"/>
-      <c r="S52" s="19"/>
-    </row>
-    <row r="53" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="7" t="s">
+      <c r="M53" s="7"/>
+      <c r="S53" s="19"/>
+    </row>
+    <row r="54" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H54" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I54" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J54" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="34" t="s">
+    <row r="55" spans="1:19" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B55" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C55" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D55" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E55" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="F55" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G55" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="J54" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="H55" s="15"/>
       <c r="J55" s="7" t="s">
@@ -6227,325 +6268,316 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>114</v>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="J56" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
     </row>
     <row r="57" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
+      <c r="A57" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="G57" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>151</v>
+        <v>20</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="1:19" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
+    <row r="58" spans="1:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="1:19" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B59" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C59" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F59" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I59" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J59" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K58" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="L58" s="21" t="s">
+      <c r="K59" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="L59" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="M58" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="7" t="s">
+      <c r="M59" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I60" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="J60" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K59" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="L59" s="21" t="s">
+      <c r="K60" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="L60" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="M59" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="M60" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B61" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D61" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E61" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F61" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J61" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="21" t="s">
+      <c r="K61" s="8"/>
+      <c r="L61" s="21" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29" t="s">
+    <row r="62" spans="1:19" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B62" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C62" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D62" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="E62" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="F62" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H62" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I62" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="J62" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="7" t="s">
+    <row r="63" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I63" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="J63" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="29" t="s">
+    <row r="64" spans="1:19" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B64" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C64" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D64" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E63" s="33" t="s">
+      <c r="E64" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F64" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I64" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="J64" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="7" t="s">
+    <row r="65" spans="1:19" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I65" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J65" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="236.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="23" t="s">
+    <row r="66" spans="1:19" ht="236.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B66" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C66" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D66" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E65" s="23" t="s">
+      <c r="E66" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="F65" s="23" t="s">
+      <c r="F66" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K65" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="L65" s="21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>326</v>
-      </c>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
       <c r="J66" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="K66" s="21" t="s">
+        <v>278</v>
+      </c>
       <c r="L66" s="21" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>75</v>
@@ -6554,7 +6586,7 @@
         <v>63</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>326</v>
@@ -6566,21 +6598,21 @@
         <v>322</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>326</v>
@@ -6592,56 +6624,62 @@
         <v>322</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="34" t="s">
+    <row r="69" spans="1:19" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" s="34" t="s">
+      <c r="B69" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F69" s="34" t="s">
-        <v>327</v>
+      <c r="D69" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>326</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
+      <c r="L69" s="21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E70" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" s="36" t="s">
+        <v>327</v>
+      </c>
       <c r="J70" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L70" s="21" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15" t="s">
-        <v>328</v>
-      </c>
+    </row>
+    <row r="71" spans="1:19" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
       <c r="J71" s="7" t="s">
         <v>122</v>
       </c>
@@ -6649,258 +6687,262 @@
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="29" t="s">
+    <row r="72" spans="1:19" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L72" s="21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C73" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D73" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E73" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F72" s="29" t="s">
+      <c r="F73" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H73" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I73" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J72" s="10" t="s">
+      <c r="J73" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K72" s="24" t="s">
+      <c r="K73" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="S72" s="20"/>
-    </row>
-    <row r="73" spans="1:19" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="7" t="s">
+      <c r="S73" s="20"/>
+    </row>
+    <row r="74" spans="1:19" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I74" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="J74" s="7" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="29" t="s">
+    <row r="75" spans="1:19" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B75" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C75" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D75" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="E75" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="29" t="s">
+      <c r="F75" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G75" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H75" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I75" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J74" s="10" t="s">
+      <c r="J75" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="7" t="s">
+    <row r="76" spans="1:19" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H76" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I76" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J76" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="29" t="s">
+    <row r="77" spans="1:19" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B77" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C77" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D77" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="E77" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="F76" s="29" t="s">
+      <c r="F77" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G77" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="I77" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="J77" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K76" s="21" t="s">
+      <c r="K77" s="21" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="7" t="s">
+    <row r="78" spans="1:19" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H78" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I77" s="7" t="s">
+      <c r="I78" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J77" s="7" t="s">
+      <c r="J78" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="29" t="s">
+    <row r="79" spans="1:19" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B79" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C79" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D79" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E79" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="F78" s="29" t="s">
+      <c r="F79" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G79" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H79" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="I79" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J78" s="10" t="s">
+      <c r="J79" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="7" t="s">
+    <row r="80" spans="1:19" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I80" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J79" s="7" t="s">
+      <c r="J80" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="29" t="s">
+    <row r="81" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B81" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="34" t="s">
+      <c r="C81" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="34" t="s">
+      <c r="D81" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E80" s="34" t="s">
+      <c r="E81" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="34" t="s">
+      <c r="F81" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G80" s="15" t="s">
+      <c r="G81" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
@@ -6908,1164 +6950,1154 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="29" t="s">
+    <row r="82" spans="1:13" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B83" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C83" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D83" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E82" s="29" t="s">
+      <c r="E83" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F82" s="29" t="s">
+      <c r="F83" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I82" s="7" t="s">
+      <c r="I83" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J82" s="10" t="s">
+      <c r="J83" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="7" t="s">
+    <row r="84" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H84" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="I84" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="J84" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="29" t="s">
+    <row r="85" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B85" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C85" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D85" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E85" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="F85" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="I85" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J84" s="10" t="s">
+      <c r="J85" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="29"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="7" t="s">
+    <row r="86" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H86" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="I86" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="J86" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="29" t="s">
+    <row r="87" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B87" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C87" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="D87" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E87" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F86" s="29" t="s">
+      <c r="F87" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G87" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="I87" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J86" s="14" t="s">
+      <c r="J87" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="7" t="s">
+    <row r="88" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H88" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="I88" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="J88" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="29" t="s">
+    <row r="89" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="29" t="s">
+      <c r="B89" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C89" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D88" s="35" t="s">
+      <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="E89" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F88" s="29" t="s">
+      <c r="F89" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G89" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H89" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I88" s="7" t="s">
+      <c r="I89" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J88" s="10" t="s">
+      <c r="J89" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="7" t="s">
+    <row r="90" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H90" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I89" s="7" t="s">
+      <c r="I90" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="J90" s="7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="29" t="s">
+    <row r="91" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="B91" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C91" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D91" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E90" s="29" t="s">
+      <c r="E91" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="F90" s="29" t="s">
+      <c r="F91" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H91" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="I91" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J90" s="10" t="s">
+      <c r="J91" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K90" s="21" t="s">
+      <c r="K91" s="21" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="7" t="s">
+    <row r="92" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="I92" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="J92" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="29" t="s">
+    <row r="93" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="B93" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C93" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D92" s="29" t="s">
+      <c r="D93" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="E92" s="29" t="s">
+      <c r="E93" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="F92" s="29" t="s">
+      <c r="F93" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G93" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H93" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="I93" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K92" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L92" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M92" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="7" t="s">
+      <c r="K93" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H94" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I93" s="7" t="s">
+      <c r="I94" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K93" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L93" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M93" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="29" t="s">
+      <c r="K94" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B95" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C95" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D94" s="29" t="s">
+      <c r="D95" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="E94" s="29" t="s">
+      <c r="E95" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="F94" s="29" t="s">
+      <c r="F95" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="G95" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H95" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I94" s="7" t="s">
+      <c r="I95" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K94" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L94" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M94" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="7" t="s">
+      <c r="K95" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H96" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I95" s="7" t="s">
+      <c r="I96" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K95" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L95" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M95" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="29" t="s">
+      <c r="K96" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B97" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C97" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D96" s="29" t="s">
+      <c r="D97" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="E96" s="29" t="s">
+      <c r="E97" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="F96" s="29" t="s">
+      <c r="F97" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="G97" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H97" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I96" s="7" t="s">
+      <c r="I97" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K96" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L96" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M96" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="7" t="s">
+      <c r="K97" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H98" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="I98" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K97" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L97" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M97" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
+      <c r="K98" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M98" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B99" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C99" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15" t="s">
+      <c r="D99" s="15"/>
+      <c r="E99" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F98" s="15" t="s">
+      <c r="F99" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="7" t="s">
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29" t="s">
+    <row r="100" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="D99" s="29" t="s">
+      <c r="D100" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E99" s="29" t="s">
+      <c r="E100" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F99" s="29" t="s">
+      <c r="F100" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H100" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="I100" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="J100" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="92.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="7" t="s">
+    <row r="101" spans="1:13" ht="92.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H101" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I100" s="7" t="s">
+      <c r="I101" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J100" s="7" t="s">
+      <c r="J101" s="7" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29" t="s">
+    <row r="102" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D101" s="29" t="s">
+      <c r="D102" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E101" s="29" t="s">
+      <c r="E102" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F101" s="29" t="s">
+      <c r="F102" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="G101" s="7" t="s">
+      <c r="G102" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="H102" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I101" s="7" t="s">
+      <c r="I102" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J101" s="7" t="s">
+      <c r="J102" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="7" t="s">
+    <row r="103" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H103" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I102" s="7" t="s">
+      <c r="I103" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J102" s="7" t="s">
+      <c r="J103" s="7" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="29" t="s">
+    <row r="104" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="B103" s="29" t="s">
+      <c r="B104" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="C104" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29" t="s">
+      <c r="D104" s="28"/>
+      <c r="E104" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="F103" s="29" t="s">
+      <c r="F104" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="G103" s="7" t="s">
+      <c r="G104" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H104" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I103" s="7" t="s">
+      <c r="I104" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K103" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L103" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M103" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="29"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="7" t="s">
+      <c r="K104" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L104" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I104" s="7" t="s">
+      <c r="I105" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J104" s="7" t="s">
+      <c r="J105" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K104" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L104" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M104" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="29" t="s">
+      <c r="K105" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L105" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M105" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="B105" s="29" t="s">
+      <c r="B106" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="C105" s="29" t="s">
+      <c r="C106" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29" t="s">
+      <c r="D106" s="28"/>
+      <c r="E106" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="F105" s="29" t="s">
+      <c r="F106" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="G105" s="7" t="s">
+      <c r="G106" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H105" s="7" t="s">
+      <c r="H106" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I105" s="7" t="s">
+      <c r="I106" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K105" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L105" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M105" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="29"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="7" t="s">
+      <c r="K106" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L106" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M106" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="H107" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I106" s="7" t="s">
+      <c r="I107" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K106" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L106" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M106" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="29" t="s">
+      <c r="K107" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L107" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M107" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B108" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="C107" s="29" t="s">
+      <c r="C108" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29" t="s">
+      <c r="D108" s="28"/>
+      <c r="E108" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="F107" s="29" t="s">
+      <c r="F108" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="G107" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="H108" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I107" s="7" t="s">
+      <c r="I108" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K107" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L107" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M107" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="29"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="7" t="s">
+      <c r="K108" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L108" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M108" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="28"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H109" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I108" s="7" t="s">
+      <c r="I109" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K108" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L108" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M108" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="29" t="s">
+      <c r="K109" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L109" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M109" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29" t="s">
+      <c r="B110" s="28"/>
+      <c r="C110" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="D109" s="29" t="s">
+      <c r="D110" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="E109" s="29" t="s">
+      <c r="E110" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="F109" s="29" t="s">
+      <c r="F110" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="G110" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H110" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I109" s="7" t="s">
+      <c r="I110" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K109" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L109" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M109" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="29"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="7" t="s">
+      <c r="K110" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L110" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M110" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="28"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H110" s="7" t="s">
+      <c r="H111" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I110" s="7" t="s">
+      <c r="I111" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K110" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L110" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M110" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="29" t="s">
+      <c r="K111" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L111" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M111" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B111" s="29"/>
-      <c r="C111" s="29" t="s">
+      <c r="B112" s="28"/>
+      <c r="C112" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="D111" s="29" t="s">
+      <c r="D112" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="E111" s="29" t="s">
+      <c r="E112" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="F111" s="29" t="s">
+      <c r="F112" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="G112" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H111" s="7" t="s">
+      <c r="H112" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I111" s="7" t="s">
+      <c r="I112" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K111" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L111" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M111" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="29"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="7" t="s">
+      <c r="K112" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L112" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M112" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="28"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H113" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I112" s="7" t="s">
+      <c r="I113" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K112" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L112" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M112" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="29" t="s">
+      <c r="K113" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L113" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M113" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="B114" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="29" t="s">
+      <c r="C114" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D113" s="29" t="s">
+      <c r="D114" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E113" s="29" t="s">
+      <c r="E114" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="F113" s="29" t="s">
+      <c r="F114" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="G113" s="7" t="s">
+      <c r="G114" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H113" s="7" t="s">
+      <c r="H114" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I113" s="7" t="s">
+      <c r="I114" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J113" s="10" t="s">
+      <c r="J114" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K113" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L113" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M113" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="29"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="7" t="s">
+      <c r="K114" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L114" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M114" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="28"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H114" s="7" t="s">
+      <c r="H115" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I114" s="7" t="s">
+      <c r="I115" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J114" s="7" t="s">
+      <c r="J115" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K114" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L114" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M114" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="29"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29" t="s">
+      <c r="K115" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L115" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M115" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="28"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="G115" s="7" t="s">
+      <c r="G116" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H115" s="7" t="s">
+      <c r="H116" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I115" s="7" t="s">
+      <c r="I116" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K115" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L115" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M115" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="29"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="7" t="s">
+      <c r="K116" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L116" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M116" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="28"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H116" s="7" t="s">
+      <c r="H117" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I116" s="7" t="s">
+      <c r="I117" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J116" s="7" t="s">
+      <c r="J117" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K116" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L116" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M116" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="29"/>
-      <c r="B117" s="29"/>
-      <c r="C117" s="29" t="s">
+      <c r="K117" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L117" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M117" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D117" s="29" t="s">
+      <c r="D118" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="E117" s="29"/>
-      <c r="F117" s="39" t="s">
+      <c r="E118" s="28"/>
+      <c r="F118" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="G118" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H117" s="7" t="s">
+      <c r="H118" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I117" s="7" t="s">
+      <c r="I118" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J117" s="10" t="s">
+      <c r="J118" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="29"/>
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="40"/>
-      <c r="G118" s="7" t="s">
+    <row r="119" spans="1:19" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="28"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H118" s="7" t="s">
+      <c r="H119" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I118" s="7" t="s">
+      <c r="I119" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J118" s="7" t="s">
+      <c r="J119" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="K118" s="21" t="s">
+      <c r="K119" s="21" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="29"/>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="29" t="s">
+    <row r="120" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="28"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="E119" s="29"/>
-      <c r="F119" s="41" t="s">
+      <c r="E120" s="28"/>
+      <c r="F120" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="G120" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H119" s="7" t="s">
+      <c r="H120" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I119" s="7" t="s">
+      <c r="I120" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K119" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L119" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M119" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="29"/>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="40"/>
-      <c r="G120" s="7" t="s">
+      <c r="K120" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L120" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M120" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="28"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H120" s="7" t="s">
+      <c r="H121" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I120" s="7" t="s">
+      <c r="I121" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J120" s="8" t="s">
+      <c r="J121" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="K120" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L120" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M120" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C121" s="7" t="s">
+      <c r="K121" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L121" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M121" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C122" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E122" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F121" s="16" t="s">
+      <c r="F122" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J121" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" ht="99" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="29"/>
-      <c r="B122" s="29"/>
-      <c r="C122" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="D122" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="E122" s="29"/>
-      <c r="F122" s="30" t="s">
-        <v>113</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>10</v>
@@ -8076,39 +8108,43 @@
       <c r="I122" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J122" s="7" t="s">
+      <c r="J122" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="99" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="28"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E123" s="28"/>
+      <c r="F123" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J123" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="29"/>
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I123" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="J123" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="29"/>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="9" t="s">
-        <v>146</v>
-      </c>
+    <row r="124" spans="1:19" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="28"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="41"/>
       <c r="G124" s="7" t="s">
         <v>24</v>
       </c>
@@ -8116,239 +8152,235 @@
         <v>18</v>
       </c>
       <c r="I124" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="28"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J124" s="7" t="s">
+      <c r="J125" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="29"/>
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="9" t="s">
+    <row r="126" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="28"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J125" s="7" t="s">
+      <c r="J126" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="106.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="29"/>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="28" t="s">
+    <row r="127" spans="1:19" ht="106.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="28"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="F126" s="28" t="s">
+      <c r="F127" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="G126" s="8" t="s">
+      <c r="G127" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H126" s="8" t="s">
+      <c r="H127" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I126" s="8" t="s">
+      <c r="I127" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J126" s="8" t="s">
+      <c r="J127" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="K126" s="21" t="s">
+      <c r="K127" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="S126" s="20"/>
-    </row>
-    <row r="127" spans="1:19" ht="106.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="29"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="8" t="s">
+      <c r="S127" s="20"/>
+    </row>
+    <row r="128" spans="1:19" ht="106.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="28"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="39"/>
+      <c r="G128" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H127" s="8" t="s">
+      <c r="H128" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I127" s="8" t="s">
+      <c r="I128" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J127" s="8" t="s">
+      <c r="J128" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="S127" s="20"/>
-    </row>
-    <row r="128" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A128" s="29"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="28" t="s">
+      <c r="S128" s="20"/>
+    </row>
+    <row r="129" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="28"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="F128" s="28" t="s">
+      <c r="F129" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="G128" s="8" t="s">
+      <c r="G129" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H128" s="8" t="s">
+      <c r="H129" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I128" s="8" t="s">
+      <c r="I129" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J128" s="13" t="s">
+      <c r="J129" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="K128" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L128" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M128" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="167.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="29"/>
-      <c r="B129" s="29"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="8" t="s">
+      <c r="K129" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L129" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M129" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="167.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="28"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="39"/>
+      <c r="G130" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H129" s="8" t="s">
+      <c r="H130" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I129" s="8" t="s">
+      <c r="I130" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J129" s="8" t="s">
+      <c r="J130" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="K129" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L129" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M129" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="29"/>
-      <c r="B130" s="29"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29" t="s">
+      <c r="K130" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L130" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M130" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="E130" s="28" t="s">
+      <c r="E131" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="F130" s="28" t="s">
+      <c r="F131" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="G130" s="8" t="s">
+      <c r="G131" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H130" s="8" t="s">
+      <c r="H131" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I130" s="8" t="s">
+      <c r="I131" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J130" s="8"/>
-    </row>
-    <row r="131" spans="1:13" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="29"/>
-      <c r="B131" s="29"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="8" t="s">
+      <c r="J131" s="8"/>
+    </row>
+    <row r="132" spans="1:13" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="28"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H131" s="8" t="s">
+      <c r="H132" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I131" s="8" t="s">
+      <c r="I132" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J131" s="8" t="s">
+      <c r="J132" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="29"/>
-      <c r="B132" s="29"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="29" t="s">
+    <row r="133" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="28"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E132" s="28" t="s">
+      <c r="E133" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="F132" s="28" t="s">
+      <c r="F133" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="G132" s="8" t="s">
+      <c r="G133" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H132" s="8" t="s">
+      <c r="H133" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I132" s="8" t="s">
+      <c r="I133" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J132" s="8"/>
-    </row>
-    <row r="133" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="29"/>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="8" t="s">
+      <c r="J133" s="8"/>
+    </row>
+    <row r="134" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="28"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="39"/>
+      <c r="F134" s="39"/>
+      <c r="G134" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I133" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J133" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="29"/>
-      <c r="B134" s="29"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="H134" s="8" t="s">
         <v>18</v>
@@ -8360,18 +8392,18 @@
         <v>358</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="29"/>
-      <c r="B135" s="29"/>
-      <c r="C135" s="29"/>
+    <row r="135" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="28"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
       <c r="D135" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E135" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>19</v>
@@ -8383,64 +8415,49 @@
         <v>21</v>
       </c>
       <c r="J135" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="28"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J136" s="8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="95.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8" t="s">
+    <row r="137" spans="1:13" ht="95.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D137" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E136" s="8" t="s">
+      <c r="E137" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="F136" s="8" t="s">
+      <c r="F137" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H136" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I136" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J136" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="K136" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="L136" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="M136" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="B137" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="C137" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D137" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="E137" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="F137" s="28" t="s">
-        <v>306</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>10</v>
@@ -8451,45 +8468,74 @@
       <c r="I137" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J137" s="8"/>
+      <c r="J137" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="K137" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="L137" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="M137" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C138" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D138" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="E138" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J138" s="8"/>
+      <c r="K138" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="L137" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M137" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A138" s="28"/>
-      <c r="B138" s="28"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="8" t="s">
+      <c r="L138" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M138" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="40"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="39"/>
+      <c r="G139" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H138" s="8" t="s">
+      <c r="H139" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I138" s="8" t="s">
+      <c r="I139" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J138" s="8"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
       <c r="J139" s="8"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -8504,159 +8550,238 @@
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
     </row>
-    <row r="164" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-      <c r="K164" s="7"/>
-      <c r="L164" s="7"/>
-      <c r="M164" s="8"/>
-      <c r="N164" s="8"/>
-      <c r="O164" s="8"/>
-      <c r="P164" s="8"/>
-      <c r="Q164" s="8"/>
-      <c r="R164" s="7"/>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A166" s="18"/>
-      <c r="B166" s="32" t="s">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+    </row>
+    <row r="165" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="7"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
+      <c r="M165" s="8"/>
+      <c r="N165" s="8"/>
+      <c r="O165" s="8"/>
+      <c r="P165" s="8"/>
+      <c r="Q165" s="8"/>
+      <c r="R165" s="7"/>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A167" s="18"/>
+      <c r="B167" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C166" s="32"/>
-      <c r="D166" s="32"/>
-      <c r="E166" s="32"/>
-      <c r="F166" s="32"/>
-      <c r="G166" s="32"/>
-      <c r="H166" s="32"/>
-      <c r="I166" s="32"/>
-      <c r="J166" s="32"/>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="R169" s="18"/>
+      <c r="C167" s="38"/>
+      <c r="D167" s="38"/>
+      <c r="E167" s="38"/>
+      <c r="F167" s="38"/>
+      <c r="G167" s="38"/>
+      <c r="H167" s="38"/>
+      <c r="I167" s="38"/>
+      <c r="J167" s="38"/>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R170" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="319">
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E113:E116"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="C123:C136"/>
+    <mergeCell ref="B123:B136"/>
+    <mergeCell ref="A123:A136"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="E123:E126"/>
+    <mergeCell ref="D123:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="B167:J167"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -8681,190 +8806,123 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="B166:J166"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="C122:C135"/>
-    <mergeCell ref="B122:B135"/>
-    <mergeCell ref="A122:A135"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A114:A117"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="K10 K2 K39 K41 K52 K54 K56 K58:K59 K63 K66 K68 K77 K79 K81 K83 K85 K87 K89 K125:K126 K136:K137 K139 K141 K143 K61 K6 K91:K97 K121:L121 K117:L118">
+  <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="K2 K10 K40 K42 K53 K55 K57 K59:K60 K64 K67 K69 K78 K80 K82 K84 K86 K88 K90 K126:K127 K137:K138 K140 K142 K144 K62 K6 K92:K98 K122:L122 K118:L119">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8888,7 +8946,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K101 K99">
+  <conditionalFormatting sqref="K100 K102">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8960,7 +9018,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10 L2 L39 L41 L52 L54 L56 L63 L77 L79 L81 L83 L85 L87 L89 L125:L126 L136:L137 L139 L141 L143 L6 L91:L97 L66:L68 L58:L61">
+  <conditionalFormatting sqref="L2 L10 L40 L42 L53 L55 L57 L64 L78 L80 L82 L84 L86 L88 L90 L126:L127 L137:L138 L140 L142 L144 L6 L92:L98 L67:L69 L59:L62">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8984,7 +9042,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L99 L101">
+  <conditionalFormatting sqref="L100 L102">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9056,7 +9114,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L71">
+  <conditionalFormatting sqref="L72">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9068,7 +9126,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70">
+  <conditionalFormatting sqref="L71">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9128,7 +9186,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M136">
+  <conditionalFormatting sqref="M137">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9140,7 +9198,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M137">
+  <conditionalFormatting sqref="M138">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9152,7 +9210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M92:M97">
+  <conditionalFormatting sqref="M93:M98">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9164,7 +9222,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M58:M59">
+  <conditionalFormatting sqref="M59:M60">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9177,7 +9235,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E135" r:id="rId1" xr:uid="{345465CC-C816-46A6-AF30-07AD638A52F2}"/>
+    <hyperlink ref="E136" r:id="rId1" xr:uid="{345465CC-C816-46A6-AF30-07AD638A52F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -9189,19 +9247,19 @@
           <x14:formula1>
             <xm:f>DONOTDELETE!$A$3:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G3 G39:G57 G6:G13 D46 G60:G112 G125:G165</xm:sqref>
+          <xm:sqref>G2:G3 G39:G58 G6:G13 D47 G61:G113 G126:G166 H39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C1B4F20-53D1-4A1B-832B-6E8BECAAA5F1}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$C$3:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H3 H39:H57 H6:H13 H60:H112 H125:H165</xm:sqref>
+          <xm:sqref>H2:H3 H40:H58 H6:H13 H61:H113 H126:H166</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{79222D68-7559-4143-9FDD-D11E5D5A8DF0}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$E$3:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I3 I39:I57 I6:I13 I60:I112 I125:I165</xm:sqref>
+          <xm:sqref>I2:I3 I40:I58 I6:I13 I61:I113 I126:I166</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/VerifPlans/Simulation/debug-trace/CV32E40XS_debug.xlsx
+++ b/docs/VerifPlans/Simulation/debug-trace/CV32E40XS_debug.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://silabs-my.sharepoint.com/personal/ropeders_silabs_com/Documents/Microsoft Teams Chat Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="497" documentId="13_ncr:1_{1B7DADA9-9F9A-4450-9CC1-7F751C1050FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{618705F0-D8AF-4FA9-926F-A6AF49E849A0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADA72FEF-4E93-4F59-9D76-9FF34E020D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -232,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="421">
   <si>
     <t>Reference document</t>
   </si>
@@ -592,7 +595,7 @@
     <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_trigger_match
 A:   uvmt_cv32_tb.u_debug_assert.a_dcsr_cause
 A:  uvmt_cv32_tb.u_debug_assert.a_dpc_dbg_trigger
-A:  uvmt_cv32_tb.u_debug_assert.a_enter_debug</t>
+A:  uvmt_cv32_tb.u_debug_assert.a_enter_debug A:a_dt_instr_trigger_hit_*</t>
   </si>
   <si>
     <r>
@@ -648,10 +651,10 @@
     <t>Have 0 triggers, access any trigger register and check that illegal instruction exception occurs. Check that no triggers ever fire. Check that "tselect" is 0.</t>
   </si>
   <si>
+    <t>"[40x? Also below.]"</t>
+  </si>
+  <si>
     <t>A:a_dt_0_triggers_tdata1_access, a_dt_0_triggers_no_triggering</t>
-  </si>
-  <si>
-    <t>"[40x? Also below.]"</t>
   </si>
   <si>
     <t>The number of triggers is determined by DBG_NUM_TRIGGERS.
@@ -664,10 +667,10 @@
     <t>For all number of triggers, use tselect to exercise each trigger with each supported type. (Also try writing to higher "tselect" than supported and check that a supported number is read back.) Make the triggers fire and check that debug mode is entered. Check also that the four context registers trap when accessed.</t>
   </si>
   <si>
+    <t>There are a lot of things to check in a single point here. Nothing is wrong with this point as I see it, so there is no need to change, but ideally this point should be split up.</t>
+  </si>
+  <si>
     <t>A: a_dt_access_context, a_dt_tselect_higher_than_dbg_num_triggers, a_dt_instr_trigger_hit_*, a_dt_load_trigger_hit_*, a_dt_store_trigger_hit_*, a_dt_exception_trigger_hit_*, a_dt_enter_dbg_reason. COV: c_trigger_i_has_type_mcontrol, c_trigger_i_has_type_etrigger, c_trigger_i_has_type_mcontrol6, c_trigger_i_has_type_disable</t>
-  </si>
-  <si>
-    <t>There are a lot of things to check in a single point here. Nothing is wrong with this point as I see it, so there is no need to change, but ideally this point should be split up.</t>
   </si>
   <si>
     <t>User Manual v0.9.0.</t>
@@ -759,7 +762,7 @@
     <t>Have triggers configured to be able to match, but enable/disable their corresponding mode bit, check that the trigger is either able to fire or is blocked from firing accordingly. Also check the tied values.</t>
   </si>
   <si>
-    <t>A: a_dt_enter_dbg_*, a_dt_tie_offs_*</t>
+    <t>A:a_dt_instr_trigger_hit_*, a_dt_load_trigger_hit_*, a_dt_store_trigger_hit_*, a_dt_exception_trigger_hit_*, a_dt_enter_dbg_reason, a_dt_tie_offs_*</t>
   </si>
   <si>
     <t>Mcontrol6LoadStoreExecute</t>
@@ -774,12 +777,12 @@
     <t>Configure triggers for load/store/execute and combinations of them, configure tdata2, cause triggers to fire and check that debug mode is entered correctly.  All of these configurations must be crossed, also against match conditions.</t>
   </si>
   <si>
+    <t>"tdata3" and "tcontrol" should be removed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">A: a_dt_instr_trigger_hit_*, a_dt_load_trigger_hit_*, a_dt_store_trigger_hit_*. </t>
   </si>
   <si>
-    <t>"tdata3" and "tcontrol" should be removed.</t>
-  </si>
-  <si>
     <t>trigger csrs</t>
   </si>
   <si>
@@ -789,7 +792,10 @@
     <t>Check that the tied fields are tied.</t>
   </si>
   <si>
-    <t>TODO csr access test? A: a_dt_tie_offs_tselect, a_dt_tie_offs_tdata1_mcontrol, a_dt_tie_offs_tdata1_etrigger, a_dt_tie_offs_tdata1_mcontrol6, a_dt_tie_offs_tdata1_disabled, a_dt_tie_offs_tdata2_etrigger. a_dt_tie_offs_tinfo.</t>
+    <t xml:space="preserve">TODO csr access test? </t>
+  </si>
+  <si>
+    <t>A: a_dt_tie_offs_tselect, a_dt_tie_offs_tdata1_mcontrol, a_dt_tie_offs_tdata1_etrigger, a_dt_tie_offs_tdata1_mcontrol6, a_dt_tie_offs_tdata1_disabled, a_dt_tie_offs_tdata2_etrigger. a_dt_tie_offs_tinfo.</t>
   </si>
   <si>
     <t>"mcontrol6" atomics</t>
@@ -818,12 +824,12 @@
     <t>Check that these types can be selected, and check that no other types can be selected. (Functionality of these types should be handled by other items in this plan.) Check also that the default is "15".</t>
   </si>
   <si>
+    <t>"[type 2]"</t>
+  </si>
+  <si>
     <t>A: a_dt_tdata1_types</t>
   </si>
   <si>
-    <t>"[type 2]"</t>
-  </si>
-  <si>
     <t>"tdata1.dmode"</t>
   </si>
   <si>
@@ -833,7 +839,7 @@
     <t>Try to write tdata registers outside of debug mode, check that they are not writable. Try changing "tdata1.dmode" and check that it is WARL (0x1). Cross the above checks with all supported types.</t>
   </si>
   <si>
-    <t>A: a_dt_access_csr_not_dbg_mode, a_dt_dmode</t>
+    <t>A: a_dt_not_access_tdata1_dbg_mode,  a_dt_not_access_tdata2_dbg_mode, a_dt_dmode</t>
   </si>
   <si>
     <t>Control and Status Registers
@@ -879,7 +885,7 @@
     <t>Configure "tdata1" and "tdata2" to fire on exceptions, try both individual and multiple exceptions in addition to supported and unsupported. Exercise scenarios that would trigger or not trigger according to the configuration and check that debug mode is either entered or not entered accordingly, and that the entry goes correctly (pc, dpc, cause, etc).</t>
   </si>
   <si>
-    <t>A: a_dt_exception_trigger_hit_*, a_dt_enter_dbg_reason</t>
+    <t>A: a_dt_exception_trigger_hit_*, a_dt_enter_dbg_reason, a_glitch_dt_exception_trigger_hit_*</t>
   </si>
   <si>
     <t>The bits {"hit", "vs", "vu", "s"} are not supported (WARL 0).
@@ -893,7 +899,7 @@
     <t>Configure an exception trigger, use the privmode bits to disable/enable the trigger, exercise the trigger conditions, check that it fires/not accordingly. Also check the WARL fields.</t>
   </si>
   <si>
-    <t xml:space="preserve">A: a_dt_exception_trigger_hit*, a_dt_warl_tselect, a_dt_warl_tdata1_general, a_dt_warl_tdata1_m2, a_dt_warl_tdata1_etrigger, a_dt_warl_tdata1_m6, a_dt_warl_tdata1_disabled, a_dt_warl_tdata2_etrigger, a_dt_warl_tinfo. </t>
+    <t xml:space="preserve">A: a_dt_exception_trigger_hit_*, a_dt_enter_dbg_reason, a_dt_warl_tselect, a_dt_warl_tdata1_general, a_dt_warl_tdata1_m2, a_dt_warl_tdata1_etrigger, a_dt_warl_tdata1_m6, a_dt_warl_tdata1_disabled, a_dt_warl_tdata2_etrigger, a_dt_warl_tinfo. </t>
   </si>
   <si>
     <t>40s User Manual 0.8.0</t>
@@ -1048,7 +1054,16 @@
 Access from U-mode and observe no access at all.</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in DTC "debug_test". A: a_dt_no_write_access_to_tdata_in_mmode,
+    <t>Covered in DTC "debug_test".</t>
+  </si>
+  <si>
+    <t>Should we also check r/w in U-mode?</t>
+  </si>
+  <si>
+    <t>"tdata3" should be removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_trigger_regs.  A: a_dt_no_write_access_to_tdata_in_mmode,
 a_dt_read_access_to_tdata1_in_mmode,
 a_dt_read_access_to_tdata2_in_mmode,
 a_dt_write_access_to_tdata1_in_dmode,
@@ -1061,16 +1076,6 @@
 </t>
   </si>
   <si>
-    <t>Should we also check r/w in U-mode?</t>
-  </si>
-  <si>
-    <t>"tdata3" should be removed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_trigger_regs
-</t>
-  </si>
-  <si>
     <t>Trigger Registers</t>
   </si>
   <si>
@@ -1085,8 +1090,7 @@
   </si>
   <si>
     <t>A: a_dt_write_0_to_tdata1,
-a_dt_enter_dbg_reason,
-a_dt_tdata1_disabled_no_dbg</t>
+a_dt_enter_dbg_reason</t>
   </si>
   <si>
     <t>Debug 1.0.0
@@ -1214,27 +1218,11 @@
     <t>Bring core into debug and enable a trigger on the PC (pointing to the debug program buffer). Continue execution in debug, and observe that no action is taken when the trigger matches.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Covered in DTC "debug_test". </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>A:a_dt_no_actions_on_trigger_matches_in_debug_dcsr
+    <t xml:space="preserve">Covered in DTC "debug_test". </t>
+  </si>
+  <si>
+    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_trigger_match_disabled (d_match_with_en) A:a_dt_no_actions_on_trigger_matches_in_debug_dcsr
 a_dt_no_actions_on_trigger_matches_in_debug_dpc</t>
-    </r>
-  </si>
-  <si>
-    <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_trigger_match_disabled (d_match_with_en)</t>
   </si>
   <si>
     <t>dcsr</t>
@@ -2841,12 +2829,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -2952,14 +2934,23 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
-      <color theme="7"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
     <font>
       <strike/>
       <sz val="11"/>
-      <color theme="7"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -3067,7 +3058,7 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3098,34 +3089,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="4" applyAlignment="1">
@@ -3134,7 +3125,16 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3149,31 +3149,25 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3678,8 +3672,8 @@
   <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3740,22 +3734,22 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="93.75" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -3767,7 +3761,7 @@
       <c r="I2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="39" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="10" t="s">
@@ -3781,12 +3775,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="139.5" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="10" t="s">
         <v>25</v>
       </c>
@@ -3810,22 +3804,22 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="142.15" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="30" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -3837,7 +3831,7 @@
       <c r="I4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="39" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="10" t="s">
@@ -3851,12 +3845,12 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="142.15" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="10" t="s">
         <v>25</v>
       </c>
@@ -3880,34 +3874,34 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="113.25" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="39" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="10" t="s">
@@ -3921,19 +3915,19 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="162.6" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="38" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="39" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="10" t="s">
@@ -3950,34 +3944,34 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="88.5" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="39" t="s">
         <v>44</v>
       </c>
       <c r="K8" s="10" t="s">
@@ -3991,19 +3985,19 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="147" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="38" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="39" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="10" t="s">
@@ -4020,22 +4014,22 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="76.5" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="36" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="10" t="s">
@@ -4047,19 +4041,19 @@
       <c r="I10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="39" t="s">
         <v>51</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="175.35" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="10" t="s">
         <v>25</v>
       </c>
@@ -4076,22 +4070,22 @@
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="30" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -4103,7 +4097,7 @@
       <c r="I12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="39" t="s">
         <v>59</v>
       </c>
       <c r="K12" s="10" t="s">
@@ -4117,12 +4111,12 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="282" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="10" t="s">
         <v>25</v>
       </c>
@@ -4146,22 +4140,22 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="61.5" customHeight="1">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -4173,21 +4167,21 @@
       <c r="I14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="39" t="s">
         <v>59</v>
       </c>
       <c r="K14" s="10"/>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="88.35" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="10" t="s">
         <v>25</v>
       </c>
@@ -4204,22 +4198,22 @@
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="80.25" customHeight="1">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="10" t="s">
@@ -4231,26 +4225,24 @@
       <c r="I16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="17" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
       <c r="G17" s="10" t="s">
         <v>25</v>
       </c>
@@ -4260,7 +4252,9 @@
       <c r="I17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="K17" s="10" t="s">
         <v>23</v>
       </c>
@@ -4272,14 +4266,14 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="131.25" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="30" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="30" t="s">
         <v>73</v>
       </c>
       <c r="G18" s="10" t="s">
@@ -4291,12 +4285,10 @@
       <c r="I18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="7"/>
+      <c r="K18" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="18" t="s">
-        <v>75</v>
-      </c>
       <c r="L18" s="10" t="s">
         <v>23</v>
       </c>
@@ -4305,12 +4297,12 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="131.25" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="27"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="10" t="s">
         <v>25</v>
       </c>
@@ -4320,7 +4312,9 @@
       <c r="I19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="K19" s="10" t="s">
         <v>23</v>
       </c>
@@ -4332,22 +4326,22 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="7" customFormat="1" ht="131.25" customHeight="1">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="28" t="s">
         <v>80</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -4358,21 +4352,18 @@
       </c>
       <c r="I20" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" s="7" customFormat="1" ht="131.25" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="7" t="s">
         <v>25</v>
       </c>
@@ -4381,22 +4372,25 @@
       </c>
       <c r="I21" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" ht="58.5" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="30" t="s">
         <v>84</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -4408,9 +4402,6 @@
       <c r="I22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="K22" s="10" t="s">
         <v>23</v>
       </c>
@@ -4422,12 +4413,12 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="58.5" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="10" t="s">
         <v>25</v>
       </c>
@@ -4437,7 +4428,9 @@
       <c r="I23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="10"/>
+      <c r="J23" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="K23" s="10" t="s">
         <v>23</v>
       </c>
@@ -4449,18 +4442,18 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="7" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="25" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="31" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -4472,17 +4465,14 @@
       <c r="I24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="24" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="25" spans="1:13" s="7" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="7" t="s">
         <v>25</v>
       </c>
@@ -4492,18 +4482,21 @@
       <c r="I25" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="J25" s="24" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="58.5" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="25" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="30" t="s">
         <v>93</v>
       </c>
       <c r="G26" s="10" t="s">
@@ -4515,9 +4508,6 @@
       <c r="I26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="K26" s="10" t="s">
         <v>23</v>
       </c>
@@ -4529,12 +4519,12 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="58.5" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="10" t="s">
         <v>25</v>
       </c>
@@ -4544,7 +4534,9 @@
       <c r="I27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="10"/>
+      <c r="J27" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="K27" s="10" t="s">
         <v>23</v>
       </c>
@@ -4556,16 +4548,16 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="77.25" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="25" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="30" t="s">
         <v>96</v>
       </c>
       <c r="G28" s="10" t="s">
@@ -4577,9 +4569,7 @@
       <c r="I28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="J28" s="7"/>
       <c r="K28" s="10" t="s">
         <v>23</v>
       </c>
@@ -4591,12 +4581,12 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
       <c r="G29" s="10" t="s">
         <v>25</v>
       </c>
@@ -4606,7 +4596,9 @@
       <c r="I29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="10"/>
+      <c r="J29" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="K29" s="10" t="s">
         <v>23</v>
       </c>
@@ -4618,16 +4610,16 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="7" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="28" t="s">
         <v>100</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -4639,26 +4631,23 @@
       <c r="I30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>102</v>
-      </c>
       <c r="M30" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="27"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="7" t="s">
         <v>25</v>
       </c>
@@ -4668,6 +4657,9 @@
       <c r="I31" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="J31" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="K31" s="7" t="s">
         <v>23</v>
       </c>
@@ -4679,18 +4671,18 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="28" t="s">
         <v>105</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -4707,12 +4699,12 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A33" s="30"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="7" t="s">
         <v>25</v>
       </c>
@@ -4722,19 +4714,22 @@
       <c r="I33" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="J33" s="26" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="151.5" customHeight="1">
       <c r="A34" s="10"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -4751,23 +4746,23 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="88.35" customHeight="1">
-      <c r="A35" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="27" t="s">
+      <c r="A35" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="27" t="s">
+      <c r="D35" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="E35" s="30" t="s">
         <v>114</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>115</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>19</v>
@@ -4778,9 +4773,6 @@
       <c r="I35" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="K35" s="10" t="s">
         <v>23</v>
       </c>
@@ -4792,12 +4784,12 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="88.35" customHeight="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="10" t="s">
         <v>25</v>
       </c>
@@ -4807,7 +4799,9 @@
       <c r="I36" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J36" s="10"/>
+      <c r="J36" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="K36" s="10" t="s">
         <v>23</v>
       </c>
@@ -4819,17 +4813,17 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="51" customHeight="1">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="27" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="E37" s="30" t="s">
         <v>119</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>19</v>
@@ -4840,9 +4834,7 @@
       <c r="I37" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
         <v>23</v>
       </c>
@@ -4854,12 +4846,12 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
       <c r="G38" s="10" t="s">
         <v>25</v>
       </c>
@@ -4869,7 +4861,9 @@
       <c r="I38" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="10"/>
+      <c r="J38" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="K38" s="10" t="s">
         <v>23</v>
       </c>
@@ -4881,23 +4875,23 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="88.35" customHeight="1">
-      <c r="A39" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="27" t="s">
+      <c r="A39" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="25" t="s">
+      <c r="D39" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="E39" s="28" t="s">
         <v>124</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>125</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>19</v>
@@ -4908,9 +4902,6 @@
       <c r="I39" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J39" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="K39" s="10" t="s">
         <v>23</v>
       </c>
@@ -4922,12 +4913,12 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="88.35" customHeight="1">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
       <c r="G40" s="10" t="s">
         <v>25</v>
       </c>
@@ -4937,7 +4928,9 @@
       <c r="I40" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J40" s="10"/>
+      <c r="J40" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="K40" s="10" t="s">
         <v>23</v>
       </c>
@@ -4949,23 +4942,23 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="295.5" customHeight="1">
-      <c r="A41" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="27" t="s">
+      <c r="A41" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="27" t="s">
+      <c r="D41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="E41" s="30" t="s">
         <v>129</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>19</v>
@@ -4976,9 +4969,6 @@
       <c r="I41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="K41" s="10" t="s">
         <v>23</v>
       </c>
@@ -4990,12 +4980,12 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="81" customHeight="1">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
       <c r="G42" s="10" t="s">
         <v>25</v>
       </c>
@@ -5005,7 +4995,9 @@
       <c r="I42" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="10"/>
+      <c r="J42" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="K42" s="10" t="s">
         <v>23</v>
       </c>
@@ -5017,15 +5009,15 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="78.75" customHeight="1">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" s="25" t="s">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30" t="s">
         <v>132</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>19</v>
@@ -5036,26 +5028,23 @@
       <c r="I43" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="K43" s="10" t="s">
         <v>23</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M43" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="76.5" customHeight="1">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="36"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="38"/>
       <c r="G44" s="10" t="s">
         <v>25</v>
       </c>
@@ -5065,7 +5054,9 @@
       <c r="I44" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J44" s="10"/>
+      <c r="J44" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="K44" s="10" t="s">
         <v>23</v>
       </c>
@@ -5078,53 +5069,53 @@
     </row>
     <row r="45" spans="1:13" ht="76.5" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
     </row>
     <row r="46" spans="1:13" ht="120" customHeight="1">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27" t="s">
+      <c r="C46" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="D46" s="30"/>
+      <c r="E46" s="30" t="s">
         <v>144</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>145</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>19</v>
@@ -5135,23 +5126,23 @@
       <c r="I46" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="38" t="s">
-        <v>145</v>
+      <c r="J46" s="39" t="s">
+        <v>146</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="159.75" customHeight="1">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
       <c r="G47" s="10" t="s">
         <v>25</v>
       </c>
@@ -5161,53 +5152,53 @@
       <c r="I47" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="38" t="s">
-        <v>148</v>
+      <c r="J47" s="39" t="s">
+        <v>149</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="42" customHeight="1">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" s="27" t="s">
+      <c r="C48" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="D48" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="E48" s="30" t="s">
         <v>152</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J48" s="38" t="s">
-        <v>154</v>
+      <c r="J48" s="39" t="s">
+        <v>155</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:13" ht="116.25" customHeight="1">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
       <c r="G49" s="10" t="s">
         <v>25</v>
       </c>
@@ -5218,30 +5209,30 @@
         <v>27</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
     </row>
     <row r="50" spans="1:13" ht="78.75" customHeight="1">
       <c r="A50" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>26</v>
@@ -5261,23 +5252,23 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="242.25" customHeight="1">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="27" t="s">
+      <c r="C51" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="D51" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="E51" s="28" t="s">
         <v>164</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>165</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>19</v>
@@ -5288,26 +5279,26 @@
       <c r="I51" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="38" t="s">
-        <v>165</v>
+      <c r="J51" s="39" t="s">
+        <v>166</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M51" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="84" customHeight="1">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="27"/>
+    <row r="52" spans="1:13" ht="210.75" customHeight="1">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="30"/>
       <c r="G52" s="10" t="s">
         <v>25</v>
       </c>
@@ -5318,7 +5309,7 @@
         <v>27</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>23</v>
@@ -5331,23 +5322,23 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="114" customHeight="1">
-      <c r="A53" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="27" t="s">
+      <c r="A53" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="C53" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="F53" s="27" t="s">
+      <c r="E53" s="30" t="s">
         <v>172</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>173</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>19</v>
@@ -5358,9 +5349,6 @@
       <c r="I53" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="K53" s="10" t="s">
         <v>23</v>
       </c>
@@ -5372,12 +5360,12 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="84" customHeight="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
       <c r="G54" s="10" t="s">
         <v>25</v>
       </c>
@@ -5387,7 +5375,9 @@
       <c r="I54" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="10"/>
+      <c r="J54" s="10" t="s">
+        <v>174</v>
+      </c>
       <c r="K54" s="10" t="s">
         <v>23</v>
       </c>
@@ -5398,20 +5388,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="7" customFormat="1" ht="152.25" customHeight="1">
-      <c r="A55" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25" t="s">
+    <row r="55" spans="1:13" s="7" customFormat="1" ht="99" customHeight="1">
+      <c r="A55" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="E55" s="28" t="s">
         <v>177</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>178</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>19</v>
@@ -5422,26 +5412,23 @@
       <c r="I55" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J55" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="K55" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="7" customFormat="1" ht="84" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
+    <row r="56" spans="1:13" s="7" customFormat="1" ht="133.5" customHeight="1">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
       <c r="G56" s="7" t="s">
         <v>25</v>
       </c>
@@ -5451,30 +5438,33 @@
       <c r="I56" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="J56" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="K56" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="7" customFormat="1" ht="84" customHeight="1">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="E57" s="25" t="s">
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="E57" s="28" t="s">
         <v>182</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>19</v>
@@ -5485,17 +5475,14 @@
       <c r="I57" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J57" s="7" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="58" spans="1:13" s="7" customFormat="1" ht="84" customHeight="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
       <c r="G58" s="7" t="s">
         <v>25</v>
       </c>
@@ -5505,21 +5492,24 @@
       <c r="I58" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="J58" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="59" spans="1:13" s="7" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A59" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="E59" s="25" t="s">
+      <c r="A59" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="E59" s="28" t="s">
         <v>186</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>19</v>
@@ -5530,26 +5520,23 @@
       <c r="I59" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J59" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="K59" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="7" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A60" s="30"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="30"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="33"/>
       <c r="G60" s="7" t="s">
         <v>25</v>
       </c>
@@ -5559,6 +5546,9 @@
       <c r="I60" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="J60" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="K60" s="7" t="s">
         <v>23</v>
       </c>
@@ -5570,23 +5560,23 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="72.599999999999994" customHeight="1">
-      <c r="A61" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B61" s="27" t="s">
+      <c r="A61" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="B61" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="C61" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="D61" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="E61" s="30" t="s">
         <v>193</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>194</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>19</v>
@@ -5597,18 +5587,18 @@
       <c r="I61" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J61" s="38"/>
+      <c r="J61" s="39"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
     </row>
     <row r="62" spans="1:13" ht="60.75">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
       <c r="G62" s="10" t="s">
         <v>25</v>
       </c>
@@ -5619,29 +5609,29 @@
         <v>27</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
     </row>
     <row r="63" spans="1:13" ht="58.15" customHeight="1">
-      <c r="A63" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="D63" s="34" t="s">
+      <c r="A63" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="E63" s="34" t="s">
+      <c r="C63" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="F63" s="34" t="s">
+      <c r="E63" s="37" t="s">
         <v>198</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="G63" s="17" t="s">
         <v>19</v>
@@ -5649,47 +5639,47 @@
       <c r="H63" s="17"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
       <c r="G64" s="17" t="s">
         <v>25</v>
       </c>
       <c r="H64" s="17"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
     </row>
     <row r="65" spans="1:13" ht="80.25" customHeight="1">
-      <c r="A65" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="D65" s="27" t="s">
+      <c r="A65" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="E65" s="27" t="s">
+      <c r="C65" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="F65" s="27" t="s">
+      <c r="E65" s="30" t="s">
         <v>203</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>204</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>19</v>
@@ -5700,19 +5690,19 @@
       <c r="I65" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J65" s="37" t="s">
-        <v>204</v>
+      <c r="J65" s="27" t="s">
+        <v>205</v>
       </c>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
     </row>
     <row r="66" spans="1:13" ht="80.25" customHeight="1">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
       <c r="G66" s="10" t="s">
         <v>25</v>
       </c>
@@ -5723,27 +5713,27 @@
         <v>27</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
     </row>
     <row r="67" spans="1:13" ht="132.6" customHeight="1">
-      <c r="A67" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C67" s="27" t="s">
+      <c r="A67" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27" t="s">
+      <c r="C67" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="F67" s="27" t="s">
+      <c r="D67" s="30"/>
+      <c r="E67" s="30" t="s">
         <v>209</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>210</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>19</v>
@@ -5754,26 +5744,26 @@
       <c r="I67" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="38" t="s">
-        <v>210</v>
+      <c r="J67" s="39" t="s">
+        <v>211</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M67" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="132.6" customHeight="1">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
       <c r="G68" s="10" t="s">
         <v>25</v>
       </c>
@@ -5784,13 +5774,13 @@
         <v>27</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M68" s="7" t="s">
         <v>23</v>
@@ -5798,52 +5788,52 @@
     </row>
     <row r="69" spans="1:13" ht="30.75">
       <c r="A69" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="72.599999999999994" customHeight="1">
-      <c r="A70" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="D70" s="27" t="s">
+      <c r="A70" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="E70" s="27" t="s">
+      <c r="C70" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="F70" s="27" t="s">
+      <c r="E70" s="30" t="s">
         <v>222</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>223</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>19</v>
@@ -5855,18 +5845,18 @@
         <v>21</v>
       </c>
       <c r="J70" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
     </row>
     <row r="71" spans="1:13" ht="67.5" customHeight="1">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
       <c r="G71" s="10" t="s">
         <v>25</v>
       </c>
@@ -5877,29 +5867,29 @@
         <v>27</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
     </row>
     <row r="72" spans="1:13" ht="109.15" customHeight="1">
-      <c r="A72" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="D72" s="27" t="s">
+      <c r="A72" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="E72" s="33" t="s">
+      <c r="C72" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="E72" s="36" t="s">
         <v>228</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>229</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>19</v>
@@ -5910,19 +5900,19 @@
       <c r="I72" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J72" s="38" t="s">
-        <v>229</v>
+      <c r="J72" s="39" t="s">
+        <v>230</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
     </row>
     <row r="73" spans="1:13" ht="109.15" customHeight="1">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
       <c r="G73" s="10" t="s">
         <v>25</v>
       </c>
@@ -5933,221 +5923,221 @@
         <v>27</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
     </row>
     <row r="74" spans="1:13" ht="236.45" customHeight="1">
       <c r="A74" s="16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
       <c r="I74" s="16"/>
       <c r="J74" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="81.599999999999994" customHeight="1">
       <c r="A75" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="90.6" customHeight="1">
       <c r="A76" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B76" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F76" s="17" t="s">
         <v>241</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>240</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="94.9" customHeight="1">
       <c r="A77" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="B78" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="D78" s="34" t="s">
+      <c r="A78" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="E78" s="34" t="s">
+      <c r="C78" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="F78" s="34" t="s">
+      <c r="E78" s="37" t="s">
         <v>249</v>
+      </c>
+      <c r="F78" s="37" t="s">
+        <v>250</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
     </row>
     <row r="79" spans="1:13" ht="123.6" customHeight="1">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K79" s="10"/>
       <c r="L79" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="102" customHeight="1">
       <c r="A80" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="64.150000000000006" customHeight="1">
-      <c r="A81" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B81" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="C81" s="27" t="s">
+      <c r="A81" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E81" s="27" t="s">
+      <c r="C81" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="27" t="s">
+      <c r="D81" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" s="30" t="s">
         <v>255</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>256</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>19</v>
@@ -6158,21 +6148,21 @@
       <c r="I81" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J81" s="38" t="s">
-        <v>256</v>
+      <c r="J81" s="39" t="s">
+        <v>257</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L81" s="10"/>
     </row>
     <row r="82" spans="1:12" ht="64.150000000000006" customHeight="1">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
       <c r="G82" s="10" t="s">
         <v>25</v>
       </c>
@@ -6183,29 +6173,29 @@
         <v>27</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
     </row>
     <row r="83" spans="1:12" ht="109.9" customHeight="1">
-      <c r="A83" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D83" s="27" t="s">
+      <c r="A83" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="E83" s="27" t="s">
+      <c r="C83" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D83" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="F83" s="27" t="s">
+      <c r="E83" s="30" t="s">
         <v>262</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>19</v>
@@ -6216,19 +6206,19 @@
       <c r="I83" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J83" s="38" t="s">
-        <v>263</v>
+      <c r="J83" s="39" t="s">
+        <v>264</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
     </row>
     <row r="84" spans="1:12" ht="109.9" customHeight="1">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
       <c r="G84" s="10" t="s">
         <v>25</v>
       </c>
@@ -6239,29 +6229,29 @@
         <v>27</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
     </row>
     <row r="85" spans="1:12" ht="94.9" customHeight="1">
-      <c r="A85" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D85" s="27" t="s">
+      <c r="A85" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="E85" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="F85" s="27" t="s">
+      <c r="C85" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="E85" s="30" t="s">
         <v>266</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>267</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>19</v>
@@ -6272,21 +6262,21 @@
       <c r="I85" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J85" s="38" t="s">
-        <v>263</v>
+      <c r="J85" s="39" t="s">
+        <v>264</v>
       </c>
       <c r="K85" s="18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L85" s="10"/>
     </row>
     <row r="86" spans="1:12" ht="94.9" customHeight="1">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
       <c r="G86" s="10" t="s">
         <v>25</v>
       </c>
@@ -6297,29 +6287,29 @@
         <v>27</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
     </row>
     <row r="87" spans="1:12" ht="141" customHeight="1">
-      <c r="A87" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D87" s="27" t="s">
+      <c r="A87" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B87" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="E87" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="F87" s="27" t="s">
+      <c r="C87" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="E87" s="30" t="s">
         <v>270</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>271</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>19</v>
@@ -6330,19 +6320,19 @@
       <c r="I87" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J87" s="38" t="s">
-        <v>263</v>
+      <c r="J87" s="39" t="s">
+        <v>264</v>
       </c>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
     </row>
     <row r="88" spans="1:12" ht="141" customHeight="1">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
       <c r="G88" s="10" t="s">
         <v>25</v>
       </c>
@@ -6353,29 +6343,29 @@
         <v>27</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
     </row>
     <row r="89" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A89" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B89" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C89" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="D89" s="34" t="s">
+      <c r="A89" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="E89" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="F89" s="34" t="s">
+      <c r="C89" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D89" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="E89" s="37" t="s">
         <v>273</v>
+      </c>
+      <c r="F89" s="37" t="s">
+        <v>274</v>
       </c>
       <c r="G89" s="17" t="s">
         <v>19</v>
@@ -6383,47 +6373,47 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
     </row>
     <row r="90" spans="1:12" ht="26.65" customHeight="1">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
       <c r="G90" s="17" t="s">
         <v>25</v>
       </c>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
       <c r="J90" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
     </row>
     <row r="91" spans="1:12" ht="58.15" customHeight="1">
-      <c r="A91" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C91" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D91" s="27" t="s">
+      <c r="A91" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="E91" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="F91" s="25" t="s">
+      <c r="C91" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91" s="30" t="s">
         <v>275</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>276</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>19</v>
@@ -6434,19 +6424,19 @@
       <c r="I91" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J91" s="38" t="s">
-        <v>263</v>
+      <c r="J91" s="39" t="s">
+        <v>264</v>
       </c>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
     </row>
     <row r="92" spans="1:12" ht="76.5">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
       <c r="G92" s="10" t="s">
         <v>25</v>
       </c>
@@ -6457,29 +6447,29 @@
         <v>27</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
     </row>
     <row r="93" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A93" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B93" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C93" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D93" s="27" t="s">
+      <c r="A93" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="E93" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="F93" s="27" t="s">
+      <c r="C93" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="E93" s="30" t="s">
         <v>278</v>
+      </c>
+      <c r="F93" s="30" t="s">
+        <v>279</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>19</v>
@@ -6490,19 +6480,19 @@
       <c r="I93" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J93" s="38" t="s">
-        <v>263</v>
+      <c r="J93" s="39" t="s">
+        <v>264</v>
       </c>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
     </row>
     <row r="94" spans="1:12" ht="60.75">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
       <c r="G94" s="10" t="s">
         <v>25</v>
       </c>
@@ -6513,29 +6503,29 @@
         <v>27</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
     </row>
     <row r="95" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A95" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="C95" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D95" s="27" t="s">
+      <c r="A95" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="E95" s="27" t="s">
+      <c r="C95" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D95" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="F95" s="27" t="s">
+      <c r="E95" s="30" t="s">
         <v>283</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>284</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>19</v>
@@ -6546,19 +6536,19 @@
       <c r="I95" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J95" s="38" t="s">
-        <v>284</v>
+      <c r="J95" s="39" t="s">
+        <v>285</v>
       </c>
       <c r="K95" s="10"/>
       <c r="L95" s="10"/>
     </row>
     <row r="96" spans="1:12" ht="60.75">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
       <c r="G96" s="10" t="s">
         <v>25</v>
       </c>
@@ -6569,29 +6559,29 @@
         <v>27</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
     </row>
     <row r="97" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A97" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B97" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="C97" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D97" s="27" t="s">
+      <c r="A97" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="E97" s="27" t="s">
+      <c r="C97" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D97" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="F97" s="27" t="s">
+      <c r="E97" s="30" t="s">
         <v>289</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>290</v>
       </c>
       <c r="G97" s="10" t="s">
         <v>19</v>
@@ -6602,19 +6592,19 @@
       <c r="I97" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J97" s="38" t="s">
-        <v>290</v>
+      <c r="J97" s="39" t="s">
+        <v>291</v>
       </c>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
     </row>
     <row r="98" spans="1:13" ht="60.75">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
+      <c r="A98" s="30"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
       <c r="G98" s="10" t="s">
         <v>25</v>
       </c>
@@ -6625,29 +6615,29 @@
         <v>27</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
     </row>
     <row r="99" spans="1:13" ht="54.75" customHeight="1">
-      <c r="A99" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B99" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="C99" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D99" s="27" t="s">
+      <c r="A99" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="E99" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="F99" s="27" t="s">
+      <c r="C99" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="E99" s="30" t="s">
         <v>293</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>294</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>19</v>
@@ -6658,21 +6648,21 @@
       <c r="I99" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J99" s="38" t="s">
-        <v>294</v>
+      <c r="J99" s="39" t="s">
+        <v>295</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L99" s="10"/>
     </row>
     <row r="100" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
+      <c r="A100" s="30"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
       <c r="G100" s="10" t="s">
         <v>25</v>
       </c>
@@ -6683,29 +6673,29 @@
         <v>27</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
     </row>
     <row r="101" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A101" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B101" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="C101" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D101" s="27" t="s">
+      <c r="A101" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="E101" s="27" t="s">
+      <c r="C101" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D101" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="F101" s="27" t="s">
+      <c r="E101" s="30" t="s">
         <v>300</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>301</v>
       </c>
       <c r="G101" s="10" t="s">
         <v>19</v>
@@ -6717,7 +6707,7 @@
         <v>21</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K101" s="10" t="s">
         <v>23</v>
@@ -6730,12 +6720,12 @@
       </c>
     </row>
     <row r="102" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
       <c r="G102" s="10" t="s">
         <v>25</v>
       </c>
@@ -6757,23 +6747,23 @@
       </c>
     </row>
     <row r="103" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A103" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B103" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="E103" s="27" t="s">
+      <c r="A103" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="F103" s="27" t="s">
+      <c r="C103" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="E103" s="30" t="s">
         <v>304</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>305</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>19</v>
@@ -6785,7 +6775,7 @@
         <v>21</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K103" s="10" t="s">
         <v>23</v>
@@ -6798,12 +6788,12 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
+      <c r="A104" s="30"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
       <c r="G104" s="10" t="s">
         <v>25</v>
       </c>
@@ -6825,23 +6815,23 @@
       </c>
     </row>
     <row r="105" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A105" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B105" s="27" t="s">
+      <c r="A105" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C105" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D105" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="F105" s="27" t="s">
+      <c r="B105" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="E105" s="30" t="s">
         <v>306</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>307</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>19</v>
@@ -6853,7 +6843,7 @@
         <v>21</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K105" s="10" t="s">
         <v>23</v>
@@ -6866,12 +6856,12 @@
       </c>
     </row>
     <row r="106" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
+      <c r="A106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
       <c r="G106" s="10" t="s">
         <v>25</v>
       </c>
@@ -6894,44 +6884,44 @@
     </row>
     <row r="107" spans="1:13" ht="74.650000000000006" customHeight="1">
       <c r="A107" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
       <c r="J107" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
     </row>
     <row r="108" spans="1:13" ht="78" customHeight="1">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="D108" s="27" t="s">
+      <c r="A108" s="30"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="E108" s="27" t="s">
+      <c r="D108" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="F108" s="27" t="s">
+      <c r="E108" s="30" t="s">
         <v>314</v>
+      </c>
+      <c r="F108" s="30" t="s">
+        <v>315</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>19</v>
@@ -6943,20 +6933,20 @@
         <v>21</v>
       </c>
       <c r="J108" s="21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K108" s="10"/>
       <c r="L108" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="92.65" customHeight="1">
-      <c r="A109" s="27"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
+      <c r="A109" s="30"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
       <c r="G109" s="10" t="s">
         <v>25</v>
       </c>
@@ -6967,25 +6957,25 @@
         <v>27</v>
       </c>
       <c r="J109" s="21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
     </row>
     <row r="110" spans="1:13" ht="49.5" customHeight="1">
-      <c r="A110" s="27"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="E110" s="27" t="s">
+      <c r="A110" s="30"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D110" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="F110" s="27" t="s">
-        <v>319</v>
+      <c r="E110" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="F110" s="30" t="s">
+        <v>320</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>19</v>
@@ -6997,18 +6987,18 @@
         <v>21</v>
       </c>
       <c r="J110" s="21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K110" s="10"/>
       <c r="L110" s="10"/>
     </row>
     <row r="111" spans="1:13" ht="93.75" customHeight="1">
-      <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
+      <c r="A111" s="30"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
       <c r="G111" s="10" t="s">
         <v>25</v>
       </c>
@@ -7019,27 +7009,27 @@
         <v>27</v>
       </c>
       <c r="J111" s="21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K111" s="10"/>
       <c r="L111" s="10"/>
     </row>
     <row r="112" spans="1:13" ht="53.65" customHeight="1">
-      <c r="A112" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="B112" s="27" t="s">
+      <c r="A112" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="C112" s="27" t="s">
+      <c r="B112" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27" t="s">
+      <c r="C112" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="F112" s="27" t="s">
+      <c r="D112" s="30"/>
+      <c r="E112" s="30" t="s">
         <v>324</v>
+      </c>
+      <c r="F112" s="30" t="s">
+        <v>325</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>19</v>
@@ -7062,12 +7052,12 @@
       </c>
     </row>
     <row r="113" spans="1:13" ht="53.65" customHeight="1">
-      <c r="A113" s="27"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
+      <c r="A113" s="30"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
       <c r="G113" s="10" t="s">
         <v>25</v>
       </c>
@@ -7078,7 +7068,7 @@
         <v>27</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K113" s="10" t="s">
         <v>23</v>
@@ -7091,21 +7081,21 @@
       </c>
     </row>
     <row r="114" spans="1:13" ht="53.65" customHeight="1">
-      <c r="A114" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="B114" s="27" t="s">
+      <c r="A114" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="C114" s="27" t="s">
+      <c r="B114" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27" t="s">
+      <c r="C114" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="F114" s="27" t="s">
+      <c r="D114" s="30"/>
+      <c r="E114" s="30" t="s">
         <v>330</v>
+      </c>
+      <c r="F114" s="30" t="s">
+        <v>331</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>19</v>
@@ -7128,12 +7118,12 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="53.65" customHeight="1">
-      <c r="A115" s="27"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
+      <c r="A115" s="30"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
       <c r="G115" s="10" t="s">
         <v>25</v>
       </c>
@@ -7155,21 +7145,21 @@
       </c>
     </row>
     <row r="116" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A116" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="B116" s="27" t="s">
+      <c r="A116" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="C116" s="27" t="s">
+      <c r="B116" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27" t="s">
+      <c r="C116" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="F116" s="27" t="s">
+      <c r="D116" s="30"/>
+      <c r="E116" s="30" t="s">
         <v>335</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>336</v>
       </c>
       <c r="G116" s="10" t="s">
         <v>19</v>
@@ -7192,12 +7182,12 @@
       </c>
     </row>
     <row r="117" spans="1:13" ht="78.75" customHeight="1">
-      <c r="A117" s="27"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
       <c r="G117" s="10" t="s">
         <v>25</v>
       </c>
@@ -7219,21 +7209,21 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="75" customHeight="1">
-      <c r="A118" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="B118" s="27"/>
-      <c r="C118" s="27" t="s">
+      <c r="A118" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="D118" s="27" t="s">
+      <c r="B118" s="30"/>
+      <c r="C118" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="E118" s="27" t="s">
+      <c r="D118" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="F118" s="27" t="s">
+      <c r="E118" s="30" t="s">
         <v>340</v>
+      </c>
+      <c r="F118" s="30" t="s">
+        <v>341</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>19</v>
@@ -7256,12 +7246,12 @@
       </c>
     </row>
     <row r="119" spans="1:13" ht="75" customHeight="1">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
+      <c r="A119" s="30"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
       <c r="G119" s="10" t="s">
         <v>25</v>
       </c>
@@ -7283,21 +7273,21 @@
       </c>
     </row>
     <row r="120" spans="1:13" ht="75" customHeight="1">
-      <c r="A120" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="D120" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="E120" s="27" t="s">
+      <c r="A120" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="D120" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="F120" s="27" t="s">
+      <c r="E120" s="30" t="s">
         <v>343</v>
+      </c>
+      <c r="F120" s="30" t="s">
+        <v>344</v>
       </c>
       <c r="G120" s="10" t="s">
         <v>19</v>
@@ -7320,12 +7310,12 @@
       </c>
     </row>
     <row r="121" spans="1:13" ht="75" customHeight="1">
-      <c r="A121" s="27"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
+      <c r="A121" s="30"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
       <c r="G121" s="10" t="s">
         <v>25</v>
       </c>
@@ -7347,23 +7337,23 @@
       </c>
     </row>
     <row r="122" spans="1:13" ht="58.15" customHeight="1">
-      <c r="A122" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="B122" s="27" t="s">
+      <c r="A122" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="C122" s="27" t="s">
+      <c r="B122" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="D122" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="E122" s="27" t="s">
+      <c r="C122" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="F122" s="27" t="s">
+      <c r="D122" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E122" s="30" t="s">
         <v>348</v>
+      </c>
+      <c r="F122" s="30" t="s">
+        <v>349</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>19</v>
@@ -7374,8 +7364,8 @@
       <c r="I122" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J122" s="38" t="s">
-        <v>223</v>
+      <c r="J122" s="39" t="s">
+        <v>224</v>
       </c>
       <c r="K122" s="10" t="s">
         <v>23</v>
@@ -7388,12 +7378,12 @@
       </c>
     </row>
     <row r="123" spans="1:13" ht="60.75">
-      <c r="A123" s="27"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
+      <c r="A123" s="30"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
       <c r="G123" s="10" t="s">
         <v>25</v>
       </c>
@@ -7404,7 +7394,7 @@
         <v>27</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K123" s="10" t="s">
         <v>23</v>
@@ -7417,13 +7407,13 @@
       </c>
     </row>
     <row r="124" spans="1:13" ht="49.5" customHeight="1">
-      <c r="A124" s="27"/>
-      <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27" t="s">
-        <v>350</v>
+      <c r="A124" s="30"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30" t="s">
+        <v>351</v>
       </c>
       <c r="G124" s="10" t="s">
         <v>19</v>
@@ -7446,12 +7436,12 @@
       </c>
     </row>
     <row r="125" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A125" s="27"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
+      <c r="A125" s="30"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="30"/>
       <c r="G125" s="10" t="s">
         <v>25</v>
       </c>
@@ -7462,7 +7452,7 @@
         <v>27</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K125" s="10" t="s">
         <v>23</v>
@@ -7475,17 +7465,17 @@
       </c>
     </row>
     <row r="126" spans="1:13" ht="96.6" customHeight="1">
-      <c r="A126" s="27"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="D126" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="E126" s="27"/>
-      <c r="F126" s="39" t="s">
+      <c r="A126" s="30"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D126" s="30" t="s">
         <v>353</v>
+      </c>
+      <c r="E126" s="30"/>
+      <c r="F126" s="40" t="s">
+        <v>354</v>
       </c>
       <c r="G126" s="10" t="s">
         <v>19</v>
@@ -7497,18 +7487,18 @@
         <v>21</v>
       </c>
       <c r="J126" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
     </row>
     <row r="127" spans="1:13" ht="96.6" customHeight="1">
-      <c r="A127" s="27"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="39"/>
+      <c r="A127" s="30"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="40"/>
       <c r="G127" s="10" t="s">
         <v>25</v>
       </c>
@@ -7519,23 +7509,23 @@
         <v>27</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K127" s="18" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L127" s="10"/>
     </row>
     <row r="128" spans="1:13" ht="42" customHeight="1">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="E128" s="27"/>
-      <c r="F128" s="39" t="s">
+      <c r="A128" s="30"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30" t="s">
         <v>357</v>
+      </c>
+      <c r="E128" s="30"/>
+      <c r="F128" s="40" t="s">
+        <v>358</v>
       </c>
       <c r="G128" s="10" t="s">
         <v>19</v>
@@ -7558,12 +7548,12 @@
       </c>
     </row>
     <row r="129" spans="1:13" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A129" s="27"/>
-      <c r="B129" s="27"/>
-      <c r="C129" s="27"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="39"/>
+      <c r="A129" s="30"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="40"/>
       <c r="G129" s="10" t="s">
         <v>25</v>
       </c>
@@ -7574,7 +7564,7 @@
         <v>27</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K129" s="10" t="s">
         <v>23</v>
@@ -7590,14 +7580,14 @@
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D130" s="10"/>
       <c r="E130" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G130" s="10" t="s">
         <v>19</v>
@@ -7609,23 +7599,23 @@
         <v>21</v>
       </c>
       <c r="J130" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K130" s="10"/>
       <c r="L130" s="10"/>
     </row>
     <row r="131" spans="1:13" ht="99" customHeight="1" thickTop="1">
-      <c r="A131" s="27"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="D131" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E131" s="27"/>
-      <c r="F131" s="31" t="s">
+      <c r="A131" s="30"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="30" t="s">
         <v>364</v>
+      </c>
+      <c r="D131" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="E131" s="30"/>
+      <c r="F131" s="34" t="s">
+        <v>365</v>
       </c>
       <c r="G131" s="10" t="s">
         <v>19</v>
@@ -7643,12 +7633,12 @@
       <c r="L131" s="10"/>
     </row>
     <row r="132" spans="1:13" ht="99" customHeight="1">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="31"/>
+      <c r="A132" s="30"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="34"/>
       <c r="G132" s="10" t="s">
         <v>25</v>
       </c>
@@ -7656,22 +7646,22 @@
         <v>26</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K132" s="10"/>
       <c r="L132" s="10"/>
     </row>
     <row r="133" spans="1:13" ht="43.9" customHeight="1">
-      <c r="A133" s="27"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
+      <c r="A133" s="30"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
       <c r="F133" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G133" s="10" t="s">
         <v>25</v>
@@ -7683,39 +7673,39 @@
         <v>27</v>
       </c>
       <c r="J133" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K133" s="10"/>
       <c r="L133" s="10"/>
     </row>
     <row r="134" spans="1:13" ht="84" customHeight="1">
-      <c r="A134" s="27"/>
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
+      <c r="A134" s="30"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
       <c r="F134" s="12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
       <c r="I134" s="10"/>
       <c r="J134" s="21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K134" s="10"/>
       <c r="L134" s="10"/>
     </row>
     <row r="135" spans="1:13" ht="106.9" customHeight="1">
-      <c r="A135" s="27"/>
-      <c r="B135" s="27"/>
-      <c r="C135" s="27"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="F135" s="25" t="s">
+      <c r="A135" s="30"/>
+      <c r="B135" s="30"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="28" t="s">
         <v>372</v>
+      </c>
+      <c r="F135" s="28" t="s">
+        <v>373</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>19</v>
@@ -7727,20 +7717,20 @@
         <v>21</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K135" s="18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L135" s="10"/>
     </row>
     <row r="136" spans="1:13" ht="106.9" customHeight="1">
-      <c r="A136" s="27"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="25"/>
-      <c r="F136" s="25"/>
+      <c r="A136" s="30"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
       <c r="G136" s="7" t="s">
         <v>25</v>
       </c>
@@ -7751,21 +7741,21 @@
         <v>27</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K136" s="10"/>
       <c r="L136" s="10"/>
     </row>
     <row r="137" spans="1:13" ht="45.75">
-      <c r="A137" s="27"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="F137" s="25" t="s">
+      <c r="A137" s="30"/>
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="28" t="s">
         <v>377</v>
+      </c>
+      <c r="F137" s="28" t="s">
+        <v>378</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>19</v>
@@ -7776,8 +7766,8 @@
       <c r="I137" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J137" s="38" t="s">
-        <v>378</v>
+      <c r="J137" s="39" t="s">
+        <v>379</v>
       </c>
       <c r="K137" s="10" t="s">
         <v>23</v>
@@ -7790,12 +7780,12 @@
       </c>
     </row>
     <row r="138" spans="1:13" ht="167.25" customHeight="1">
-      <c r="A138" s="27"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="25"/>
-      <c r="F138" s="25"/>
+      <c r="A138" s="30"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="28"/>
       <c r="G138" s="7" t="s">
         <v>25</v>
       </c>
@@ -7806,7 +7796,7 @@
         <v>27</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K138" s="10" t="s">
         <v>23</v>
@@ -7819,17 +7809,17 @@
       </c>
     </row>
     <row r="139" spans="1:13" ht="76.150000000000006" customHeight="1">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="27"/>
-      <c r="D139" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="E139" s="25" t="s">
+      <c r="A139" s="30"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="F139" s="25" t="s">
+      <c r="E139" s="28" t="s">
         <v>382</v>
+      </c>
+      <c r="F139" s="28" t="s">
+        <v>383</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>19</v>
@@ -7845,12 +7835,12 @@
       <c r="L139" s="10"/>
     </row>
     <row r="140" spans="1:13" ht="76.150000000000006" customHeight="1">
-      <c r="A140" s="27"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="25"/>
+      <c r="A140" s="30"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
       <c r="G140" s="7" t="s">
         <v>25</v>
       </c>
@@ -7861,23 +7851,23 @@
         <v>27</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K140" s="10"/>
       <c r="L140" s="10"/>
     </row>
     <row r="141" spans="1:13" ht="46.9" customHeight="1">
-      <c r="A141" s="27"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="27"/>
-      <c r="D141" s="27" t="s">
+      <c r="A141" s="30"/>
+      <c r="B141" s="30"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="E141" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="F141" s="28" t="s">
         <v>383</v>
-      </c>
-      <c r="E141" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="F141" s="25" t="s">
-        <v>382</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>19</v>
@@ -7893,12 +7883,12 @@
       <c r="L141" s="10"/>
     </row>
     <row r="142" spans="1:13" ht="46.9" customHeight="1">
-      <c r="A142" s="27"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="27"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="25"/>
-      <c r="F142" s="25"/>
+      <c r="A142" s="30"/>
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="28"/>
       <c r="G142" s="7" t="s">
         <v>25</v>
       </c>
@@ -7909,26 +7899,26 @@
         <v>27</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K142" s="10"/>
       <c r="L142" s="10"/>
     </row>
     <row r="143" spans="1:13" ht="177.75" customHeight="1">
-      <c r="A143" s="27"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="27"/>
+      <c r="A143" s="30"/>
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
       <c r="D143" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H143" s="7" t="s">
         <v>26</v>
@@ -7937,26 +7927,26 @@
         <v>27</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K143" s="10"/>
       <c r="L143" s="10"/>
     </row>
     <row r="144" spans="1:13" ht="123.6" customHeight="1">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="27"/>
+      <c r="A144" s="30"/>
+      <c r="B144" s="30"/>
+      <c r="C144" s="30"/>
       <c r="D144" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>26</v>
@@ -7965,7 +7955,7 @@
         <v>27</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K144" s="10"/>
       <c r="L144" s="10"/>
@@ -7974,16 +7964,16 @@
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>19</v>
@@ -7995,36 +7985,36 @@
         <v>21</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K145" s="18" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L145" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M145" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="92.45" customHeight="1">
-      <c r="A146" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="B146" s="25" t="s">
+      <c r="A146" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C146" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="D146" s="25" t="s">
+      <c r="B146" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="E146" s="25" t="s">
+      <c r="C146" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D146" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="F146" s="25" t="s">
+      <c r="E146" s="28" t="s">
         <v>402</v>
+      </c>
+      <c r="F146" s="28" t="s">
+        <v>403</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>19</v>
@@ -8037,7 +8027,7 @@
       </c>
       <c r="J146" s="7"/>
       <c r="K146" s="18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L146" s="10" t="s">
         <v>23</v>
@@ -8047,12 +8037,12 @@
       </c>
     </row>
     <row r="147" spans="1:13">
-      <c r="A147" s="25"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="25"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="25"/>
-      <c r="F147" s="25"/>
+      <c r="A147" s="28"/>
+      <c r="B147" s="28"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="28"/>
       <c r="G147" s="7" t="s">
         <v>25</v>
       </c>
@@ -8092,17 +8082,17 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="8"/>
-      <c r="B175" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="C175" s="32"/>
-      <c r="D175" s="32"/>
-      <c r="E175" s="32"/>
-      <c r="F175" s="32"/>
-      <c r="G175" s="32"/>
-      <c r="H175" s="32"/>
-      <c r="I175" s="32"/>
-      <c r="J175" s="32"/>
+      <c r="B175" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="C175" s="35"/>
+      <c r="D175" s="35"/>
+      <c r="E175" s="35"/>
+      <c r="F175" s="35"/>
+      <c r="G175" s="35"/>
+      <c r="H175" s="35"/>
+      <c r="I175" s="35"/>
+      <c r="J175" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="340">
@@ -8826,7 +8816,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -8834,10 +8824,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -8851,23 +8841,23 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -8875,10 +8865,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -8899,47 +8889,47 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VerifPlans/Simulation/debug-trace/CV32E40XS_debug.xlsx
+++ b/docs/VerifPlans/Simulation/debug-trace/CV32E40XS_debug.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://silabs-my.sharepoint.com/personal/ropeders_silabs_com/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\openhw\core-v-verif_40s\cv32e40s\docs\VerifPlans\Simulation\debug-trace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADA72FEF-4E93-4F59-9D76-9FF34E020D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C714476C-EA3F-42FE-A03A-788B7BB667C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debug" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="License Statement" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +81,7 @@
     Team decided to keep it here.</t>
       </text>
     </comment>
-    <comment ref="E51" authorId="2" shapeId="0" xr:uid="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
+    <comment ref="E50" authorId="2" shapeId="0" xr:uid="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -90,7 +91,7 @@
     Redundant but already here, soo we will leave it.</t>
       </text>
     </comment>
-    <comment ref="E61" authorId="3" shapeId="0" xr:uid="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
+    <comment ref="E56" authorId="3" shapeId="0" xr:uid="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -98,7 +99,7 @@
     I like Paul's suggested re-wording.</t>
       </text>
     </comment>
-    <comment ref="E63" authorId="4" shapeId="0" xr:uid="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
+    <comment ref="E57" authorId="4" shapeId="0" xr:uid="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -108,7 +109,7 @@
     yes</t>
       </text>
     </comment>
-    <comment ref="F69" authorId="5" shapeId="0" xr:uid="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
+    <comment ref="F63" authorId="5" shapeId="0" xr:uid="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -118,7 +119,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="E72" authorId="6" shapeId="0" xr:uid="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
+    <comment ref="E66" authorId="6" shapeId="0" xr:uid="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,7 +129,7 @@
     No privl levels - used PZ wording</t>
       </text>
     </comment>
-    <comment ref="F74" authorId="7" shapeId="0" xr:uid="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
+    <comment ref="F68" authorId="7" shapeId="0" xr:uid="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -138,7 +139,7 @@
     Boils down to : execute fence instruction while in debug mode.</t>
       </text>
     </comment>
-    <comment ref="E75" authorId="8" shapeId="0" xr:uid="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
+    <comment ref="E69" authorId="8" shapeId="0" xr:uid="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -148,7 +149,7 @@
     agreed</t>
       </text>
     </comment>
-    <comment ref="E76" authorId="9" shapeId="0" xr:uid="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
+    <comment ref="E70" authorId="9" shapeId="0" xr:uid="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -158,7 +159,7 @@
     Agreed.</t>
       </text>
     </comment>
-    <comment ref="E77" authorId="10" shapeId="0" xr:uid="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
+    <comment ref="E71" authorId="10" shapeId="0" xr:uid="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -168,7 +169,7 @@
     Agreed.</t>
       </text>
     </comment>
-    <comment ref="E78" authorId="11" shapeId="0" xr:uid="{8D03C130-0376-4058-ACC4-1AFE35483BC5}">
+    <comment ref="E72" authorId="11" shapeId="0" xr:uid="{8D03C130-0376-4058-ACC4-1AFE35483BC5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -176,7 +177,7 @@
     Strike it?</t>
       </text>
     </comment>
-    <comment ref="E80" authorId="12" shapeId="0" xr:uid="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}">
+    <comment ref="E74" authorId="12" shapeId="0" xr:uid="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -184,7 +185,7 @@
     Strike it?</t>
       </text>
     </comment>
-    <comment ref="G82" authorId="13" shapeId="0" xr:uid="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
+    <comment ref="G76" authorId="13" shapeId="0" xr:uid="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -194,7 +195,7 @@
     No, the random test already does that.</t>
       </text>
     </comment>
-    <comment ref="F85" authorId="14" shapeId="0" xr:uid="{359070A5-02B6-4A16-8859-1CF1672E058F}">
+    <comment ref="F79" authorId="14" shapeId="0" xr:uid="{359070A5-02B6-4A16-8859-1CF1672E058F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -204,7 +205,7 @@
     Oystein to update test - may already be done.</t>
       </text>
     </comment>
-    <comment ref="E99" authorId="15" shapeId="0" xr:uid="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}">
+    <comment ref="E93" authorId="15" shapeId="0" xr:uid="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -212,7 +213,7 @@
     Strike the bit about priv level.</t>
       </text>
     </comment>
-    <comment ref="E107" authorId="16" shapeId="0" xr:uid="{DBF077C8-A084-4C20-8E27-8023879A0FAD}">
+    <comment ref="E101" authorId="16" shapeId="0" xr:uid="{DBF077C8-A084-4C20-8E27-8023879A0FAD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -220,7 +221,7 @@
     Agree with Paul.  Recommend we strike this Feature from the Vplan.</t>
       </text>
     </comment>
-    <comment ref="F130" authorId="17" shapeId="0" xr:uid="{330593C8-663F-4984-BA49-9E72F46FD622}">
+    <comment ref="F118" authorId="17" shapeId="0" xr:uid="{330593C8-663F-4984-BA49-9E72F46FD622}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -235,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="430">
   <si>
     <t>Reference document</t>
   </si>
@@ -792,9 +793,6 @@
     <t>Check that the tied fields are tied.</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO csr access test? </t>
-  </si>
-  <si>
     <t>A: a_dt_tie_offs_tselect, a_dt_tie_offs_tdata1_mcontrol, a_dt_tie_offs_tdata1_etrigger, a_dt_tie_offs_tdata1_mcontrol6, a_dt_tie_offs_tdata1_disabled, a_dt_tie_offs_tdata2_etrigger. a_dt_tie_offs_tinfo.</t>
   </si>
   <si>
@@ -1082,10 +1080,6 @@
     <t>"tdata1", writing zero</t>
   </si>
   <si>
-    <t>"it is guaranteed that writing 0 to tdata1 disables the trigger, and leaves it in a state where tdata2 and tdata3 can be written with any value that makes sense for any trigger type supported by this trigger."
-More generally, "When a selected trigger is disabled [type 15], tdata2 and tdata3 can be written with any value supported by any of the types this trigger supports".</t>
-  </si>
-  <si>
     <t>Write 0 to "tdata1", ensure that its state becomes disabled (type 15). Write values to "tdata2" (addresses and/or exception causes) and exercise would-have-been triggers and check that the trigger does not fire.</t>
   </si>
   <si>
@@ -1114,20 +1108,10 @@
 c_dt_w_csrrci_tdata2_m2_m6_disabled</t>
   </si>
   <si>
-    <t>Type 2</t>
-  </si>
-  <si>
     <t>tdata3</t>
   </si>
   <si>
     <t>"tdata3" doesn't exist.</t>
-  </si>
-  <si>
-    <t>Check that attempts to access "tdata3" raise an illegal instruction exception, always. (Unless overruled by a higher priority.)
-Verify that tdata3 is illegal for all tdata2 types.</t>
-  </si>
-  <si>
-    <t>A: a_dt_tdata3_not_implemented. COV: c_dt_access_tdata3_m2, c_dt_access_tdata3_etrigger, c_dt_access_tdata3_m6, c_dt_access_tdata3_disabled.</t>
   </si>
   <si>
     <t>Other tdata registers</t>
@@ -2352,10 +2336,6 @@
     </r>
   </si>
   <si>
-    <t>CG: uvmt_cv32_tb.u_debug_assert.cov_step_stepie_nmi
-A:   uvmt_cv32_tb.u_debug_assert.a_stepie_irq_dis</t>
-  </si>
-  <si>
     <t>Simultaneous Interrupt</t>
   </si>
   <si>
@@ -2623,12 +2603,60 @@
   <si>
     <t>See the License for the specific language governing permissions and limitations under the License.</t>
   </si>
+  <si>
+    <t>"it is guaranteed that writing 0 to tdata1 disables the trigger, and leaves it in a state where tdata2 can be written with any value that makes sense for any trigger type supported by this trigger."
+More generally, "When a selected trigger is disabled [type 15], tdata2 can be written with any value supported by any of the types this trigger supports".</t>
+  </si>
+  <si>
+    <t>Check that attempts to access "tdata3" raise an illegal instruction exception, always. (Unless overruled by a higher priority.)</t>
+  </si>
+  <si>
+    <t>A: a_dt_tdata3_not_implemented.</t>
+  </si>
+  <si>
+    <t>DTC: debug_test_0_trigger</t>
+  </si>
+  <si>
+    <t>DTC: debug_test_trigger</t>
+  </si>
+  <si>
+    <t>TODO: might be covered by directed/random testing, no assert found</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_dret_prv</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_dret_mprv_umode</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_prv_entry</t>
+  </si>
+  <si>
+    <t>A:   uvmt_cv32_tb.u_debug_assert.a_dcsr_nmip</t>
+  </si>
+  <si>
+    <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mprven_tied</t>
+  </si>
+  <si>
+    <t>TODO: not covered</t>
+  </si>
+  <si>
+    <t>DTC: pushpop_debug_triggers
+TODO: Increase coverage by checking triggers at first/last operation</t>
+  </si>
+  <si>
+    <t>A: [uvmt_cv32e40s_pmp_assert].a_accept_only_legal, [uvmt_cv32e40s_pmp_assert].a_deny_only_illegal</t>
+  </si>
+  <si>
+    <t>CG: uvmt_cv32_tb.u_debug_assert.cov_step_stepie_nmi
+A:   uvmt_cv32_tb.u_debug_assert.a_stepie_irq_dis, uvmt_cv32_tb.u_debug_assert.a_stepie_irq_en</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="47">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3058,7 +3086,7 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3137,6 +3165,15 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3167,13 +3204,10 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3582,85 +3616,85 @@
   <threadedComment ref="E8" dT="2020-09-30T13:17:06.19" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{90E355DC-DFE0-4393-901C-C7BA637FF5FE}" parentId="{409B10D5-F2FF-4A54-AF8E-8F8611120E5A}">
     <text>Team decided to keep it here.</text>
   </threadedComment>
-  <threadedComment ref="E51" dT="2020-09-24T16:55:04.12" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}" done="1">
+  <threadedComment ref="E50" dT="2020-09-24T16:55:04.12" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}" done="1">
     <text>This is already covered in the CSR Vplan.   Suggest we strike it from this Vplan.</text>
   </threadedComment>
-  <threadedComment ref="E51" dT="2020-09-30T13:18:41.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3BF6FA3E-FAF4-478E-85E9-6205296B01C9}" parentId="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
+  <threadedComment ref="E50" dT="2020-09-30T13:18:41.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3BF6FA3E-FAF4-478E-85E9-6205296B01C9}" parentId="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
     <text>Redundant but already here, soo we will leave it.</text>
   </threadedComment>
-  <threadedComment ref="E61" dT="2020-09-24T16:57:01.54" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
+  <threadedComment ref="E56" dT="2020-09-24T16:57:01.54" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
     <text>I like Paul's suggested re-wording.</text>
   </threadedComment>
-  <threadedComment ref="E63" dT="2020-09-24T16:53:52.20" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}" done="1">
+  <threadedComment ref="E57" dT="2020-09-24T16:53:52.20" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E63" dT="2020-09-30T13:25:11.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{2F5A1AE8-17CB-4809-9BBC-4658D9626781}" parentId="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
+  <threadedComment ref="E57" dT="2020-09-30T13:25:11.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{2F5A1AE8-17CB-4809-9BBC-4658D9626781}" parentId="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
     <text>yes</text>
   </threadedComment>
-  <threadedComment ref="F69" dT="2020-09-24T16:59:11.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8859A4C9-6A41-4816-B62E-43D40684F8F2}" done="1">
+  <threadedComment ref="F63" dT="2020-09-24T16:59:11.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8859A4C9-6A41-4816-B62E-43D40684F8F2}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="F69" dT="2020-09-30T13:25:59.46" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14A99125-C214-42BC-9CBF-4BFF9258C81D}" parentId="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
+  <threadedComment ref="F63" dT="2020-09-30T13:25:59.46" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14A99125-C214-42BC-9CBF-4BFF9258C81D}" parentId="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
     <text>Done</text>
   </threadedComment>
-  <threadedComment ref="E72" dT="2020-09-24T18:24:13.37" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}" done="1">
+  <threadedComment ref="E66" dT="2020-09-24T18:24:13.37" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}" done="1">
     <text>These two statements seem incompatible...</text>
   </threadedComment>
-  <threadedComment ref="E72" dT="2020-09-30T13:27:53.85" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{7AB65A33-1A15-4445-9245-4D95F9A28763}" parentId="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
+  <threadedComment ref="E66" dT="2020-09-30T13:27:53.85" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{7AB65A33-1A15-4445-9245-4D95F9A28763}" parentId="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
     <text>No privl levels - used PZ wording</text>
   </threadedComment>
-  <threadedComment ref="F74" dT="2020-09-24T18:25:18.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
+  <threadedComment ref="F68" dT="2020-09-24T18:25:18.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
     <text>Where are we on this?</text>
   </threadedComment>
-  <threadedComment ref="F74" dT="2020-09-30T13:30:53.84" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{47003926-6041-4466-90A2-2C10C5C85296}" parentId="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
+  <threadedComment ref="F68" dT="2020-09-30T13:30:53.84" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{47003926-6041-4466-90A2-2C10C5C85296}" parentId="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
     <text>Boils down to : execute fence instruction while in debug mode.</text>
   </threadedComment>
-  <threadedComment ref="E75" dT="2020-09-24T18:30:19.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{AA8182C6-5B9E-4486-B389-DB07B4061F09}" done="1">
+  <threadedComment ref="E69" dT="2020-09-24T18:30:19.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{AA8182C6-5B9E-4486-B389-DB07B4061F09}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E75" dT="2020-09-30T13:31:48.03" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{E2660D4C-ABB0-4A74-8E26-618F8054984D}" parentId="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
+  <threadedComment ref="E69" dT="2020-09-30T13:31:48.03" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{E2660D4C-ABB0-4A74-8E26-618F8054984D}" parentId="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
     <text>agreed</text>
   </threadedComment>
-  <threadedComment ref="E76" dT="2020-09-24T18:30:28.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}" done="1">
+  <threadedComment ref="E70" dT="2020-09-24T18:30:28.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E76" dT="2020-09-30T13:32:19.99" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14422222-B948-462F-AB79-03264D9DD8D6}" parentId="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
+  <threadedComment ref="E70" dT="2020-09-30T13:32:19.99" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14422222-B948-462F-AB79-03264D9DD8D6}" parentId="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
     <text>Agreed.</text>
   </threadedComment>
-  <threadedComment ref="E77" dT="2020-09-24T18:30:34.82" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}" done="1">
+  <threadedComment ref="E71" dT="2020-09-24T18:30:34.82" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E77" dT="2020-09-30T13:32:40.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0284E229-AC40-4DE7-B509-C230FD082319}" parentId="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
+  <threadedComment ref="E71" dT="2020-09-30T13:32:40.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0284E229-AC40-4DE7-B509-C230FD082319}" parentId="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
     <text>Agreed.</text>
   </threadedComment>
-  <threadedComment ref="E78" dT="2020-09-24T18:31:32.23" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8D03C130-0376-4058-ACC4-1AFE35483BC5}" done="1">
+  <threadedComment ref="E72" dT="2020-09-24T18:31:32.23" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8D03C130-0376-4058-ACC4-1AFE35483BC5}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E80" dT="2020-09-24T18:31:54.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}" done="1">
+  <threadedComment ref="E74" dT="2020-09-24T18:31:54.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="G82" dT="2020-09-24T18:33:02.27" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}" done="1">
+  <threadedComment ref="G76" dT="2020-09-24T18:33:02.27" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}" done="1">
     <text>Strike the random test?</text>
   </threadedComment>
-  <threadedComment ref="G82" dT="2020-09-30T13:34:31.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{ED00C003-ADD3-4337-A61F-D4F72597A94A}" parentId="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
+  <threadedComment ref="G76" dT="2020-09-30T13:34:31.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{ED00C003-ADD3-4337-A61F-D4F72597A94A}" parentId="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
     <text>No, the random test already does that.</text>
   </threadedComment>
-  <threadedComment ref="F85" dT="2020-09-24T18:34:22.08" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{359070A5-02B6-4A16-8859-1CF1672E058F}" done="1">
+  <threadedComment ref="F79" dT="2020-09-24T18:34:22.08" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{359070A5-02B6-4A16-8859-1CF1672E058F}" done="1">
     <text>Agree with Paul's suggestion (very clever).</text>
   </threadedComment>
-  <threadedComment ref="F85" dT="2020-09-30T13:35:41.79" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{18F9F807-0A03-4BDC-94E3-F905A81B75E9}" parentId="{359070A5-02B6-4A16-8859-1CF1672E058F}">
+  <threadedComment ref="F79" dT="2020-09-30T13:35:41.79" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{18F9F807-0A03-4BDC-94E3-F905A81B75E9}" parentId="{359070A5-02B6-4A16-8859-1CF1672E058F}">
     <text>Oystein to update test - may already be done.</text>
   </threadedComment>
-  <threadedComment ref="E99" dT="2020-09-24T18:40:37.04" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}" done="1">
+  <threadedComment ref="E93" dT="2020-09-24T18:40:37.04" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}" done="1">
     <text>Strike the bit about priv level.</text>
   </threadedComment>
-  <threadedComment ref="E107" dT="2020-09-24T18:41:13.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{DBF077C8-A084-4C20-8E27-8023879A0FAD}" done="1">
+  <threadedComment ref="E101" dT="2020-09-24T18:41:13.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{DBF077C8-A084-4C20-8E27-8023879A0FAD}" done="1">
     <text>Agree with Paul.  Recommend we strike this Feature from the Vplan.</text>
   </threadedComment>
-  <threadedComment ref="F130" dT="2020-09-24T18:43:39.52" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{330593C8-663F-4984-BA49-9E72F46FD622}" done="1">
+  <threadedComment ref="F118" dT="2020-09-24T18:43:39.52" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{330593C8-663F-4984-BA49-9E72F46FD622}" done="1">
     <text>Interesting.   I will take this one.  Not sure of the mechanics, but should be able to figure it out.  The extension would be to run any randomly generated test-program in debug mode.</text>
   </threadedComment>
-  <threadedComment ref="F130" dT="2020-09-30T13:54:53.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{EBD10753-F33F-41FF-8334-571D8778E2AA}" parentId="{330593C8-663F-4984-BA49-9E72F46FD622}">
+  <threadedComment ref="F118" dT="2020-09-30T13:54:53.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{EBD10753-F33F-41FF-8334-571D8778E2AA}" parentId="{330593C8-663F-4984-BA49-9E72F46FD622}">
     <text>Better idea: cross coverage of debug mode entry and instruction executed</text>
   </threadedComment>
 </ThreadedComments>
@@ -3669,14 +3703,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46:A47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="6" customWidth="1"/>
@@ -3692,7 +3726,7 @@
     <col min="13" max="13" width="17" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3733,23 +3767,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="93.75" customHeight="1">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="31" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -3761,7 +3795,7 @@
       <c r="I2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="28" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="10" t="s">
@@ -3774,21 +3808,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="139.5" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+    <row r="3" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="10" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>28</v>
@@ -3803,23 +3837,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="142.15" customHeight="1">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:13" ht="142.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="33" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -3831,7 +3865,7 @@
       <c r="I4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="28" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="10" t="s">
@@ -3844,21 +3878,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="142.15" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>27</v>
+    <row r="5" spans="1:13" ht="142.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>34</v>
@@ -3873,35 +3907,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="113.25" customHeight="1">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="28" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="10" t="s">
@@ -3914,21 +3948,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="162.6" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>27</v>
+    <row r="7" spans="1:13" ht="162.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>41</v>
@@ -3943,35 +3977,35 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="88.5" customHeight="1">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="28" t="s">
         <v>44</v>
       </c>
       <c r="K8" s="10" t="s">
@@ -3984,21 +4018,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="147" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>27</v>
+    <row r="9" spans="1:13" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>45</v>
@@ -4013,23 +4047,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="76.5" customHeight="1">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="39" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="10" t="s">
@@ -4041,27 +4075,27 @@
       <c r="I10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="28" t="s">
         <v>51</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="175.35" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+    <row r="11" spans="1:13" ht="175.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="10" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>52</v>
@@ -4069,23 +4103,23 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="33" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -4097,7 +4131,7 @@
       <c r="I12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="28" t="s">
         <v>59</v>
       </c>
       <c r="K12" s="10" t="s">
@@ -4110,21 +4144,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="282" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+    <row r="13" spans="1:13" ht="282" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="10" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>60</v>
@@ -4139,23 +4173,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="61.5" customHeight="1">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -4167,7 +4201,7 @@
       <c r="I14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="28" t="s">
         <v>59</v>
       </c>
       <c r="K14" s="10"/>
@@ -4175,21 +4209,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="88.35" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+    <row r="15" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="10" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>64</v>
@@ -4197,23 +4231,23 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="80.25" customHeight="1">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="33" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="10" t="s">
@@ -4225,7 +4259,9 @@
       <c r="I16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="10" t="s">
+        <v>418</v>
+      </c>
       <c r="K16" s="10" t="s">
         <v>23</v>
       </c>
@@ -4236,21 +4272,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+    <row r="17" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="10" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>71</v>
@@ -4265,15 +4301,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="131.25" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="33" t="s">
+    <row r="18" spans="1:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="33" t="s">
         <v>73</v>
       </c>
       <c r="G18" s="10" t="s">
@@ -4285,7 +4321,9 @@
       <c r="I18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>419</v>
+      </c>
       <c r="K18" s="18" t="s">
         <v>74</v>
       </c>
@@ -4296,21 +4334,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="131.25" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="30"/>
+    <row r="19" spans="1:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="10" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>75</v>
@@ -4325,23 +4363,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="7" customFormat="1" ht="131.25" customHeight="1">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:13" s="7" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="31" t="s">
         <v>80</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -4352,26 +4390,29 @@
       </c>
       <c r="I20" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>419</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" s="7" customFormat="1" ht="131.25" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>27</v>
+    <row r="21" spans="1:13" s="7" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>81</v>
@@ -4380,17 +4421,17 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:13" ht="58.5" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30" t="s">
+    <row r="22" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="33" t="s">
         <v>84</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -4402,6 +4443,9 @@
       <c r="I22" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="J22" s="7" t="s">
+        <v>419</v>
+      </c>
       <c r="K22" s="10" t="s">
         <v>23</v>
       </c>
@@ -4412,21 +4456,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="58.5" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+    <row r="23" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="10" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>85</v>
@@ -4441,19 +4485,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="7" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:13" s="7" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="28" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="34" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -4465,38 +4509,41 @@
       <c r="I24" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" s="7" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>27</v>
+      <c r="J24" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="7" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="J25" s="24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="58.5" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="28" t="s">
+    <row r="26" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="33" t="s">
         <v>93</v>
       </c>
       <c r="G26" s="10" t="s">
@@ -4508,6 +4555,9 @@
       <c r="I26" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="J26" s="7" t="s">
+        <v>419</v>
+      </c>
       <c r="K26" s="10" t="s">
         <v>23</v>
       </c>
@@ -4518,21 +4568,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="58.5" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+    <row r="27" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
       <c r="G27" s="10" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>85</v>
@@ -4547,17 +4597,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="77.25" customHeight="1">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="28" t="s">
+    <row r="28" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="33" t="s">
         <v>96</v>
       </c>
       <c r="G28" s="10" t="s">
@@ -4569,7 +4619,9 @@
       <c r="I28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="7" t="s">
+        <v>419</v>
+      </c>
       <c r="K28" s="10" t="s">
         <v>23</v>
       </c>
@@ -4580,21 +4632,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+    <row r="29" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="10" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>97</v>
@@ -4609,17 +4661,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="7" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28" t="s">
+    <row r="30" spans="1:13" s="7" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="31" t="s">
         <v>100</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -4631,6 +4683,9 @@
       <c r="I30" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="J30" s="7" t="s">
+        <v>419</v>
+      </c>
       <c r="K30" s="7" t="s">
         <v>23</v>
       </c>
@@ -4641,21 +4696,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="30"/>
+    <row r="31" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>26</v>
+        <v>139</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>405</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>102</v>
@@ -4670,537 +4725,563 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A32" s="28" t="s">
+    <row r="32" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28" t="s">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="7" t="s">
         <v>105</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I34" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A33" s="33"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="151.5" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="23" t="s">
+      <c r="J34" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="88.35" customHeight="1">
-      <c r="A35" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="30" t="s">
+      <c r="B38" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="30" t="s">
+      <c r="D38" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G35" s="10" t="s">
+    </row>
+    <row r="39" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="295.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="88.35" customHeight="1">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="51" customHeight="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="10" t="s">
+      <c r="J40" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H42" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I42" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="88.35" customHeight="1">
-      <c r="A39" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="10" t="s">
+      <c r="J42" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+    </row>
+    <row r="45" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H45" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I45" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K39" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="88.35" customHeight="1">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="295.5" customHeight="1">
-      <c r="A41" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" s="10" t="s">
+      <c r="J45" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L45" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J46" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="10" t="s">
+      <c r="H47" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I47" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K41" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M41" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="81" customHeight="1">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="78.75" customHeight="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="M43" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="76.5" customHeight="1">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="76.5" customHeight="1">
-      <c r="A45" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-    </row>
-    <row r="46" spans="1:13" ht="120" customHeight="1">
-      <c r="A46" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="K46" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="L46" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="159.75" customHeight="1">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="39" t="s">
-        <v>149</v>
+      <c r="J47" s="28" t="s">
+        <v>154</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
     </row>
-    <row r="48" spans="1:13" ht="42" customHeight="1">
-      <c r="A48" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>153</v>
-      </c>
+    <row r="48" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
       <c r="G48" s="10" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>154</v>
+        <v>405</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="J48" s="10" t="s">
         <v>155</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:13" ht="116.25" customHeight="1">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+    <row r="49" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="G49" s="10" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>26</v>
@@ -5209,374 +5290,386 @@
         <v>27</v>
       </c>
       <c r="J49" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="L50" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-    </row>
-    <row r="50" spans="1:13" ht="78.75" customHeight="1">
-      <c r="A50" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F50" s="10" t="s">
+      <c r="B52" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="D52" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I52" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="J52" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="7" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="7" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+    </row>
+    <row r="57" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="17"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="17"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I60" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="242.25" customHeight="1">
-      <c r="A51" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="F51" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J51" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="K51" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="L51" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="M51" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="210.75" customHeight="1">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="114" customHeight="1">
-      <c r="A53" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L53" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M53" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="84" customHeight="1">
-      <c r="A54" s="28"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L54" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M54" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="7" customFormat="1" ht="99" customHeight="1">
-      <c r="A55" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="7" customFormat="1" ht="133.5" customHeight="1">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L56" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="7" customFormat="1" ht="84" customHeight="1">
-      <c r="A57" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="7" customFormat="1" ht="84" customHeight="1">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="7" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A59" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="F59" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L59" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="7" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A60" s="33"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="72.599999999999994" customHeight="1">
-      <c r="A61" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="E61" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="F61" s="36" t="s">
-        <v>194</v>
+      <c r="J60" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+    </row>
+    <row r="61" spans="1:13" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>205</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>19</v>
@@ -5587,18 +5680,26 @@
       <c r="I61" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J61" s="39"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-    </row>
-    <row r="62" spans="1:13" ht="60.75">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
+      <c r="J61" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
       <c r="G62" s="10" t="s">
         <v>25</v>
       </c>
@@ -5609,535 +5710,542 @@
         <v>27</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-    </row>
-    <row r="63" spans="1:13" ht="58.15" customHeight="1">
-      <c r="A63" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="F63" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="17"/>
+        <v>208</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="37"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="17" t="s">
+      <c r="L63" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+    </row>
+    <row r="65" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H64" s="17"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-    </row>
-    <row r="65" spans="1:13" ht="80.25" customHeight="1">
-      <c r="A65" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="G65" s="10" t="s">
+      <c r="H65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+    </row>
+    <row r="66" spans="1:12" ht="109.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="G66" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H66" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="I66" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J65" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-    </row>
-    <row r="66" spans="1:13" ht="80.25" customHeight="1">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="10" t="s">
+      <c r="J66" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+    </row>
+    <row r="67" spans="1:12" ht="109.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="H67" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="I67" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J66" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-    </row>
-    <row r="67" spans="1:13" ht="132.6" customHeight="1">
-      <c r="A67" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B67" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J67" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L67" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="M67" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="132.6" customHeight="1">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="J67" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+    </row>
+    <row r="68" spans="1:12" ht="236.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
       <c r="J68" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>23</v>
+        <v>195</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>231</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="M68" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="30.75">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="K69" s="7"/>
+        <v>195</v>
+      </c>
+      <c r="K69" s="10"/>
       <c r="L69" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="72.599999999999994" customHeight="1">
-      <c r="A70" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="F70" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J70" s="17" t="s">
-        <v>224</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-    </row>
-    <row r="71" spans="1:13" ht="67.5" customHeight="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I71" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="L70" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
       <c r="J71" s="10" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-    </row>
-    <row r="72" spans="1:13" ht="109.15" customHeight="1">
-      <c r="A72" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="E72" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F72" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J72" s="39" t="s">
-        <v>230</v>
+      <c r="L71" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B72" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
     </row>
-    <row r="73" spans="1:13" ht="109.15" customHeight="1">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="10" t="s">
+    <row r="73" spans="1:12" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K73" s="10"/>
+      <c r="L73" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K74" s="10"/>
+      <c r="L74" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="L75" s="10"/>
+    </row>
+    <row r="76" spans="1:12" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="H76" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I73" s="10" t="s">
+      <c r="I76" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J73" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-    </row>
-    <row r="74" spans="1:13" ht="236.45" customHeight="1">
-      <c r="A74" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="K74" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="L74" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="81.599999999999994" customHeight="1">
-      <c r="A75" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="K75" s="10"/>
-      <c r="L75" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="90.6" customHeight="1">
-      <c r="A76" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
       <c r="J76" s="10" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="K76" s="10"/>
-      <c r="L76" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="94.9" customHeight="1">
-      <c r="A77" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10" t="s">
-        <v>200</v>
+      <c r="L76" s="10"/>
+    </row>
+    <row r="77" spans="1:12" ht="109.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" s="28" t="s">
+        <v>259</v>
       </c>
       <c r="K77" s="10"/>
-      <c r="L77" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B78" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D78" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="E78" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="F78" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
+      <c r="L77" s="10"/>
+    </row>
+    <row r="78" spans="1:12" ht="109.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="J78" s="10" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
     </row>
-    <row r="79" spans="1:13" ht="123.6" customHeight="1">
-      <c r="A79" s="37"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="K79" s="10"/>
-      <c r="L79" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="102" customHeight="1">
-      <c r="A80" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
+    <row r="79" spans="1:12" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="F79" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="K79" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="L79" s="10"/>
+    </row>
+    <row r="80" spans="1:12" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="J80" s="10" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="K80" s="10"/>
-      <c r="L80" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="64.150000000000006" customHeight="1">
-      <c r="A81" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="E81" s="30" t="s">
+      <c r="L80" s="10"/>
+    </row>
+    <row r="81" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B81" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="F81" s="30" t="s">
+      <c r="C81" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D81" s="33" t="s">
         <v>256</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" s="33" t="s">
+        <v>266</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>19</v>
@@ -6148,21 +6256,19 @@
       <c r="I81" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J81" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="K81" s="15" t="s">
-        <v>258</v>
-      </c>
+      <c r="J81" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="K81" s="10"/>
       <c r="L81" s="10"/>
     </row>
-    <row r="82" spans="1:12" ht="64.150000000000006" customHeight="1">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
+    <row r="82" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
       <c r="G82" s="10" t="s">
         <v>25</v>
       </c>
@@ -6173,85 +6279,77 @@
         <v>27</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
     </row>
-    <row r="83" spans="1:12" ht="109.9" customHeight="1">
-      <c r="A83" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B83" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="C83" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="F83" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="G83" s="10" t="s">
+    <row r="83" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="F83" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="G83" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H83" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J83" s="39" t="s">
-        <v>264</v>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
     </row>
-    <row r="84" spans="1:12" ht="109.9" customHeight="1">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="10" t="s">
+    <row r="84" spans="1:13" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H84" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I84" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
       <c r="J84" s="10" t="s">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
     </row>
-    <row r="85" spans="1:12" ht="94.9" customHeight="1">
-      <c r="A85" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B85" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="C85" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="E85" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="F85" s="30" t="s">
-        <v>267</v>
+    <row r="85" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>271</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>19</v>
@@ -6262,21 +6360,19 @@
       <c r="I85" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J85" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="K85" s="18" t="s">
-        <v>268</v>
-      </c>
+      <c r="J85" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="K85" s="10"/>
       <c r="L85" s="10"/>
     </row>
-    <row r="86" spans="1:12" ht="94.9" customHeight="1">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
+    <row r="86" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
       <c r="G86" s="10" t="s">
         <v>25</v>
       </c>
@@ -6287,29 +6383,29 @@
         <v>27</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
     </row>
-    <row r="87" spans="1:12" ht="141" customHeight="1">
-      <c r="A87" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B87" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="C87" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="E87" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="F87" s="30" t="s">
-        <v>271</v>
+    <row r="87" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="F87" s="33" t="s">
+        <v>274</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>19</v>
@@ -6320,19 +6416,19 @@
       <c r="I87" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J87" s="39" t="s">
-        <v>264</v>
+      <c r="J87" s="28" t="s">
+        <v>259</v>
       </c>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
     </row>
-    <row r="88" spans="1:12" ht="141" customHeight="1">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
+    <row r="88" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
       <c r="G88" s="10" t="s">
         <v>25</v>
       </c>
@@ -6343,77 +6439,85 @@
         <v>27</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
     </row>
-    <row r="89" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A89" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B89" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="E89" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F89" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="G89" s="17" t="s">
+    <row r="89" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E89" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="F89" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G89" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="10" t="s">
-        <v>200</v>
+      <c r="H89" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" s="28" t="s">
+        <v>280</v>
       </c>
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
     </row>
-    <row r="90" spans="1:12" ht="26.65" customHeight="1">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="17" t="s">
+    <row r="90" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
+      <c r="H90" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="J90" s="10" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
     </row>
-    <row r="91" spans="1:12" ht="58.15" customHeight="1">
-      <c r="A91" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B91" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="F91" s="28" t="s">
-        <v>276</v>
+    <row r="91" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="E91" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="F91" s="33" t="s">
+        <v>285</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>19</v>
@@ -6424,19 +6528,19 @@
       <c r="I91" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J91" s="39" t="s">
-        <v>264</v>
+      <c r="J91" s="28" t="s">
+        <v>286</v>
       </c>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
     </row>
-    <row r="92" spans="1:12" ht="76.5">
-      <c r="A92" s="30"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
+    <row r="92" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
       <c r="G92" s="10" t="s">
         <v>25</v>
       </c>
@@ -6447,29 +6551,29 @@
         <v>27</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
     </row>
-    <row r="93" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A93" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B93" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="C93" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="D93" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="E93" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="F93" s="30" t="s">
-        <v>279</v>
+    <row r="93" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="F93" s="33" t="s">
+        <v>289</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>19</v>
@@ -6480,19 +6584,21 @@
       <c r="I93" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J93" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="K93" s="10"/>
+      <c r="J93" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="K93" s="18" t="s">
+        <v>291</v>
+      </c>
       <c r="L93" s="10"/>
     </row>
-    <row r="94" spans="1:12" ht="60.75">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
+    <row r="94" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
       <c r="G94" s="10" t="s">
         <v>25</v>
       </c>
@@ -6503,29 +6609,29 @@
         <v>27</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
     </row>
-    <row r="95" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A95" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B95" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="C95" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="D95" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="E95" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="F95" s="30" t="s">
-        <v>284</v>
+    <row r="95" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="F95" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>19</v>
@@ -6536,52 +6642,66 @@
       <c r="I95" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J95" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-    </row>
-    <row r="96" spans="1:12" ht="60.75">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
+      <c r="J95" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L95" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M95" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
       <c r="G96" s="10" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-    </row>
-    <row r="97" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A97" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B97" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="C97" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="D97" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="E97" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="F97" s="30" t="s">
-        <v>290</v>
+        <v>421</v>
+      </c>
+      <c r="K96" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L96" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M96" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="E97" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F97" s="33" t="s">
+        <v>300</v>
       </c>
       <c r="G97" s="10" t="s">
         <v>19</v>
@@ -6592,52 +6712,66 @@
       <c r="I97" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J97" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-    </row>
-    <row r="98" spans="1:13" ht="60.75">
-      <c r="A98" s="30"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
+      <c r="J97" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L97" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M97" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
       <c r="G98" s="10" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-    </row>
-    <row r="99" spans="1:13" ht="54.75" customHeight="1">
-      <c r="A99" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B99" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="C99" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="D99" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="E99" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="F99" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L98" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M98" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D99" s="33" t="s">
         <v>294</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="F99" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>19</v>
@@ -6648,334 +6782,352 @@
       <c r="I99" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J99" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="K99" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="L99" s="10"/>
-    </row>
-    <row r="100" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
+      <c r="J99" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L99" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M99" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
       <c r="G100" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L100" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M100" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+    </row>
+    <row r="102" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="F102" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J102" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="K102" s="10"/>
+      <c r="L102" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H100" s="10" t="s">
+      <c r="H103" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="I103" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J100" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-    </row>
-    <row r="101" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A101" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B101" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="C101" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="E101" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="G101" s="10" t="s">
+      <c r="J103" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+    </row>
+    <row r="104" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="33"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="E104" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="F104" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="G104" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H101" s="10" t="s">
+      <c r="H104" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I101" s="10" t="s">
+      <c r="I104" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J101" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="K101" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L101" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M101" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A102" s="30"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="10" t="s">
+      <c r="J104" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+    </row>
+    <row r="105" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H102" s="10" t="s">
+      <c r="H105" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I102" s="10" t="s">
+      <c r="I105" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L102" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M102" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A103" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B103" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="E103" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="F103" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="G103" s="10" t="s">
+      <c r="J105" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+    </row>
+    <row r="106" spans="1:13" ht="53.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L106" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M106" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="53.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J107" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L107" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M107" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J108" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L108" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M108" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G109" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H103" s="10" t="s">
+      <c r="H109" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I103" s="10" t="s">
+      <c r="I109" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J103" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="K103" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L103" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M103" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A104" s="30"/>
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I104" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L104" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M104" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A105" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B105" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="D105" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="E105" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H105" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I105" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J105" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="K105" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L105" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M105" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A106" s="30"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H106" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I106" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L106" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M106" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="74.650000000000006" customHeight="1">
-      <c r="A107" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
-    </row>
-    <row r="108" spans="1:13" ht="78" customHeight="1">
-      <c r="A108" s="30"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="E108" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="F108" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H108" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I108" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J108" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="K108" s="10"/>
-      <c r="L108" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="92.65" customHeight="1">
-      <c r="A109" s="30"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I109" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J109" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-    </row>
-    <row r="110" spans="1:13" ht="49.5" customHeight="1">
-      <c r="A110" s="30"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="E110" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="F110" s="30" t="s">
-        <v>320</v>
+      <c r="J109" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L109" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M109" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>19</v>
@@ -6986,61 +7138,79 @@
       <c r="I110" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J110" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-    </row>
-    <row r="111" spans="1:13" ht="93.75" customHeight="1">
-      <c r="A111" s="30"/>
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
+      <c r="J110" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L110" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M110" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E111" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="F111" s="33" t="s">
+        <v>344</v>
+      </c>
       <c r="G111" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J111" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L111" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M111" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="33"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H111" s="10" t="s">
+      <c r="H112" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I111" s="10" t="s">
+      <c r="I112" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J111" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="K111" s="10"/>
-      <c r="L111" s="10"/>
-    </row>
-    <row r="112" spans="1:13" ht="53.65" customHeight="1">
-      <c r="A112" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="B112" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="C112" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="F112" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I112" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J112" s="10"/>
+      <c r="J112" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="K112" s="10" t="s">
         <v>23</v>
       </c>
@@ -7051,24 +7221,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="53.65" customHeight="1">
-      <c r="A113" s="30"/>
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
+    <row r="113" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="33"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="10" t="s">
+        <v>346</v>
+      </c>
       <c r="G113" s="10" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>326</v>
+        <v>429</v>
       </c>
       <c r="K113" s="10" t="s">
         <v>23</v>
@@ -7080,22 +7252,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="53.65" customHeight="1">
-      <c r="A114" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="B114" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="C114" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="F114" s="30" t="s">
-        <v>331</v>
+    <row r="114" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="33"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="E114" s="33"/>
+      <c r="F114" s="41" t="s">
+        <v>348</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>19</v>
@@ -7106,24 +7274,19 @@
       <c r="I114" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L114" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M114" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="53.65" customHeight="1">
-      <c r="A115" s="30"/>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
+      <c r="J114" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+    </row>
+    <row r="115" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="33"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="41"/>
       <c r="G115" s="10" t="s">
         <v>25</v>
       </c>
@@ -7133,33 +7296,24 @@
       <c r="I115" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L115" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M115" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A116" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="B116" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="C116" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="F116" s="30" t="s">
-        <v>336</v>
+      <c r="J115" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="K115" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="L115" s="10"/>
+    </row>
+    <row r="116" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="33"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="E116" s="33"/>
+      <c r="F116" s="41" t="s">
+        <v>352</v>
       </c>
       <c r="G116" s="10" t="s">
         <v>19</v>
@@ -7181,13 +7335,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="78.75" customHeight="1">
-      <c r="A117" s="30"/>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30"/>
+    <row r="117" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="41"/>
       <c r="G117" s="10" t="s">
         <v>25</v>
       </c>
@@ -7197,7 +7351,9 @@
       <c r="I117" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J117" s="10"/>
+      <c r="J117" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="K117" s="10" t="s">
         <v>23</v>
       </c>
@@ -7208,22 +7364,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="75" customHeight="1">
-      <c r="A118" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="D118" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="E118" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="F118" s="30" t="s">
-        <v>341</v>
+    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>356</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>19</v>
@@ -7234,88 +7386,71 @@
       <c r="I118" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J118" s="10"/>
-      <c r="K118" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L118" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M118" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="75" customHeight="1">
-      <c r="A119" s="30"/>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="30"/>
+      <c r="J118" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+    </row>
+    <row r="119" spans="1:13" ht="99" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="33"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="E119" s="33"/>
+      <c r="F119" s="37" t="s">
+        <v>359</v>
+      </c>
       <c r="G119" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+    </row>
+    <row r="120" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="33"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H119" s="10" t="s">
+      <c r="H120" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I119" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L119" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M119" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="75" customHeight="1">
-      <c r="A120" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B120" s="30"/>
-      <c r="C120" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="D120" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="E120" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="F120" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="I120" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L120" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M120" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="75" customHeight="1">
-      <c r="A121" s="30"/>
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
+        <v>360</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+    </row>
+    <row r="121" spans="1:13" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="33"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="12" t="s">
+        <v>362</v>
+      </c>
       <c r="G121" s="10" t="s">
         <v>25</v>
       </c>
@@ -7325,882 +7460,437 @@
       <c r="I121" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L121" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M121" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="58.15" customHeight="1">
-      <c r="A122" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="B122" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="D122" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="E122" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="F122" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="G122" s="10" t="s">
+      <c r="J121" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+    </row>
+    <row r="122" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="33"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
+    </row>
+    <row r="123" spans="1:13" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="33"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="F123" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H122" s="10" t="s">
+      <c r="H123" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I122" s="10" t="s">
+      <c r="I123" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J122" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="K122" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L122" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M122" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="60.75">
-      <c r="A123" s="30"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="10" t="s">
+      <c r="J123" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K123" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="L123" s="10"/>
+    </row>
+    <row r="124" spans="1:13" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="33"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H123" s="10" t="s">
+      <c r="H124" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I123" s="10" t="s">
+      <c r="I124" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J123" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="K123" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L123" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M123" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="49.5" customHeight="1">
-      <c r="A124" s="30"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="G124" s="10" t="s">
+      <c r="J124" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
+    </row>
+    <row r="125" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="33"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="F125" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="G125" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H124" s="10" t="s">
+      <c r="H125" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I124" s="10" t="s">
+      <c r="I125" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L124" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M124" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A125" s="30"/>
-      <c r="B125" s="30"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="30"/>
-      <c r="G125" s="10" t="s">
+      <c r="J125" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="K125" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L125" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M125" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="33"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H125" s="10" t="s">
+      <c r="H126" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I125" s="10" t="s">
+      <c r="I126" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J125" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="K125" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L125" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M125" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="96.6" customHeight="1">
-      <c r="A126" s="30"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="D126" s="30" t="s">
+      <c r="J126" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K126" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L126" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M126" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="33"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J127" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="E126" s="30"/>
-      <c r="F126" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H126" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I126" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J126" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="K126" s="10"/>
-      <c r="L126" s="10"/>
-    </row>
-    <row r="127" spans="1:13" ht="96.6" customHeight="1">
-      <c r="A127" s="30"/>
-      <c r="B127" s="30"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30"/>
-      <c r="F127" s="40"/>
-      <c r="G127" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H127" s="10" t="s">
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+    </row>
+    <row r="128" spans="1:13" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="33"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+    </row>
+    <row r="129" spans="1:13" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="33"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H129" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I127" s="10" t="s">
+      <c r="I129" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J127" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="K127" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="L127" s="10"/>
-    </row>
-    <row r="128" spans="1:13" ht="42" customHeight="1">
-      <c r="A128" s="30"/>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="E128" s="30"/>
-      <c r="F128" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H128" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I128" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L128" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M128" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A129" s="30"/>
-      <c r="B129" s="30"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="30"/>
-      <c r="E129" s="30"/>
-      <c r="F129" s="40"/>
-      <c r="G129" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H129" s="10" t="s">
+      <c r="J129" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K129" s="10"/>
+      <c r="L129" s="10"/>
+    </row>
+    <row r="130" spans="1:13" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="33"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H130" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I129" s="10" t="s">
+      <c r="I130" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J129" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="K129" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L129" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M129" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="30.75">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="F130" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H130" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I130" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J130" s="13" t="s">
-        <v>363</v>
+      <c r="J130" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="K130" s="10"/>
       <c r="L130" s="10"/>
     </row>
-    <row r="131" spans="1:13" ht="99" customHeight="1" thickTop="1">
-      <c r="A131" s="30"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="D131" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="E131" s="30"/>
-      <c r="F131" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="G131" s="10" t="s">
+    <row r="131" spans="1:13" ht="95.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H131" s="10" t="s">
+      <c r="H131" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I131" s="10" t="s">
+      <c r="I131" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J131" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K131" s="10"/>
-      <c r="L131" s="10"/>
-    </row>
-    <row r="132" spans="1:13" ht="99" customHeight="1">
-      <c r="A132" s="30"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="34"/>
-      <c r="G132" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H132" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I132" s="10" t="s">
-        <v>366</v>
+      <c r="J131" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K131" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="L131" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="M131" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="K132" s="10"/>
-      <c r="L132" s="10"/>
-    </row>
-    <row r="133" spans="1:13" ht="43.9" customHeight="1">
-      <c r="A133" s="30"/>
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H133" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I133" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J133" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="K133" s="10"/>
-      <c r="L133" s="10"/>
-    </row>
-    <row r="134" spans="1:13" ht="84" customHeight="1">
-      <c r="A134" s="30"/>
-      <c r="B134" s="30"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="30"/>
-      <c r="E134" s="30"/>
-      <c r="F134" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="K134" s="10"/>
-      <c r="L134" s="10"/>
-    </row>
-    <row r="135" spans="1:13" ht="106.9" customHeight="1">
-      <c r="A135" s="30"/>
-      <c r="B135" s="30"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="F135" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I135" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J135" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="K135" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="L135" s="10"/>
-    </row>
-    <row r="136" spans="1:13" ht="106.9" customHeight="1">
-      <c r="A136" s="30"/>
-      <c r="B136" s="30"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I136" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J136" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="K136" s="10"/>
-      <c r="L136" s="10"/>
-    </row>
-    <row r="137" spans="1:13" ht="45.75">
-      <c r="A137" s="30"/>
-      <c r="B137" s="30"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="F137" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I137" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J137" s="39" t="s">
-        <v>379</v>
-      </c>
-      <c r="K137" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L137" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M137" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="167.25" customHeight="1">
-      <c r="A138" s="30"/>
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I138" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J138" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K138" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L138" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M138" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="76.150000000000006" customHeight="1">
-      <c r="A139" s="30"/>
-      <c r="B139" s="30"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="E139" s="28" t="s">
-        <v>382</v>
-      </c>
-      <c r="F139" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I139" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J139" s="7"/>
-      <c r="K139" s="10"/>
-      <c r="L139" s="10"/>
-    </row>
-    <row r="140" spans="1:13" ht="76.150000000000006" customHeight="1">
-      <c r="A140" s="30"/>
-      <c r="B140" s="30"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I140" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J140" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="K140" s="10"/>
-      <c r="L140" s="10"/>
-    </row>
-    <row r="141" spans="1:13" ht="46.9" customHeight="1">
-      <c r="A141" s="30"/>
-      <c r="B141" s="30"/>
-      <c r="C141" s="30"/>
-      <c r="D141" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="E141" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="F141" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H141" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I141" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J141" s="7"/>
-      <c r="K141" s="10"/>
-      <c r="L141" s="10"/>
-    </row>
-    <row r="142" spans="1:13" ht="46.9" customHeight="1">
-      <c r="A142" s="30"/>
-      <c r="B142" s="30"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I142" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J142" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
-    </row>
-    <row r="143" spans="1:13" ht="177.75" customHeight="1">
-      <c r="A143" s="30"/>
-      <c r="B143" s="30"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I143" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J143" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="K143" s="10"/>
-      <c r="L143" s="10"/>
-    </row>
-    <row r="144" spans="1:13" ht="123.6" customHeight="1">
-      <c r="A144" s="30"/>
-      <c r="B144" s="30"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="F144" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I144" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J144" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="K144" s="10"/>
-      <c r="L144" s="10"/>
-    </row>
-    <row r="145" spans="1:13" ht="95.65" customHeight="1">
-      <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I145" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J145" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="K145" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="K132" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="L145" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="M145" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="92.45" customHeight="1">
-      <c r="A146" s="28" t="s">
+      <c r="L132" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M132" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="8"/>
+      <c r="B160" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="B146" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="C146" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D146" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="E146" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="F146" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H146" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I146" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J146" s="7"/>
-      <c r="K146" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="L146" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M146" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13">
-      <c r="A147" s="28"/>
-      <c r="B147" s="28"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H147" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I147" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J147" s="7"/>
-      <c r="K147" s="10"/>
-      <c r="L147" s="10"/>
-    </row>
-    <row r="148" spans="1:13">
-      <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
-    </row>
-    <row r="149" spans="1:13">
-      <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
-    </row>
-    <row r="175" spans="1:10">
-      <c r="A175" s="8"/>
-      <c r="B175" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="C175" s="35"/>
-      <c r="D175" s="35"/>
-      <c r="E175" s="35"/>
-      <c r="F175" s="35"/>
-      <c r="G175" s="35"/>
-      <c r="H175" s="35"/>
-      <c r="I175" s="35"/>
-      <c r="J175" s="35"/>
+      <c r="C160" s="38"/>
+      <c r="D160" s="38"/>
+      <c r="E160" s="38"/>
+      <c r="F160" s="38"/>
+      <c r="G160" s="38"/>
+      <c r="H160" s="38"/>
+      <c r="I160" s="38"/>
+      <c r="J160" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="340">
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
+  <mergeCells count="271">
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="F111:F112"/>
     <mergeCell ref="D114:D115"/>
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
     <mergeCell ref="F116:F117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -8225,98 +7915,93 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
     <mergeCell ref="E85:E86"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F89:F90"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="D89:D90"/>
     <mergeCell ref="E89:E90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F66:F67"/>
     <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A57:A58"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="D16:D19"/>
@@ -8331,24 +8016,16 @@
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B175:J175"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B160:J160"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -8364,78 +8041,62 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="F79:F80"/>
     <mergeCell ref="F93:F94"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C131:C144"/>
-    <mergeCell ref="B131:B144"/>
-    <mergeCell ref="A131:A144"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="E131:E134"/>
-    <mergeCell ref="D131:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="C119:C130"/>
+    <mergeCell ref="B119:B130"/>
+    <mergeCell ref="A119:A130"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="D119:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A31"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B22:B34"/>
-    <mergeCell ref="C22:C34"/>
+    <mergeCell ref="B22:B33"/>
+    <mergeCell ref="C22:C33"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K3">
@@ -8498,7 +8159,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10 K2 K46 K48 K61 K63 K65 K67:K68 K72 K75 K77 K86 K88 K90 K92 K94 K96 K98 K134:K135 K145:K146 K148 K150 K152 K70 K6 K100:K106 K130:L130 K126:L127">
+  <conditionalFormatting sqref="K2 K10 K45 K47 K56:K57 K59 K61:K62 K66 K69 K71 K80 K82 K84 K86 K88 K90 K92 K122:K123 K131:K133 K135 K137 K64 K6 K94:K100 K118:L118 K114:L115">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8522,7 +8183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K108 K110">
+  <conditionalFormatting sqref="K104 K102">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8594,7 +8255,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10 L2 L46 L48 L61 L63 L65 L72 L86 L88 L90 L92 L94 L96 L98 L134:L135 L145:L146 L148 L150 L152 L6 L100:L106 L75:L77 L67:L70">
+  <conditionalFormatting sqref="L2 L10 L45 L47 L56:L57 L59 L66 L80 L82 L84 L86 L88 L90 L92 L122:L123 L131:L133 L135 L137 L6 L94:L100 L69:L71 L61:L64">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8618,7 +8279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L79">
+  <conditionalFormatting sqref="L73">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8630,7 +8291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L80">
+  <conditionalFormatting sqref="L74">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8642,7 +8303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L108 L110">
+  <conditionalFormatting sqref="L104 L102">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8702,7 +8363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M67:M68">
+  <conditionalFormatting sqref="M61:M62">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8714,7 +8375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M101:M106">
+  <conditionalFormatting sqref="M95:M100">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8726,7 +8387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M145">
+  <conditionalFormatting sqref="M131">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8738,7 +8399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M146">
+  <conditionalFormatting sqref="M132">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8751,7 +8412,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E144" r:id="rId1" xr:uid="{345465CC-C816-46A6-AF30-07AD638A52F2}"/>
+    <hyperlink ref="E130" r:id="rId1" xr:uid="{345465CC-C816-46A6-AF30-07AD638A52F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -8763,19 +8424,19 @@
           <x14:formula1>
             <xm:f>DONOTDELETE!$A$3:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G3 H45 G6:G13 D53 G69:G121 G134:G174 G45:G66</xm:sqref>
+          <xm:sqref>G2:G3 G5:G13 D52 G44:G60 G63:G110 G122:G159 G113</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C1B4F20-53D1-4A1B-832B-6E8BECAAA5F1}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$C$3:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H3 H134:H174 H6:H13 H69:H121 H46:H66</xm:sqref>
+          <xm:sqref>H2:H3 H41 H5:H13 H15 H17 H19 H21 H23 H25 H27 H29 H31:H32 H35 H37 H39 H43:H60 H63:H110 H122:H159 H113</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{79222D68-7559-4143-9FDD-D11E5D5A8DF0}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$E$3:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I3 I134:I174 I6:I13 I69:I121 I46:I66</xm:sqref>
+          <xm:sqref>I2:I3 I5:I13 I45 I47 I49:I50 I54:I60 I63:I110 I122:I159 I113</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8791,14 +8452,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -8811,29 +8472,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C4" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -8841,34 +8502,34 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -8885,51 +8546,51 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
-        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VerifPlans/Simulation/debug-trace/CV32E40XS_debug.xlsx
+++ b/docs/VerifPlans/Simulation/debug-trace/CV32E40XS_debug.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\openhw\core-v-verif_40s\cv32e40s\docs\VerifPlans\Simulation\debug-trace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krdosvik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C714476C-EA3F-42FE-A03A-788B7BB667C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E144C547-D266-4770-A942-BA1AC8DFB8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debug" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="License Statement" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +80,7 @@
     Team decided to keep it here.</t>
       </text>
     </comment>
-    <comment ref="E50" authorId="2" shapeId="0" xr:uid="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
+    <comment ref="E52" authorId="2" shapeId="0" xr:uid="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -91,7 +90,7 @@
     Redundant but already here, soo we will leave it.</t>
       </text>
     </comment>
-    <comment ref="E56" authorId="3" shapeId="0" xr:uid="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
+    <comment ref="E58" authorId="3" shapeId="0" xr:uid="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -99,7 +98,7 @@
     I like Paul's suggested re-wording.</t>
       </text>
     </comment>
-    <comment ref="E57" authorId="4" shapeId="0" xr:uid="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
+    <comment ref="E59" authorId="4" shapeId="0" xr:uid="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -109,7 +108,7 @@
     yes</t>
       </text>
     </comment>
-    <comment ref="F63" authorId="5" shapeId="0" xr:uid="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
+    <comment ref="F65" authorId="5" shapeId="0" xr:uid="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -119,7 +118,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="E66" authorId="6" shapeId="0" xr:uid="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
+    <comment ref="E68" authorId="6" shapeId="0" xr:uid="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -129,7 +128,7 @@
     No privl levels - used PZ wording</t>
       </text>
     </comment>
-    <comment ref="F68" authorId="7" shapeId="0" xr:uid="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
+    <comment ref="F70" authorId="7" shapeId="0" xr:uid="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -139,7 +138,7 @@
     Boils down to : execute fence instruction while in debug mode.</t>
       </text>
     </comment>
-    <comment ref="E69" authorId="8" shapeId="0" xr:uid="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
+    <comment ref="E71" authorId="8" shapeId="0" xr:uid="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -149,7 +148,7 @@
     agreed</t>
       </text>
     </comment>
-    <comment ref="E70" authorId="9" shapeId="0" xr:uid="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
+    <comment ref="E72" authorId="9" shapeId="0" xr:uid="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -159,7 +158,7 @@
     Agreed.</t>
       </text>
     </comment>
-    <comment ref="E71" authorId="10" shapeId="0" xr:uid="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
+    <comment ref="E73" authorId="10" shapeId="0" xr:uid="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -169,7 +168,7 @@
     Agreed.</t>
       </text>
     </comment>
-    <comment ref="E72" authorId="11" shapeId="0" xr:uid="{8D03C130-0376-4058-ACC4-1AFE35483BC5}">
+    <comment ref="E74" authorId="11" shapeId="0" xr:uid="{8D03C130-0376-4058-ACC4-1AFE35483BC5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -177,7 +176,7 @@
     Strike it?</t>
       </text>
     </comment>
-    <comment ref="E74" authorId="12" shapeId="0" xr:uid="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}">
+    <comment ref="E76" authorId="12" shapeId="0" xr:uid="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -185,7 +184,7 @@
     Strike it?</t>
       </text>
     </comment>
-    <comment ref="G76" authorId="13" shapeId="0" xr:uid="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
+    <comment ref="G78" authorId="13" shapeId="0" xr:uid="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -195,7 +194,7 @@
     No, the random test already does that.</t>
       </text>
     </comment>
-    <comment ref="F79" authorId="14" shapeId="0" xr:uid="{359070A5-02B6-4A16-8859-1CF1672E058F}">
+    <comment ref="F81" authorId="14" shapeId="0" xr:uid="{359070A5-02B6-4A16-8859-1CF1672E058F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -205,7 +204,7 @@
     Oystein to update test - may already be done.</t>
       </text>
     </comment>
-    <comment ref="E93" authorId="15" shapeId="0" xr:uid="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}">
+    <comment ref="E95" authorId="15" shapeId="0" xr:uid="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -213,7 +212,7 @@
     Strike the bit about priv level.</t>
       </text>
     </comment>
-    <comment ref="E101" authorId="16" shapeId="0" xr:uid="{DBF077C8-A084-4C20-8E27-8023879A0FAD}">
+    <comment ref="E103" authorId="16" shapeId="0" xr:uid="{DBF077C8-A084-4C20-8E27-8023879A0FAD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -221,7 +220,7 @@
     Agree with Paul.  Recommend we strike this Feature from the Vplan.</t>
       </text>
     </comment>
-    <comment ref="F118" authorId="17" shapeId="0" xr:uid="{330593C8-663F-4984-BA49-9E72F46FD622}">
+    <comment ref="F120" authorId="17" shapeId="0" xr:uid="{330593C8-663F-4984-BA49-9E72F46FD622}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -236,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="439">
   <si>
     <t>Reference document</t>
   </si>
@@ -796,15 +795,6 @@
     <t>A: a_dt_tie_offs_tselect, a_dt_tie_offs_tdata1_mcontrol, a_dt_tie_offs_tdata1_etrigger, a_dt_tie_offs_tdata1_mcontrol6, a_dt_tie_offs_tdata1_disabled, a_dt_tie_offs_tdata2_etrigger. a_dt_tie_offs_tinfo.</t>
   </si>
   <si>
-    <t>"mcontrol6" atomics</t>
-  </si>
-  <si>
-    <t>40X, "mcontrol6" trigger behavior has specific descriptions for "A" extension.</t>
-  </si>
-  <si>
-    <t>40X, TODO this section must be filled out when the time comes for planning atomics verification.</t>
-  </si>
-  <si>
     <t>40S User Manual
 Debug 1.0.0</t>
   </si>
@@ -2651,12 +2641,48 @@
     <t>CG: uvmt_cv32_tb.u_debug_assert.cov_step_stepie_nmi
 A:   uvmt_cv32_tb.u_debug_assert.a_stepie_irq_dis, uvmt_cv32_tb.u_debug_assert.a_stepie_irq_en</t>
   </si>
+  <si>
+    <t>"mcontrol6" and "mcontrol" atomics</t>
+  </si>
+  <si>
+    <t>40X, "mcontrol" and "mcontrol6" trigger behavior has specific descriptions for "A" extension.</t>
+  </si>
+  <si>
+    <t>40X, TODO AMO.</t>
+  </si>
+  <si>
+    <t>Not yet prioritized (TODO).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR.W have same trigger match rules as any other loads, no matter what the destination register is. </t>
+  </si>
+  <si>
+    <t>Inspect that LR.W is treated like any other load instruction, no matter what the destination register is.</t>
+  </si>
+  <si>
+    <t>inspection</t>
+  </si>
+  <si>
+    <t>This seems to be correct. And incorrect behaviour should therefore be triggered by the a_dt_load_trigger_hit_* assertions</t>
+  </si>
+  <si>
+    <t>SC.W have same trigger match rules as any other store, no matter if it is successful or failing.</t>
+  </si>
+  <si>
+    <t>Inspect that SC.W is treated like any other store instruction, no matter if it is successful or failing.</t>
+  </si>
+  <si>
+    <t>Assertion Coverage/inspection</t>
+  </si>
+  <si>
+    <t>This seems to be correct. And incorrect behaviour should therefore be triggered by the a_dt_store_trigger_hit_* assertions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2981,6 +3007,12 @@
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3086,7 +3118,7 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3150,9 +3182,6 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3174,13 +3203,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3189,26 +3239,17 @@
     <xf numFmtId="0" fontId="38" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3616,85 +3657,85 @@
   <threadedComment ref="E8" dT="2020-09-30T13:17:06.19" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{90E355DC-DFE0-4393-901C-C7BA637FF5FE}" parentId="{409B10D5-F2FF-4A54-AF8E-8F8611120E5A}">
     <text>Team decided to keep it here.</text>
   </threadedComment>
-  <threadedComment ref="E50" dT="2020-09-24T16:55:04.12" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}" done="1">
+  <threadedComment ref="E52" dT="2020-09-24T16:55:04.12" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}" done="1">
     <text>This is already covered in the CSR Vplan.   Suggest we strike it from this Vplan.</text>
   </threadedComment>
-  <threadedComment ref="E50" dT="2020-09-30T13:18:41.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3BF6FA3E-FAF4-478E-85E9-6205296B01C9}" parentId="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
+  <threadedComment ref="E52" dT="2020-09-30T13:18:41.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3BF6FA3E-FAF4-478E-85E9-6205296B01C9}" parentId="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
     <text>Redundant but already here, soo we will leave it.</text>
   </threadedComment>
-  <threadedComment ref="E56" dT="2020-09-24T16:57:01.54" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
+  <threadedComment ref="E58" dT="2020-09-24T16:57:01.54" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
     <text>I like Paul's suggested re-wording.</text>
   </threadedComment>
-  <threadedComment ref="E57" dT="2020-09-24T16:53:52.20" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}" done="1">
+  <threadedComment ref="E59" dT="2020-09-24T16:53:52.20" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E57" dT="2020-09-30T13:25:11.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{2F5A1AE8-17CB-4809-9BBC-4658D9626781}" parentId="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
+  <threadedComment ref="E59" dT="2020-09-30T13:25:11.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{2F5A1AE8-17CB-4809-9BBC-4658D9626781}" parentId="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
     <text>yes</text>
   </threadedComment>
-  <threadedComment ref="F63" dT="2020-09-24T16:59:11.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8859A4C9-6A41-4816-B62E-43D40684F8F2}" done="1">
+  <threadedComment ref="F65" dT="2020-09-24T16:59:11.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8859A4C9-6A41-4816-B62E-43D40684F8F2}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="F63" dT="2020-09-30T13:25:59.46" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14A99125-C214-42BC-9CBF-4BFF9258C81D}" parentId="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
+  <threadedComment ref="F65" dT="2020-09-30T13:25:59.46" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14A99125-C214-42BC-9CBF-4BFF9258C81D}" parentId="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
     <text>Done</text>
   </threadedComment>
-  <threadedComment ref="E66" dT="2020-09-24T18:24:13.37" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}" done="1">
+  <threadedComment ref="E68" dT="2020-09-24T18:24:13.37" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}" done="1">
     <text>These two statements seem incompatible...</text>
   </threadedComment>
-  <threadedComment ref="E66" dT="2020-09-30T13:27:53.85" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{7AB65A33-1A15-4445-9245-4D95F9A28763}" parentId="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
+  <threadedComment ref="E68" dT="2020-09-30T13:27:53.85" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{7AB65A33-1A15-4445-9245-4D95F9A28763}" parentId="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
     <text>No privl levels - used PZ wording</text>
   </threadedComment>
-  <threadedComment ref="F68" dT="2020-09-24T18:25:18.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
+  <threadedComment ref="F70" dT="2020-09-24T18:25:18.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
     <text>Where are we on this?</text>
   </threadedComment>
-  <threadedComment ref="F68" dT="2020-09-30T13:30:53.84" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{47003926-6041-4466-90A2-2C10C5C85296}" parentId="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
+  <threadedComment ref="F70" dT="2020-09-30T13:30:53.84" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{47003926-6041-4466-90A2-2C10C5C85296}" parentId="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
     <text>Boils down to : execute fence instruction while in debug mode.</text>
   </threadedComment>
-  <threadedComment ref="E69" dT="2020-09-24T18:30:19.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{AA8182C6-5B9E-4486-B389-DB07B4061F09}" done="1">
+  <threadedComment ref="E71" dT="2020-09-24T18:30:19.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{AA8182C6-5B9E-4486-B389-DB07B4061F09}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E69" dT="2020-09-30T13:31:48.03" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{E2660D4C-ABB0-4A74-8E26-618F8054984D}" parentId="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
+  <threadedComment ref="E71" dT="2020-09-30T13:31:48.03" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{E2660D4C-ABB0-4A74-8E26-618F8054984D}" parentId="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
     <text>agreed</text>
   </threadedComment>
-  <threadedComment ref="E70" dT="2020-09-24T18:30:28.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}" done="1">
+  <threadedComment ref="E72" dT="2020-09-24T18:30:28.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E70" dT="2020-09-30T13:32:19.99" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14422222-B948-462F-AB79-03264D9DD8D6}" parentId="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
+  <threadedComment ref="E72" dT="2020-09-30T13:32:19.99" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14422222-B948-462F-AB79-03264D9DD8D6}" parentId="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
     <text>Agreed.</text>
   </threadedComment>
-  <threadedComment ref="E71" dT="2020-09-24T18:30:34.82" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}" done="1">
+  <threadedComment ref="E73" dT="2020-09-24T18:30:34.82" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E71" dT="2020-09-30T13:32:40.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0284E229-AC40-4DE7-B509-C230FD082319}" parentId="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
+  <threadedComment ref="E73" dT="2020-09-30T13:32:40.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0284E229-AC40-4DE7-B509-C230FD082319}" parentId="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
     <text>Agreed.</text>
   </threadedComment>
-  <threadedComment ref="E72" dT="2020-09-24T18:31:32.23" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8D03C130-0376-4058-ACC4-1AFE35483BC5}" done="1">
+  <threadedComment ref="E74" dT="2020-09-24T18:31:32.23" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8D03C130-0376-4058-ACC4-1AFE35483BC5}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E74" dT="2020-09-24T18:31:54.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}" done="1">
+  <threadedComment ref="E76" dT="2020-09-24T18:31:54.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="G76" dT="2020-09-24T18:33:02.27" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}" done="1">
+  <threadedComment ref="G78" dT="2020-09-24T18:33:02.27" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}" done="1">
     <text>Strike the random test?</text>
   </threadedComment>
-  <threadedComment ref="G76" dT="2020-09-30T13:34:31.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{ED00C003-ADD3-4337-A61F-D4F72597A94A}" parentId="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
+  <threadedComment ref="G78" dT="2020-09-30T13:34:31.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{ED00C003-ADD3-4337-A61F-D4F72597A94A}" parentId="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
     <text>No, the random test already does that.</text>
   </threadedComment>
-  <threadedComment ref="F79" dT="2020-09-24T18:34:22.08" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{359070A5-02B6-4A16-8859-1CF1672E058F}" done="1">
+  <threadedComment ref="F81" dT="2020-09-24T18:34:22.08" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{359070A5-02B6-4A16-8859-1CF1672E058F}" done="1">
     <text>Agree with Paul's suggestion (very clever).</text>
   </threadedComment>
-  <threadedComment ref="F79" dT="2020-09-30T13:35:41.79" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{18F9F807-0A03-4BDC-94E3-F905A81B75E9}" parentId="{359070A5-02B6-4A16-8859-1CF1672E058F}">
+  <threadedComment ref="F81" dT="2020-09-30T13:35:41.79" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{18F9F807-0A03-4BDC-94E3-F905A81B75E9}" parentId="{359070A5-02B6-4A16-8859-1CF1672E058F}">
     <text>Oystein to update test - may already be done.</text>
   </threadedComment>
-  <threadedComment ref="E93" dT="2020-09-24T18:40:37.04" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}" done="1">
+  <threadedComment ref="E95" dT="2020-09-24T18:40:37.04" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}" done="1">
     <text>Strike the bit about priv level.</text>
   </threadedComment>
-  <threadedComment ref="E101" dT="2020-09-24T18:41:13.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{DBF077C8-A084-4C20-8E27-8023879A0FAD}" done="1">
+  <threadedComment ref="E103" dT="2020-09-24T18:41:13.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{DBF077C8-A084-4C20-8E27-8023879A0FAD}" done="1">
     <text>Agree with Paul.  Recommend we strike this Feature from the Vplan.</text>
   </threadedComment>
-  <threadedComment ref="F118" dT="2020-09-24T18:43:39.52" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{330593C8-663F-4984-BA49-9E72F46FD622}" done="1">
+  <threadedComment ref="F120" dT="2020-09-24T18:43:39.52" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{330593C8-663F-4984-BA49-9E72F46FD622}" done="1">
     <text>Interesting.   I will take this one.  Not sure of the mechanics, but should be able to figure it out.  The extension would be to run any randomly generated test-program in debug mode.</text>
   </threadedComment>
-  <threadedComment ref="F118" dT="2020-09-30T13:54:53.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{EBD10753-F33F-41FF-8334-571D8778E2AA}" parentId="{330593C8-663F-4984-BA49-9E72F46FD622}">
+  <threadedComment ref="F120" dT="2020-09-30T13:54:53.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{EBD10753-F33F-41FF-8334-571D8778E2AA}" parentId="{330593C8-663F-4984-BA49-9E72F46FD622}">
     <text>Better idea: cross coverage of debug mode entry and instruction executed</text>
   </threadedComment>
 </ThreadedComments>
@@ -3703,14 +3744,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="6" customWidth="1"/>
@@ -3726,7 +3767,7 @@
     <col min="13" max="13" width="17" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3767,23 +3808,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:13" ht="93.75" customHeight="1">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="32" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -3795,7 +3836,7 @@
       <c r="I2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="10" t="s">
@@ -3808,21 +3849,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+    <row r="3" spans="1:13" ht="139.5" customHeight="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>28</v>
@@ -3837,23 +3878,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="142.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:13" ht="142.15" customHeight="1">
+      <c r="A4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="30" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -3865,7 +3906,7 @@
       <c r="I4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="27" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="10" t="s">
@@ -3878,21 +3919,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="142.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>140</v>
+    <row r="5" spans="1:13" ht="142.15" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>34</v>
@@ -3907,35 +3948,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:13" ht="113.25" customHeight="1">
+      <c r="A6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="27" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="10" t="s">
@@ -3948,21 +3989,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="162.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>140</v>
+    <row r="7" spans="1:13" ht="162.6" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>41</v>
@@ -3977,35 +4018,35 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:13" ht="88.5" customHeight="1">
+      <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="27" t="s">
         <v>44</v>
       </c>
       <c r="K8" s="10" t="s">
@@ -4018,21 +4059,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>140</v>
+    <row r="9" spans="1:13" ht="147" customHeight="1">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>45</v>
@@ -4047,23 +4088,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:13" ht="76.5" customHeight="1">
+      <c r="A10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="35" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="10" t="s">
@@ -4075,27 +4116,27 @@
       <c r="I10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="27" t="s">
         <v>51</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="175.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+    <row r="11" spans="1:13" ht="175.35" customHeight="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>52</v>
@@ -4103,23 +4144,23 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A12" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="30" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -4131,7 +4172,7 @@
       <c r="I12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="27" t="s">
         <v>59</v>
       </c>
       <c r="K12" s="10" t="s">
@@ -4144,21 +4185,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="282" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+    <row r="13" spans="1:13" ht="282" customHeight="1">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>60</v>
@@ -4173,23 +4214,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:13" ht="61.5" customHeight="1">
+      <c r="A14" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="32" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -4201,29 +4242,29 @@
       <c r="I14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="27" t="s">
         <v>59</v>
       </c>
       <c r="K14" s="10"/>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+    <row r="15" spans="1:13" ht="88.35" customHeight="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>64</v>
@@ -4231,23 +4272,23 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:13" ht="80.25" customHeight="1">
+      <c r="A16" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="10" t="s">
@@ -4260,7 +4301,7 @@
         <v>21</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>23</v>
@@ -4272,21 +4313,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+    <row r="17" spans="1:13" ht="43.5" customHeight="1">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
       <c r="G17" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>71</v>
@@ -4301,15 +4342,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+    <row r="18" spans="1:13" ht="131.25" customHeight="1">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="30" t="s">
         <v>73</v>
       </c>
       <c r="G18" s="10" t="s">
@@ -4322,7 +4363,7 @@
         <v>21</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K18" s="18" t="s">
         <v>74</v>
@@ -4334,21 +4375,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+    <row r="19" spans="1:13" ht="131.25" customHeight="1">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="33"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>75</v>
@@ -4363,23 +4404,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="7" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+    <row r="20" spans="1:13" s="7" customFormat="1" ht="131.25" customHeight="1">
+      <c r="A20" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="32" t="s">
         <v>80</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -4392,27 +4433,27 @@
         <v>21</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" s="7" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+    <row r="21" spans="1:13" s="7" customFormat="1" ht="131.25" customHeight="1">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>81</v>
@@ -4421,17 +4462,17 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33" t="s">
+    <row r="22" spans="1:13" ht="58.5" customHeight="1">
+      <c r="A22" s="39"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="30" t="s">
         <v>84</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -4444,7 +4485,7 @@
         <v>21</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>23</v>
@@ -4456,21 +4497,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+    <row r="23" spans="1:13" ht="58.5" customHeight="1">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>85</v>
@@ -4485,19 +4526,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="7" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+    <row r="24" spans="1:13" s="7" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A24" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="31" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="40" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -4510,40 +4551,40 @@
         <v>21</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="7" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="7" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J25" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="31" t="s">
+    <row r="26" spans="1:13" ht="58.5" customHeight="1">
+      <c r="A26" s="39"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="30" t="s">
         <v>93</v>
       </c>
       <c r="G26" s="10" t="s">
@@ -4556,7 +4597,7 @@
         <v>21</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>23</v>
@@ -4568,21 +4609,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+    <row r="27" spans="1:13" ht="58.5" customHeight="1">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>85</v>
@@ -4597,17 +4638,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="31" t="s">
+    <row r="28" spans="1:13" ht="77.25" customHeight="1">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="30" t="s">
         <v>96</v>
       </c>
       <c r="G28" s="10" t="s">
@@ -4620,7 +4661,7 @@
         <v>21</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>23</v>
@@ -4632,21 +4673,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
+    <row r="29" spans="1:13" ht="65.25" customHeight="1">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
       <c r="G29" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>97</v>
@@ -4661,17 +4702,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="7" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31" t="s">
+    <row r="30" spans="1:13" s="7" customFormat="1" ht="105.75" customHeight="1">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="32" t="s">
         <v>100</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -4684,7 +4725,7 @@
         <v>21</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>23</v>
@@ -4696,21 +4737,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="35"/>
+    <row r="31" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="36"/>
-      <c r="F31" s="33"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>102</v>
@@ -4725,143 +4766,133 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="30" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="29" t="s">
         <v>104</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>105</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J32" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J32" s="25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="10" t="s">
+    <row r="33" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="I33" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="J33" s="45" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42" t="s">
+        <v>431</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="I34" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="J34" s="45" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="151.5" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>436</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="I35" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="J35" s="45" t="s">
+        <v>438</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="88.35" customHeight="1">
+      <c r="A36" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="B36" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="C36" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="E36" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="F36" s="30" t="s">
         <v>111</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>119</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>19</v>
@@ -4873,7 +4904,7 @@
         <v>21</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>23</v>
@@ -4881,28 +4912,28 @@
       <c r="L36" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M36" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="M36" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="88.35" customHeight="1">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>23</v>
@@ -4910,28 +4941,22 @@
       <c r="L37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M37" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>124</v>
+      <c r="M37" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="51" customHeight="1">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>116</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>19</v>
@@ -4943,7 +4968,7 @@
         <v>21</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>23</v>
@@ -4951,28 +4976,28 @@
       <c r="L38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M38" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
+      <c r="M38" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="50.25" customHeight="1">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>23</v>
@@ -4980,28 +5005,28 @@
       <c r="L39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M39" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="295.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="33" t="s">
+      <c r="M39" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="88.35" customHeight="1">
+      <c r="A40" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>129</v>
+      <c r="D40" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>121</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>19</v>
@@ -5013,7 +5038,7 @@
         <v>21</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>23</v>
@@ -5021,28 +5046,28 @@
       <c r="L40" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M40" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
+      <c r="M40" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="88.35" customHeight="1">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
       <c r="G41" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>130</v>
+        <v>137</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>23</v>
@@ -5050,20 +5075,28 @@
       <c r="L41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M41" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>132</v>
+      <c r="M41" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="295.5" customHeight="1">
+      <c r="A42" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>126</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>19</v>
@@ -5075,601 +5108,609 @@
         <v>21</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="22" t="s">
+      <c r="L42" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="81" customHeight="1">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="78.75" customHeight="1">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="M42" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J43" s="10" t="s">
+      <c r="M44" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="76.5" customHeight="1">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="76.5" customHeight="1">
+      <c r="A46" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K43" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M43" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="G46" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10" t="s">
+      <c r="H46" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="J46" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-    </row>
-    <row r="45" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J46" s="28" t="s">
-        <v>148</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
-    </row>
-    <row r="47" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="M46" s="10"/>
+    </row>
+    <row r="47" spans="1:13" ht="120" customHeight="1">
+      <c r="A47" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>152</v>
+      <c r="C47" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-    </row>
-    <row r="48" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
+      <c r="J47" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L47" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="159.75" customHeight="1">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
       <c r="G48" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>155</v>
+        <v>137</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:13" ht="42" customHeight="1">
+      <c r="A49" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="1:13" ht="116.25" customHeight="1">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+    </row>
+    <row r="51" spans="1:13" ht="78.75" customHeight="1">
+      <c r="A51" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="F51" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="G51" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="242.25" customHeight="1">
+      <c r="A52" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10" t="s">
+      <c r="D52" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="E52" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="G49" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="33" t="s">
+      <c r="F52" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="G52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="K52" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="L52" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="M52" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="210.75" customHeight="1">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="114" customHeight="1">
+      <c r="A54" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="7" customFormat="1" ht="99" customHeight="1">
+      <c r="A55" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="7" customFormat="1" ht="84" customHeight="1">
+      <c r="A56" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="7" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A57" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="72.599999999999994" customHeight="1">
+      <c r="A58" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+    </row>
+    <row r="59" spans="1:13" ht="58.15" customHeight="1">
+      <c r="A59" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="G59" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H50" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="M50" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M51" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L53" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="7" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="7" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-    </row>
-    <row r="57" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="B57" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="D57" s="40" t="s">
+      <c r="H59" s="17"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="F57" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="17"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" s="17"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-    </row>
-    <row r="59" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>200</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="10" t="s">
+    <row r="60" spans="1:13">
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H60" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="H60" s="17"/>
+      <c r="I60" s="10"/>
       <c r="J60" s="10" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" spans="1:13" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="F61" s="33" t="s">
-        <v>205</v>
+    <row r="61" spans="1:13" ht="80.25" customHeight="1">
+      <c r="A61" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>19</v>
@@ -5680,26 +5721,19 @@
       <c r="I61" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J61" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L61" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
+      <c r="J61" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="1:13" ht="80.25" customHeight="1">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
       <c r="G62" s="10" t="s">
         <v>25</v>
       </c>
@@ -5710,122 +5744,127 @@
         <v>27</v>
       </c>
       <c r="J62" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+    </row>
+    <row r="63" spans="1:13" ht="132.6" customHeight="1">
+      <c r="A63" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="132.6" customHeight="1">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="30">
+      <c r="A65" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="K62" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L62" s="18" t="s">
+      <c r="E65" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="M62" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="B63" s="17" t="s">
+      <c r="F65" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C63" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D63" s="17" t="s">
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K65" s="7"/>
+      <c r="L65" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="E63" s="17" t="s">
+    </row>
+    <row r="66" spans="1:12" ht="72.599999999999994" customHeight="1">
+      <c r="A66" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="C66" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K63" s="7"/>
-      <c r="L63" s="18" t="s">
+      <c r="E66" s="30" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B64" s="33" t="s">
+      <c r="F66" s="30" t="s">
         <v>215</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D64" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="F64" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-    </row>
-    <row r="65" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J65" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-    </row>
-    <row r="66" spans="1:12" ht="109.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="E66" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>224</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>19</v>
@@ -5836,19 +5875,19 @@
       <c r="I66" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J66" s="28" t="s">
-        <v>225</v>
+      <c r="J66" s="17" t="s">
+        <v>216</v>
       </c>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
     </row>
-    <row r="67" spans="1:12" ht="109.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
+    <row r="67" spans="1:12" ht="67.5" customHeight="1">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
       <c r="G67" s="10" t="s">
         <v>25</v>
       </c>
@@ -5859,279 +5898,277 @@
         <v>27</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="1:12" ht="236.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="B68" s="16" t="s">
+    <row r="68" spans="1:12" ht="109.15" customHeight="1">
+      <c r="A68" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+    </row>
+    <row r="69" spans="1:12" ht="109.15" customHeight="1">
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+    </row>
+    <row r="70" spans="1:12" ht="236.45" customHeight="1">
+      <c r="A70" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F70" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C68" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D68" s="16" t="s">
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K70" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="L70" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="F68" s="16" t="s">
+    </row>
+    <row r="71" spans="1:12" ht="81.599999999999994" customHeight="1">
+      <c r="A71" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K68" s="18" t="s">
+      <c r="C71" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="L68" s="18" t="s">
+      <c r="E71" s="17" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="B69" s="17" t="s">
+      <c r="F71" s="17" t="s">
         <v>233</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K69" s="10"/>
-      <c r="L69" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K70" s="10"/>
-      <c r="L70" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>236</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
       <c r="J71" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="B72" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="C72" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="D72" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="E72" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="F72" s="40" t="s">
-        <v>245</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="90.6" customHeight="1">
+      <c r="A72" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
       <c r="J72" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-    </row>
-    <row r="73" spans="1:12" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
+      <c r="L72" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="94.9" customHeight="1">
+      <c r="A73" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>233</v>
+      </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K73" s="10"/>
       <c r="L73" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17" t="s">
-        <v>247</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>242</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K74" s="10"/>
-      <c r="L74" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B75" s="33" t="s">
+      <c r="L74" s="10"/>
+    </row>
+    <row r="75" spans="1:12" ht="123.6" customHeight="1">
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K75" s="10"/>
+      <c r="L75" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="102" customHeight="1">
+      <c r="A76" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K76" s="10"/>
+      <c r="L76" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="64.150000000000006" customHeight="1">
+      <c r="A77" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="F77" s="30" t="s">
         <v>248</v>
-      </c>
-      <c r="C75" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="D75" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E75" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J75" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="K75" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="L75" s="10"/>
-    </row>
-    <row r="76" spans="1:12" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I76" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J76" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-    </row>
-    <row r="77" spans="1:12" ht="109.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B77" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="D77" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="E77" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>258</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>19</v>
@@ -6142,19 +6179,21 @@
       <c r="I77" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J77" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="K77" s="10"/>
+      <c r="J77" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K77" s="15" t="s">
+        <v>250</v>
+      </c>
       <c r="L77" s="10"/>
     </row>
-    <row r="78" spans="1:12" ht="109.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
+    <row r="78" spans="1:12" ht="64.150000000000006" customHeight="1">
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
       <c r="G78" s="10" t="s">
         <v>25</v>
       </c>
@@ -6165,29 +6204,29 @@
         <v>27</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
     </row>
-    <row r="79" spans="1:12" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B79" s="33" t="s">
+    <row r="79" spans="1:12" ht="109.9" customHeight="1">
+      <c r="A79" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F79" s="30" t="s">
         <v>255</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="F79" s="33" t="s">
-        <v>262</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>19</v>
@@ -6198,21 +6237,19 @@
       <c r="I79" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J79" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="K79" s="18" t="s">
-        <v>263</v>
-      </c>
+      <c r="J79" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="K79" s="10"/>
       <c r="L79" s="10"/>
     </row>
-    <row r="80" spans="1:12" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
+    <row r="80" spans="1:12" ht="109.9" customHeight="1">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
       <c r="G80" s="10" t="s">
         <v>25</v>
       </c>
@@ -6223,29 +6260,29 @@
         <v>27</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
     </row>
-    <row r="81" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B81" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>266</v>
+    <row r="81" spans="1:12" ht="94.9" customHeight="1">
+      <c r="A81" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>259</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>19</v>
@@ -6256,19 +6293,21 @@
       <c r="I81" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J81" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="K81" s="10"/>
+      <c r="J81" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="K81" s="18" t="s">
+        <v>260</v>
+      </c>
       <c r="L81" s="10"/>
     </row>
-    <row r="82" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
+    <row r="82" spans="1:12" ht="94.9" customHeight="1">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
       <c r="G82" s="10" t="s">
         <v>25</v>
       </c>
@@ -6279,133 +6318,133 @@
         <v>27</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
     </row>
-    <row r="83" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B83" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="C83" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="D83" s="40" t="s">
+    <row r="83" spans="1:12" ht="141" customHeight="1">
+      <c r="A83" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" s="27" t="s">
         <v>256</v>
-      </c>
-      <c r="E83" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="F83" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
     </row>
-    <row r="84" spans="1:13" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="17" t="s">
+    <row r="84" spans="1:12" ht="141" customHeight="1">
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
+      <c r="H84" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="J84" s="10" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
     </row>
-    <row r="85" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B85" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="D85" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="F85" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="G85" s="10" t="s">
+    <row r="85" spans="1:12" ht="43.5" customHeight="1">
+      <c r="A85" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="F85" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G85" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H85" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J85" s="28" t="s">
-        <v>259</v>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
     </row>
-    <row r="86" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="10" t="s">
+    <row r="86" spans="1:12" ht="26.65" customHeight="1">
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H86" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I86" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
       <c r="J86" s="10" t="s">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
     </row>
-    <row r="87" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B87" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="C87" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="D87" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="E87" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="F87" s="33" t="s">
-        <v>274</v>
+    <row r="87" spans="1:12" ht="58.15" customHeight="1">
+      <c r="A87" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F87" s="32" t="s">
+        <v>268</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>19</v>
@@ -6416,19 +6455,19 @@
       <c r="I87" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J87" s="28" t="s">
-        <v>259</v>
+      <c r="J87" s="27" t="s">
+        <v>256</v>
       </c>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
     </row>
-    <row r="88" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
+    <row r="88" spans="1:12" ht="75">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
       <c r="G88" s="10" t="s">
         <v>25</v>
       </c>
@@ -6439,29 +6478,29 @@
         <v>27</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
     </row>
-    <row r="89" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B89" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="C89" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="D89" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="E89" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="F89" s="33" t="s">
-        <v>279</v>
+    <row r="89" spans="1:12" ht="43.5" customHeight="1">
+      <c r="A89" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>271</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>19</v>
@@ -6472,19 +6511,19 @@
       <c r="I89" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J89" s="28" t="s">
-        <v>280</v>
+      <c r="J89" s="27" t="s">
+        <v>256</v>
       </c>
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
     </row>
-    <row r="90" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
+    <row r="90" spans="1:12" ht="60">
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
       <c r="G90" s="10" t="s">
         <v>25</v>
       </c>
@@ -6495,29 +6534,29 @@
         <v>27</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
     </row>
-    <row r="91" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B91" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="C91" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="D91" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="E91" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="F91" s="33" t="s">
-        <v>285</v>
+    <row r="91" spans="1:12" ht="43.5" customHeight="1">
+      <c r="A91" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="F91" s="30" t="s">
+        <v>276</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>19</v>
@@ -6528,19 +6567,19 @@
       <c r="I91" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J91" s="28" t="s">
-        <v>286</v>
+      <c r="J91" s="27" t="s">
+        <v>277</v>
       </c>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
     </row>
-    <row r="92" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
+    <row r="92" spans="1:12" ht="60">
+      <c r="A92" s="30"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
       <c r="G92" s="10" t="s">
         <v>25</v>
       </c>
@@ -6551,29 +6590,29 @@
         <v>27</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
     </row>
-    <row r="93" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B93" s="33" t="s">
+    <row r="93" spans="1:12" ht="43.5" customHeight="1">
+      <c r="A93" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="F93" s="30" t="s">
         <v>282</v>
-      </c>
-      <c r="C93" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="D93" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="E93" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="F93" s="33" t="s">
-        <v>289</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>19</v>
@@ -6584,21 +6623,19 @@
       <c r="I93" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J93" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="K93" s="18" t="s">
-        <v>291</v>
-      </c>
+      <c r="J93" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="K93" s="10"/>
       <c r="L93" s="10"/>
     </row>
-    <row r="94" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
+    <row r="94" spans="1:12" ht="60">
+      <c r="A94" s="30"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
       <c r="G94" s="10" t="s">
         <v>25</v>
       </c>
@@ -6609,29 +6646,29 @@
         <v>27</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
     </row>
-    <row r="95" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="C95" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="D95" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="E95" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="F95" s="33" t="s">
-        <v>296</v>
+    <row r="95" spans="1:12" ht="54.75" customHeight="1">
+      <c r="A95" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>286</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>19</v>
@@ -6642,66 +6679,54 @@
       <c r="I95" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J95" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="K95" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L95" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M95" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
+      <c r="J95" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="K95" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="L95" s="10"/>
+    </row>
+    <row r="96" spans="1:12" ht="75.75" customHeight="1">
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
       <c r="G96" s="10" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>405</v>
+        <v>26</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="K96" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L96" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M96" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="C97" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="D97" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="E97" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="F97" s="33" t="s">
-        <v>300</v>
+        <v>289</v>
+      </c>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+    </row>
+    <row r="97" spans="1:13" ht="75.75" customHeight="1">
+      <c r="A97" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>293</v>
       </c>
       <c r="G97" s="10" t="s">
         <v>19</v>
@@ -6713,65 +6738,65 @@
         <v>21</v>
       </c>
       <c r="J97" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L97" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M97" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="75.75" customHeight="1">
+      <c r="A98" s="30"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L98" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M98" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="75.75" customHeight="1">
+      <c r="A99" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="F99" s="30" t="s">
         <v>297</v>
-      </c>
-      <c r="K97" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L97" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M97" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="33"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H98" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="I98" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J98" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="K98" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L98" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M98" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B99" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="E99" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="F99" s="33" t="s">
-        <v>302</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>19</v>
@@ -6783,7 +6808,7 @@
         <v>21</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K99" s="10" t="s">
         <v>23</v>
@@ -6795,24 +6820,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="33"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
+    <row r="100" spans="1:13" ht="75.75" customHeight="1">
+      <c r="A100" s="30"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
       <c r="G100" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K100" s="10" t="s">
         <v>23</v>
@@ -6824,100 +6849,116 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+    <row r="101" spans="1:13" ht="75.75" customHeight="1">
+      <c r="A101" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="E101" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L101" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M101" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="75.75" customHeight="1">
+      <c r="A102" s="30"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L102" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M102" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="74.650000000000006" customHeight="1">
+      <c r="A103" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F103" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="F101" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-    </row>
-    <row r="102" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="33"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="E102" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="F102" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J102" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="K102" s="10"/>
-      <c r="L102" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I103" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J103" s="21" t="s">
-        <v>313</v>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
     </row>
-    <row r="104" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="F104" s="33" t="s">
-        <v>315</v>
+    <row r="104" spans="1:13" ht="78" customHeight="1">
+      <c r="A104" s="30"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>307</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>19</v>
@@ -6929,18 +6970,20 @@
         <v>21</v>
       </c>
       <c r="J104" s="21" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-    </row>
-    <row r="105" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="33"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
+      <c r="L104" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="92.65" customHeight="1">
+      <c r="A105" s="30"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
       <c r="G105" s="10" t="s">
         <v>25</v>
       </c>
@@ -6951,224 +6994,196 @@
         <v>27</v>
       </c>
       <c r="J105" s="21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
     </row>
-    <row r="106" spans="1:13" ht="53.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="F106" s="10" t="s">
-        <v>320</v>
+    <row r="106" spans="1:13" ht="49.5" customHeight="1">
+      <c r="A106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>312</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>405</v>
+        <v>20</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J106" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="K106" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L106" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M106" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="53.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>326</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J106" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+    </row>
+    <row r="107" spans="1:13" ht="93.75" customHeight="1">
+      <c r="A107" s="30"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
       <c r="G107" s="10" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>405</v>
+        <v>26</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J107" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="K107" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L107" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M107" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J107" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+    </row>
+    <row r="108" spans="1:13" ht="53.65" customHeight="1">
       <c r="A108" s="10" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J108" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L108" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M108" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="53.65" customHeight="1">
+      <c r="A109" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L109" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M109" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="75.75" customHeight="1">
+      <c r="A110" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J110" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L110" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M110" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="75" customHeight="1">
+      <c r="A111" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="F108" s="10" t="s">
+      <c r="D111" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="G108" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H108" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="I108" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J108" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="K108" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L108" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M108" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
+      <c r="E111" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10" t="s">
+      <c r="F111" s="10" t="s">
         <v>333</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="F109" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I109" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J109" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="K109" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L109" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M109" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F110" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I110" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J110" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="K110" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L110" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M110" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="B111" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="C111" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="D111" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="E111" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="F111" s="33" t="s">
-        <v>344</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>19</v>
@@ -7179,8 +7194,8 @@
       <c r="I111" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J111" s="28" t="s">
-        <v>219</v>
+      <c r="J111" s="10" t="s">
+        <v>423</v>
       </c>
       <c r="K111" s="10" t="s">
         <v>23</v>
@@ -7192,128 +7207,158 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="33"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
+    <row r="112" spans="1:13" ht="75" customHeight="1">
+      <c r="A112" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>336</v>
+      </c>
       <c r="G112" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L112" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M112" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="58.15" customHeight="1">
+      <c r="A113" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E113" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="F113" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J113" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L113" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M113" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="60">
+      <c r="A114" s="30"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H112" s="10" t="s">
+      <c r="H114" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I112" s="10" t="s">
+      <c r="I114" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J112" s="10" t="s">
+      <c r="J114" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L114" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M114" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="49.5" customHeight="1">
+      <c r="A115" s="30"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I115" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J115" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L115" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M115" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="96.6" customHeight="1">
+      <c r="A116" s="30"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="E116" s="30"/>
+      <c r="F116" s="31" t="s">
         <v>345</v>
-      </c>
-      <c r="K112" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L112" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M112" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="33"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H113" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="I113" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J113" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="K113" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L113" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M113" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="33"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="D114" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="E114" s="33"/>
-      <c r="F114" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I114" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J114" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-    </row>
-    <row r="115" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="33"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="41"/>
-      <c r="G115" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H115" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I115" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J115" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="K115" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="L115" s="10"/>
-    </row>
-    <row r="116" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="33"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="E116" s="33"/>
-      <c r="F116" s="41" t="s">
-        <v>352</v>
       </c>
       <c r="G116" s="10" t="s">
         <v>19</v>
@@ -7324,24 +7369,19 @@
       <c r="I116" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L116" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M116" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="33"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="41"/>
+      <c r="J116" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+    </row>
+    <row r="117" spans="1:13" ht="96.6" customHeight="1">
+      <c r="A117" s="30"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="31"/>
       <c r="G117" s="10" t="s">
         <v>25</v>
       </c>
@@ -7351,31 +7391,24 @@
       <c r="I117" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J117" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="K117" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L117" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M117" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>356</v>
+      <c r="J117" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="K117" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="L117" s="10"/>
+    </row>
+    <row r="118" spans="1:13" ht="42" customHeight="1">
+      <c r="A118" s="30"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="E118" s="30"/>
+      <c r="F118" s="31" t="s">
+        <v>349</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>19</v>
@@ -7386,164 +7419,176 @@
       <c r="I118" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J118" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="K118" s="10"/>
-      <c r="L118" s="10"/>
-    </row>
-    <row r="119" spans="1:13" ht="99" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="33"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="D119" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="E119" s="33"/>
-      <c r="F119" s="37" t="s">
-        <v>359</v>
-      </c>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L118" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M118" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A119" s="30"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="31"/>
       <c r="G119" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L119" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M119" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="30">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="G120" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H119" s="10" t="s">
+      <c r="H120" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I119" s="10" t="s">
+      <c r="I120" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J119" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K119" s="10"/>
-      <c r="L119" s="10"/>
-    </row>
-    <row r="120" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="33"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I120" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>361</v>
+      <c r="J120" s="13" t="s">
+        <v>354</v>
       </c>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
     </row>
-    <row r="121" spans="1:13" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="33"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="12" t="s">
-        <v>362</v>
+    <row r="121" spans="1:13" ht="99" customHeight="1" thickTop="1">
+      <c r="A121" s="30"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="D121" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E121" s="30"/>
+      <c r="F121" s="38" t="s">
+        <v>356</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>363</v>
+        <v>59</v>
       </c>
       <c r="K121" s="10"/>
       <c r="L121" s="10"/>
     </row>
-    <row r="122" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="33"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="21" t="s">
-        <v>365</v>
+    <row r="122" spans="1:13" ht="99" customHeight="1">
+      <c r="A122" s="30"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>358</v>
       </c>
       <c r="K122" s="10"/>
       <c r="L122" s="10"/>
     </row>
-    <row r="123" spans="1:13" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="33"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="F123" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I123" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="K123" s="18" t="s">
-        <v>369</v>
-      </c>
+    <row r="123" spans="1:13" ht="43.9" customHeight="1">
+      <c r="A123" s="30"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I123" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J123" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="K123" s="10"/>
       <c r="L123" s="10"/>
     </row>
-    <row r="124" spans="1:13" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="33"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="31"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I124" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J124" s="7" t="s">
-        <v>370</v>
+    <row r="124" spans="1:13" ht="84" customHeight="1">
+      <c r="A124" s="30"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="21" t="s">
+        <v>362</v>
       </c>
       <c r="K124" s="10"/>
       <c r="L124" s="10"/>
     </row>
-    <row r="125" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="33"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="F125" s="31" t="s">
-        <v>372</v>
+    <row r="125" spans="1:13" ht="106.9" customHeight="1">
+      <c r="A125" s="30"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="F125" s="32" t="s">
+        <v>364</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>19</v>
@@ -7554,26 +7599,21 @@
       <c r="I125" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J125" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="K125" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L125" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M125" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="33"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="31"/>
+      <c r="J125" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K125" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="L125" s="10"/>
+    </row>
+    <row r="126" spans="1:13" ht="106.9" customHeight="1">
+      <c r="A126" s="30"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
       <c r="G126" s="7" t="s">
         <v>25</v>
       </c>
@@ -7584,313 +7624,482 @@
         <v>27</v>
       </c>
       <c r="J126" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+    </row>
+    <row r="127" spans="1:13" ht="60">
+      <c r="A127" s="30"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F127" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J127" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="K127" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L127" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M127" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="167.25" customHeight="1">
+      <c r="A128" s="30"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K128" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L128" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M128" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="76.150000000000006" customHeight="1">
+      <c r="A129" s="30"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F129" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K126" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L126" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M126" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="33"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J127" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="K127" s="10"/>
-      <c r="L127" s="10"/>
-    </row>
-    <row r="128" spans="1:13" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="33"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J128" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="K128" s="10"/>
-      <c r="L128" s="10"/>
-    </row>
-    <row r="129" spans="1:13" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="33"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>382</v>
-      </c>
       <c r="G129" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>26</v>
+        <v>402</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K129" s="10"/>
       <c r="L129" s="10"/>
     </row>
-    <row r="130" spans="1:13" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="33"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="33"/>
+    <row r="130" spans="1:13" ht="46.9" customHeight="1">
+      <c r="A130" s="30"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="30"/>
       <c r="D130" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>385</v>
+        <v>375</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>26</v>
+        <v>402</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="K130" s="10"/>
       <c r="L130" s="10"/>
     </row>
-    <row r="131" spans="1:13" ht="95.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>388</v>
+    <row r="131" spans="1:13" ht="177.75" customHeight="1">
+      <c r="A131" s="30"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I131" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="K131" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="L131" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="M131" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>397</v>
+        <v>350</v>
+      </c>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+    </row>
+    <row r="132" spans="1:13" ht="123.6" customHeight="1">
+      <c r="A132" s="30"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>382</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>405</v>
+        <v>26</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="K132" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="L132" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M132" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+    </row>
+    <row r="133" spans="1:13" ht="95.65" customHeight="1">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="8"/>
-      <c r="B160" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="C160" s="38"/>
-      <c r="D160" s="38"/>
-      <c r="E160" s="38"/>
-      <c r="F160" s="38"/>
-      <c r="G160" s="38"/>
-      <c r="H160" s="38"/>
-      <c r="I160" s="38"/>
-      <c r="J160" s="38"/>
+      <c r="C133" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K133" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="L133" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="M133" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="92.45" customHeight="1">
+      <c r="A134" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J134" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K134" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="L134" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M134" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="8"/>
+      <c r="B162" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="C162" s="37"/>
+      <c r="D162" s="37"/>
+      <c r="E162" s="37"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="37"/>
+      <c r="H162" s="37"/>
+      <c r="I162" s="37"/>
+      <c r="J162" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="271">
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B22:B35"/>
+    <mergeCell ref="C22:C35"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C121:C132"/>
+    <mergeCell ref="B121:B132"/>
+    <mergeCell ref="A121:A132"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="D121:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="B162:J162"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="C95:C96"/>
     <mergeCell ref="D95:D96"/>
     <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -7915,188 +8124,74 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B160:J160"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="D116:D117"/>
     <mergeCell ref="E116:E117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="C119:C130"/>
-    <mergeCell ref="B119:B130"/>
-    <mergeCell ref="A119:A130"/>
-    <mergeCell ref="E119:E122"/>
-    <mergeCell ref="D119:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B22:B33"/>
-    <mergeCell ref="C22:C33"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="B116:B119"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K3">
@@ -8159,7 +8254,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2 K10 K45 K47 K56:K57 K59 K61:K62 K66 K69 K71 K80 K82 K84 K86 K88 K90 K92 K122:K123 K131:K133 K135 K137 K64 K6 K94:K100 K118:L118 K114:L115">
+  <conditionalFormatting sqref="K2 K10 K47 K49 K58:K59 K61 K63:K64 K68 K71 K73 K82 K84 K86 K88 K90 K92 K94 K124:K125 K133:K135 K137 K139 K66 K6 K96:K102 K120:L120 K116:L117">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8183,7 +8278,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K104 K102">
+  <conditionalFormatting sqref="K106 K104">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8255,7 +8350,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2 L10 L45 L47 L56:L57 L59 L66 L80 L82 L84 L86 L88 L90 L92 L122:L123 L131:L133 L135 L137 L6 L94:L100 L69:L71 L61:L64">
+  <conditionalFormatting sqref="L2 L10 L47 L49 L58:L59 L61 L68 L82 L84 L86 L88 L90 L92 L94 L124:L125 L133:L135 L137 L139 L6 L96:L102 L71:L73 L63:L66">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8279,7 +8374,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L73">
+  <conditionalFormatting sqref="L75">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8291,7 +8386,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L74">
+  <conditionalFormatting sqref="L76">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8303,7 +8398,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L104 L102">
+  <conditionalFormatting sqref="L106 L104">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8363,7 +8458,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M61:M62">
+  <conditionalFormatting sqref="M63:M64">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8375,7 +8470,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M95:M100">
+  <conditionalFormatting sqref="M97:M102">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8387,7 +8482,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M131">
+  <conditionalFormatting sqref="M133">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8399,7 +8494,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M132">
+  <conditionalFormatting sqref="M134">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8412,7 +8507,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E130" r:id="rId1" xr:uid="{345465CC-C816-46A6-AF30-07AD638A52F2}"/>
+    <hyperlink ref="E132" r:id="rId1" xr:uid="{345465CC-C816-46A6-AF30-07AD638A52F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -8424,19 +8519,19 @@
           <x14:formula1>
             <xm:f>DONOTDELETE!$A$3:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G3 G5:G13 D52 G44:G60 G63:G110 G122:G159 G113</xm:sqref>
+          <xm:sqref>G2:G3 G5:G13 D54 G46:G62 G65:G112 G124:G161 G115</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C1B4F20-53D1-4A1B-832B-6E8BECAAA5F1}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$C$3:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H3 H41 H5:H13 H15 H17 H19 H21 H23 H25 H27 H29 H31:H32 H35 H37 H39 H43:H60 H63:H110 H122:H159 H113</xm:sqref>
+          <xm:sqref>H2:H3 H43 H5:H13 H15 H17 H19 H21 H23 H25 H27 H29 H31:H34 H37 H39 H41 H45:H62 H65:H112 H124:H161 H115</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{79222D68-7559-4143-9FDD-D11E5D5A8DF0}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$E$3:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I3 I5:I13 I45 I47 I49:I50 I54:I60 I63:I110 I122:I159 I113</xm:sqref>
+          <xm:sqref>I2:I3 I5:I13 I47 I49 I51:I52 I56:I62 I65:I112 I124:I161 I115</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8452,14 +8547,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -8472,29 +8567,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -8502,34 +8597,34 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -8546,51 +8641,51 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VerifPlans/Simulation/debug-trace/CV32E40XS_debug.xlsx
+++ b/docs/VerifPlans/Simulation/debug-trace/CV32E40XS_debug.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krdosvik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\openhw\core-v-verif_40s\cv32e40s\docs\VerifPlans\Simulation\debug-trace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E144C547-D266-4770-A942-BA1AC8DFB8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F74439-FD9C-40EE-83F5-0095B456355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debug" sheetId="1" r:id="rId1"/>
@@ -2628,13 +2628,6 @@
     <t>A: uvmt_cv32e40s_tb.dut_wrap.cv32e40s_wrapper_i.umode_assert_i.a_mprven_tied</t>
   </si>
   <si>
-    <t>TODO: not covered</t>
-  </si>
-  <si>
-    <t>DTC: pushpop_debug_triggers
-TODO: Increase coverage by checking triggers at first/last operation</t>
-  </si>
-  <si>
     <t>A: [uvmt_cv32e40s_pmp_assert].a_accept_only_legal, [uvmt_cv32e40s_pmp_assert].a_deny_only_illegal</t>
   </si>
   <si>
@@ -2676,13 +2669,19 @@
   </si>
   <si>
     <t>This seems to be correct. And incorrect behaviour should therefore be triggered by the a_dt_store_trigger_hit_* assertions</t>
+  </si>
+  <si>
+    <t>Covered in DTC "debug_test2"</t>
+  </si>
+  <si>
+    <t>DTC: pushpop_debug_triggers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="48">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3118,7 +3117,7 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3203,31 +3202,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="6" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3236,20 +3235,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3747,11 +3740,11 @@
   <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="6" customWidth="1"/>
@@ -3767,7 +3760,7 @@
     <col min="13" max="13" width="17" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3808,20 +3801,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="93.75" customHeight="1">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="33" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="32" t="s">
@@ -3849,13 +3842,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="139.5" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+    <row r="3" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="10" t="s">
         <v>136</v>
       </c>
@@ -3878,23 +3871,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="142.15" customHeight="1">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:13" ht="142.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="33" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -3919,13 +3912,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="142.15" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+    <row r="5" spans="1:13" ht="142.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="27" t="s">
         <v>136</v>
       </c>
@@ -3948,23 +3941,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="113.25" customHeight="1">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="42" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="27" t="s">
@@ -3989,13 +3982,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="162.6" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+    <row r="7" spans="1:13" ht="162.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="27" t="s">
         <v>136</v>
       </c>
@@ -4018,23 +4011,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="88.5" customHeight="1">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="42" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="27" t="s">
@@ -4059,13 +4052,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="147" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+    <row r="9" spans="1:13" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="27" t="s">
         <v>136</v>
       </c>
@@ -4088,23 +4081,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="76.5" customHeight="1">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="38" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="10" t="s">
@@ -4122,13 +4115,13 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="175.35" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+    <row r="11" spans="1:13" ht="175.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="10" t="s">
         <v>136</v>
       </c>
@@ -4144,23 +4137,23 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="33" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -4185,13 +4178,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="282" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+    <row r="13" spans="1:13" ht="282" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="10" t="s">
         <v>136</v>
       </c>
@@ -4214,17 +4207,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="61.5" customHeight="1">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="33" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="32" t="s">
@@ -4250,11 +4243,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="88.35" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+    <row r="15" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
       <c r="G15" s="10" t="s">
@@ -4272,23 +4265,23 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="80.25" customHeight="1">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="33" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="10" t="s">
@@ -4313,13 +4306,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+    <row r="17" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="10" t="s">
         <v>136</v>
       </c>
@@ -4342,15 +4335,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="131.25" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="36" t="s">
+    <row r="18" spans="1:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="33" t="s">
         <v>73</v>
       </c>
       <c r="G18" s="10" t="s">
@@ -4375,13 +4368,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="131.25" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="30"/>
+    <row r="19" spans="1:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="10" t="s">
         <v>136</v>
       </c>
@@ -4404,7 +4397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="7" customFormat="1" ht="131.25" customHeight="1">
+    <row r="20" spans="1:13" s="7" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>76</v>
       </c>
@@ -4439,7 +4432,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" s="7" customFormat="1" ht="131.25" customHeight="1">
+    <row r="21" spans="1:13" s="7" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -4462,17 +4455,17 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:13" ht="58.5" customHeight="1">
+    <row r="22" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="33" t="s">
         <v>84</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -4497,13 +4490,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="58.5" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+    <row r="23" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="10" t="s">
         <v>136</v>
       </c>
@@ -4526,12 +4519,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="7" customFormat="1" ht="58.5" customHeight="1">
+    <row r="24" spans="1:13" s="7" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="32" t="s">
         <v>87</v>
       </c>
@@ -4554,10 +4547,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="7" customFormat="1" ht="52.5" customHeight="1">
+    <row r="25" spans="1:13" s="7" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -4574,17 +4567,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="58.5" customHeight="1">
+    <row r="26" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="33" t="s">
         <v>93</v>
       </c>
       <c r="G26" s="10" t="s">
@@ -4609,13 +4602,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="58.5" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+    <row r="27" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="32"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
       <c r="G27" s="10" t="s">
         <v>136</v>
       </c>
@@ -4638,17 +4631,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="77.25" customHeight="1">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+    <row r="28" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="33" t="s">
         <v>96</v>
       </c>
       <c r="G28" s="10" t="s">
@@ -4673,13 +4666,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+    <row r="29" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="32"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="10" t="s">
         <v>136</v>
       </c>
@@ -4702,7 +4695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="7" customFormat="1" ht="105.75" customHeight="1">
+    <row r="30" spans="1:13" s="7" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -4737,13 +4730,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="30"/>
+    <row r="31" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="7" t="s">
         <v>136</v>
       </c>
@@ -4766,7 +4759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1">
+    <row r="32" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>76</v>
       </c>
@@ -4794,77 +4787,76 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1">
+    <row r="33" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="F33" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="G33" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J33" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="F33" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="H33" s="43" t="s">
-        <v>402</v>
-      </c>
-      <c r="I33" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="J33" s="45" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1">
+    </row>
+    <row r="34" spans="1:13" s="7" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="J34" s="31" t="s">
         <v>432</v>
       </c>
-      <c r="G34" s="42" t="s">
+    </row>
+    <row r="35" spans="1:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H34" s="43" t="s">
+      <c r="H35" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="I34" s="42" t="s">
-        <v>433</v>
-      </c>
-      <c r="J34" s="45" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="151.5" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42" t="s">
+      <c r="I35" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="J35" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="G35" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>402</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>437</v>
-      </c>
-      <c r="J35" s="45" t="s">
-        <v>438</v>
-      </c>
       <c r="K35" s="10" t="s">
         <v>23</v>
       </c>
@@ -4875,23 +4867,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="88.35" customHeight="1">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="33" t="s">
         <v>111</v>
       </c>
       <c r="G36" s="10" t="s">
@@ -4916,13 +4908,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="88.35" customHeight="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+    <row r="37" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="10" t="s">
         <v>136</v>
       </c>
@@ -4945,17 +4937,17 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="51" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30" t="s">
+    <row r="38" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="33" t="s">
         <v>116</v>
       </c>
       <c r="G38" s="10" t="s">
@@ -4980,13 +4972,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+    <row r="39" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
       <c r="G39" s="10" t="s">
         <v>136</v>
       </c>
@@ -5009,17 +5001,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="88.35" customHeight="1">
-      <c r="A40" s="30" t="s">
+    <row r="40" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="33" t="s">
         <v>119</v>
       </c>
       <c r="E40" s="32" t="s">
@@ -5050,11 +5042,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="88.35" customHeight="1">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+    <row r="41" spans="1:13" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
       <c r="G41" s="10" t="s">
@@ -5079,23 +5071,23 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="295.5" customHeight="1">
-      <c r="A42" s="30" t="s">
+    <row r="42" spans="1:13" ht="295.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="33" t="s">
         <v>126</v>
       </c>
       <c r="G42" s="10" t="s">
@@ -5120,13 +5112,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="81" customHeight="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+    <row r="43" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="10" t="s">
         <v>136</v>
       </c>
@@ -5149,12 +5141,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="78.75" customHeight="1">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30" t="s">
+    <row r="44" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33" t="s">
         <v>128</v>
       </c>
       <c r="F44" s="32" t="s">
@@ -5182,13 +5174,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="76.5" customHeight="1">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="33"/>
+    <row r="45" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="43"/>
       <c r="G45" s="10" t="s">
         <v>136</v>
       </c>
@@ -5211,7 +5203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="76.5" customHeight="1">
+    <row r="46" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>131</v>
       </c>
@@ -5244,21 +5236,21 @@
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="1:13" ht="120" customHeight="1">
-      <c r="A47" s="30" t="s">
+    <row r="47" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30" t="s">
+      <c r="D47" s="33"/>
+      <c r="E47" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="33" t="s">
         <v>141</v>
       </c>
       <c r="G47" s="10" t="s">
@@ -5280,13 +5272,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="159.75" customHeight="1">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
+    <row r="48" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
       <c r="G48" s="10" t="s">
         <v>136</v>
       </c>
@@ -5302,23 +5294,23 @@
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:13" ht="42" customHeight="1">
-      <c r="A49" s="30" t="s">
+    <row r="49" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="33" t="s">
         <v>149</v>
       </c>
       <c r="G49" s="10" t="s">
@@ -5336,13 +5328,13 @@
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
     </row>
-    <row r="50" spans="1:13" ht="116.25" customHeight="1">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
+    <row r="50" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
       <c r="G50" s="10" t="s">
         <v>136</v>
       </c>
@@ -5358,7 +5350,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
     </row>
-    <row r="51" spans="1:13" ht="78.75" customHeight="1">
+    <row r="51" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>153</v>
       </c>
@@ -5397,23 +5389,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="242.25" customHeight="1">
-      <c r="A52" s="30" t="s">
+    <row r="52" spans="1:13" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="33" t="s">
         <v>159</v>
       </c>
       <c r="E52" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="F52" s="38" t="s">
         <v>161</v>
       </c>
       <c r="G52" s="10" t="s">
@@ -5438,13 +5430,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="210.75" customHeight="1">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+    <row r="53" spans="1:13" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="30"/>
+      <c r="F53" s="33"/>
       <c r="G53" s="10" t="s">
         <v>136</v>
       </c>
@@ -5467,14 +5459,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="114" customHeight="1">
+    <row r="54" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="33" t="s">
         <v>158</v>
       </c>
       <c r="D54" s="10" t="s">
@@ -5508,7 +5500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="7" customFormat="1" ht="99" customHeight="1">
+    <row r="55" spans="1:13" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>170</v>
       </c>
@@ -5545,7 +5537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="7" customFormat="1" ht="84" customHeight="1">
+    <row r="56" spans="1:13" s="7" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>76</v>
       </c>
@@ -5573,7 +5565,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="7" customFormat="1" ht="59.25" customHeight="1">
+    <row r="57" spans="1:13" s="7" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>153</v>
       </c>
@@ -5610,7 +5602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="72.599999999999994" customHeight="1">
+    <row r="58" spans="1:13" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>181</v>
       </c>
@@ -5645,23 +5637,23 @@
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
     </row>
-    <row r="59" spans="1:13" ht="58.15" customHeight="1">
-      <c r="A59" s="34" t="s">
+    <row r="59" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="F59" s="34" t="s">
+      <c r="F59" s="41" t="s">
         <v>191</v>
       </c>
       <c r="G59" s="17" t="s">
@@ -5675,13 +5667,13 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
       <c r="G60" s="17" t="s">
         <v>25</v>
       </c>
@@ -5693,23 +5685,23 @@
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" spans="1:13" ht="80.25" customHeight="1">
-      <c r="A61" s="30" t="s">
+    <row r="61" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E61" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F61" s="33" t="s">
         <v>196</v>
       </c>
       <c r="G61" s="10" t="s">
@@ -5727,13 +5719,13 @@
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="1:13" ht="80.25" customHeight="1">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
+    <row r="62" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
       <c r="G62" s="10" t="s">
         <v>25</v>
       </c>
@@ -5749,21 +5741,21 @@
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" spans="1:13" ht="132.6" customHeight="1">
-      <c r="A63" s="30" t="s">
+    <row r="63" spans="1:13" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30" t="s">
+      <c r="D63" s="33"/>
+      <c r="E63" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="F63" s="30" t="s">
+      <c r="F63" s="33" t="s">
         <v>202</v>
       </c>
       <c r="G63" s="10" t="s">
@@ -5788,13 +5780,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="132.6" customHeight="1">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
+    <row r="64" spans="1:13" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
       <c r="G64" s="10" t="s">
         <v>25</v>
       </c>
@@ -5817,7 +5809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="30">
+    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>181</v>
       </c>
@@ -5847,23 +5839,23 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="72.599999999999994" customHeight="1">
-      <c r="A66" s="30" t="s">
+    <row r="66" spans="1:12" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="33" t="s">
         <v>215</v>
       </c>
       <c r="G66" s="10" t="s">
@@ -5881,13 +5873,13 @@
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
     </row>
-    <row r="67" spans="1:12" ht="67.5" customHeight="1">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
+    <row r="67" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
       <c r="G67" s="10" t="s">
         <v>25</v>
       </c>
@@ -5903,23 +5895,23 @@
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="1:12" ht="109.15" customHeight="1">
-      <c r="A68" s="30" t="s">
+    <row r="68" spans="1:12" ht="109.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="E68" s="35" t="s">
+      <c r="E68" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="33" t="s">
         <v>221</v>
       </c>
       <c r="G68" s="10" t="s">
@@ -5937,13 +5929,13 @@
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
     </row>
-    <row r="69" spans="1:12" ht="109.15" customHeight="1">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
+    <row r="69" spans="1:12" ht="109.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
       <c r="G69" s="10" t="s">
         <v>25</v>
       </c>
@@ -5959,7 +5951,7 @@
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="1:12" ht="236.45" customHeight="1">
+    <row r="70" spans="1:12" ht="236.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>181</v>
       </c>
@@ -5991,7 +5983,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="81.599999999999994" customHeight="1">
+    <row r="71" spans="1:12" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>181</v>
       </c>
@@ -6021,7 +6013,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="90.6" customHeight="1">
+    <row r="72" spans="1:12" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>181</v>
       </c>
@@ -6051,7 +6043,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="94.9" customHeight="1">
+    <row r="73" spans="1:12" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>181</v>
       </c>
@@ -6081,23 +6073,23 @@
         <v>211</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="34" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D74" s="34" t="s">
+      <c r="D74" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="E74" s="34" t="s">
+      <c r="E74" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="F74" s="34" t="s">
+      <c r="F74" s="41" t="s">
         <v>242</v>
       </c>
       <c r="G74" s="10"/>
@@ -6109,13 +6101,13 @@
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
     </row>
-    <row r="75" spans="1:12" ht="123.6" customHeight="1">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
+    <row r="75" spans="1:12" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
@@ -6127,7 +6119,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="102" customHeight="1">
+    <row r="76" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>181</v>
       </c>
@@ -6151,23 +6143,23 @@
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="64.150000000000006" customHeight="1">
-      <c r="A77" s="30" t="s">
+    <row r="77" spans="1:12" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E77" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="33" t="s">
         <v>248</v>
       </c>
       <c r="G77" s="10" t="s">
@@ -6187,13 +6179,13 @@
       </c>
       <c r="L77" s="10"/>
     </row>
-    <row r="78" spans="1:12" ht="64.150000000000006" customHeight="1">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
+    <row r="78" spans="1:12" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
       <c r="G78" s="10" t="s">
         <v>25</v>
       </c>
@@ -6209,23 +6201,23 @@
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
     </row>
-    <row r="79" spans="1:12" ht="109.9" customHeight="1">
-      <c r="A79" s="30" t="s">
+    <row r="79" spans="1:12" ht="109.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="E79" s="30" t="s">
+      <c r="E79" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="F79" s="30" t="s">
+      <c r="F79" s="33" t="s">
         <v>255</v>
       </c>
       <c r="G79" s="10" t="s">
@@ -6243,13 +6235,13 @@
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
     </row>
-    <row r="80" spans="1:12" ht="109.9" customHeight="1">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
+    <row r="80" spans="1:12" ht="109.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
       <c r="G80" s="10" t="s">
         <v>25</v>
       </c>
@@ -6265,23 +6257,23 @@
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
     </row>
-    <row r="81" spans="1:12" ht="94.9" customHeight="1">
-      <c r="A81" s="30" t="s">
+    <row r="81" spans="1:12" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="C81" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="E81" s="30" t="s">
+      <c r="E81" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="F81" s="30" t="s">
+      <c r="F81" s="33" t="s">
         <v>259</v>
       </c>
       <c r="G81" s="10" t="s">
@@ -6301,13 +6293,13 @@
       </c>
       <c r="L81" s="10"/>
     </row>
-    <row r="82" spans="1:12" ht="94.9" customHeight="1">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
+    <row r="82" spans="1:12" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
       <c r="G82" s="10" t="s">
         <v>25</v>
       </c>
@@ -6323,23 +6315,23 @@
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
     </row>
-    <row r="83" spans="1:12" ht="141" customHeight="1">
-      <c r="A83" s="30" t="s">
+    <row r="83" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="33" t="s">
         <v>263</v>
       </c>
       <c r="G83" s="10" t="s">
@@ -6357,13 +6349,13 @@
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
     </row>
-    <row r="84" spans="1:12" ht="141" customHeight="1">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
+    <row r="84" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
       <c r="G84" s="10" t="s">
         <v>25</v>
       </c>
@@ -6379,23 +6371,23 @@
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
     </row>
-    <row r="85" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A85" s="30" t="s">
+    <row r="85" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C85" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="D85" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="E85" s="34" t="s">
+      <c r="E85" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="F85" s="34" t="s">
+      <c r="F85" s="41" t="s">
         <v>266</v>
       </c>
       <c r="G85" s="17" t="s">
@@ -6409,13 +6401,13 @@
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
     </row>
-    <row r="86" spans="1:12" ht="26.65" customHeight="1">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
+    <row r="86" spans="1:12" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
       <c r="G86" s="17" t="s">
         <v>25</v>
       </c>
@@ -6427,20 +6419,20 @@
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
     </row>
-    <row r="87" spans="1:12" ht="58.15" customHeight="1">
-      <c r="A87" s="30" t="s">
+    <row r="87" spans="1:12" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D87" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="E87" s="30" t="s">
+      <c r="E87" s="33" t="s">
         <v>267</v>
       </c>
       <c r="F87" s="32" t="s">
@@ -6461,13 +6453,13 @@
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
     </row>
-    <row r="88" spans="1:12" ht="75">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
+    <row r="88" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
       <c r="G88" s="10" t="s">
         <v>25</v>
       </c>
@@ -6483,23 +6475,23 @@
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
     </row>
-    <row r="89" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A89" s="30" t="s">
+    <row r="89" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="D89" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="E89" s="30" t="s">
+      <c r="E89" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="F89" s="30" t="s">
+      <c r="F89" s="33" t="s">
         <v>271</v>
       </c>
       <c r="G89" s="10" t="s">
@@ -6517,13 +6509,13 @@
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
     </row>
-    <row r="90" spans="1:12" ht="60">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
+    <row r="90" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
       <c r="G90" s="10" t="s">
         <v>25</v>
       </c>
@@ -6539,23 +6531,23 @@
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
     </row>
-    <row r="91" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A91" s="30" t="s">
+    <row r="91" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="C91" s="30" t="s">
+      <c r="C91" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D91" s="30" t="s">
+      <c r="D91" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="E91" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="F91" s="30" t="s">
+      <c r="F91" s="33" t="s">
         <v>276</v>
       </c>
       <c r="G91" s="10" t="s">
@@ -6573,13 +6565,13 @@
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
     </row>
-    <row r="92" spans="1:12" ht="60">
-      <c r="A92" s="30"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
+    <row r="92" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
       <c r="G92" s="10" t="s">
         <v>25</v>
       </c>
@@ -6595,23 +6587,23 @@
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
     </row>
-    <row r="93" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A93" s="30" t="s">
+    <row r="93" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D93" s="30" t="s">
+      <c r="D93" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="E93" s="30" t="s">
+      <c r="E93" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="F93" s="30" t="s">
+      <c r="F93" s="33" t="s">
         <v>282</v>
       </c>
       <c r="G93" s="10" t="s">
@@ -6629,13 +6621,13 @@
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
     </row>
-    <row r="94" spans="1:12" ht="60">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
+    <row r="94" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
       <c r="G94" s="10" t="s">
         <v>25</v>
       </c>
@@ -6651,23 +6643,23 @@
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
     </row>
-    <row r="95" spans="1:12" ht="54.75" customHeight="1">
-      <c r="A95" s="30" t="s">
+    <row r="95" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D95" s="30" t="s">
+      <c r="D95" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="E95" s="30" t="s">
+      <c r="E95" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="F95" s="30" t="s">
+      <c r="F95" s="33" t="s">
         <v>286</v>
       </c>
       <c r="G95" s="10" t="s">
@@ -6687,13 +6679,13 @@
       </c>
       <c r="L95" s="10"/>
     </row>
-    <row r="96" spans="1:12" ht="75.75" customHeight="1">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
+    <row r="96" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
       <c r="G96" s="10" t="s">
         <v>25</v>
       </c>
@@ -6709,23 +6701,23 @@
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
     </row>
-    <row r="97" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A97" s="30" t="s">
+    <row r="97" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D97" s="30" t="s">
+      <c r="D97" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="E97" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="F97" s="30" t="s">
+      <c r="F97" s="33" t="s">
         <v>293</v>
       </c>
       <c r="G97" s="10" t="s">
@@ -6750,13 +6742,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A98" s="30"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
+    <row r="98" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
       <c r="G98" s="10" t="s">
         <v>136</v>
       </c>
@@ -6779,23 +6771,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A99" s="30" t="s">
+    <row r="99" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D99" s="30" t="s">
+      <c r="D99" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E99" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="F99" s="30" t="s">
+      <c r="F99" s="33" t="s">
         <v>297</v>
       </c>
       <c r="G99" s="10" t="s">
@@ -6820,13 +6812,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
+    <row r="100" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
       <c r="G100" s="10" t="s">
         <v>136</v>
       </c>
@@ -6849,23 +6841,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A101" s="30" t="s">
+    <row r="101" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="C101" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D101" s="30" t="s">
+      <c r="D101" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="E101" s="30" t="s">
+      <c r="E101" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="F101" s="30" t="s">
+      <c r="F101" s="33" t="s">
         <v>299</v>
       </c>
       <c r="G101" s="10" t="s">
@@ -6890,13 +6882,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="75.75" customHeight="1">
-      <c r="A102" s="30"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
+    <row r="102" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
       <c r="G102" s="10" t="s">
         <v>136</v>
       </c>
@@ -6919,7 +6911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="74.650000000000006" customHeight="1">
+    <row r="103" spans="1:13" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>300</v>
       </c>
@@ -6945,19 +6937,19 @@
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
     </row>
-    <row r="104" spans="1:13" ht="78" customHeight="1">
-      <c r="A104" s="30"/>
-      <c r="B104" s="30"/>
-      <c r="C104" s="30" t="s">
+    <row r="104" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="33"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="D104" s="30" t="s">
+      <c r="D104" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E104" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="F104" s="30" t="s">
+      <c r="F104" s="33" t="s">
         <v>307</v>
       </c>
       <c r="G104" s="10" t="s">
@@ -6977,13 +6969,13 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="92.65" customHeight="1">
-      <c r="A105" s="30"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
+    <row r="105" spans="1:13" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
       <c r="G105" s="10" t="s">
         <v>25</v>
       </c>
@@ -6999,19 +6991,19 @@
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
     </row>
-    <row r="106" spans="1:13" ht="49.5" customHeight="1">
-      <c r="A106" s="30"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30" t="s">
+    <row r="106" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="33"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="D106" s="30" t="s">
+      <c r="D106" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="E106" s="30" t="s">
+      <c r="E106" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="F106" s="30" t="s">
+      <c r="F106" s="33" t="s">
         <v>312</v>
       </c>
       <c r="G106" s="10" t="s">
@@ -7029,13 +7021,13 @@
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
     </row>
-    <row r="107" spans="1:13" ht="93.75" customHeight="1">
-      <c r="A107" s="30"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
+    <row r="107" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="33"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
       <c r="G107" s="10" t="s">
         <v>25</v>
       </c>
@@ -7051,7 +7043,7 @@
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
     </row>
-    <row r="108" spans="1:13" ht="53.65" customHeight="1">
+    <row r="108" spans="1:13" ht="53.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>313</v>
       </c>
@@ -7090,7 +7082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="53.65" customHeight="1">
+    <row r="109" spans="1:13" ht="53.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>319</v>
       </c>
@@ -7129,7 +7121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="75.75" customHeight="1">
+    <row r="110" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>324</v>
       </c>
@@ -7168,7 +7160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="75" customHeight="1">
+    <row r="111" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>329</v>
       </c>
@@ -7194,8 +7186,8 @@
       <c r="I111" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J111" s="10" t="s">
-        <v>423</v>
+      <c r="J111" s="27" t="s">
+        <v>437</v>
       </c>
       <c r="K111" s="10" t="s">
         <v>23</v>
@@ -7207,7 +7199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="75" customHeight="1">
+    <row r="112" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>153</v>
       </c>
@@ -7234,7 +7226,7 @@
         <v>21</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="K112" s="10" t="s">
         <v>23</v>
@@ -7246,23 +7238,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="58.15" customHeight="1">
-      <c r="A113" s="30" t="s">
+    <row r="113" spans="1:13" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="C113" s="30" t="s">
+      <c r="C113" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="D113" s="30" t="s">
+      <c r="D113" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="E113" s="30" t="s">
+      <c r="E113" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="F113" s="30" t="s">
+      <c r="F113" s="33" t="s">
         <v>341</v>
       </c>
       <c r="G113" s="10" t="s">
@@ -7287,13 +7279,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="60">
-      <c r="A114" s="30"/>
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
+    <row r="114" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="33"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
       <c r="G114" s="10" t="s">
         <v>25</v>
       </c>
@@ -7316,12 +7308,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="49.5" customHeight="1">
-      <c r="A115" s="30"/>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
+    <row r="115" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="33"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
       <c r="F115" s="10" t="s">
         <v>343</v>
       </c>
@@ -7335,7 +7327,7 @@
         <v>137</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K115" s="10" t="s">
         <v>23</v>
@@ -7347,17 +7339,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="96.6" customHeight="1">
-      <c r="A116" s="30"/>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30" t="s">
+    <row r="116" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="33"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="D116" s="30" t="s">
+      <c r="D116" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="E116" s="30"/>
-      <c r="F116" s="31" t="s">
+      <c r="E116" s="33"/>
+      <c r="F116" s="42" t="s">
         <v>345</v>
       </c>
       <c r="G116" s="10" t="s">
@@ -7375,13 +7367,13 @@
       <c r="K116" s="10"/>
       <c r="L116" s="10"/>
     </row>
-    <row r="117" spans="1:13" ht="96.6" customHeight="1">
-      <c r="A117" s="30"/>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="31"/>
+    <row r="117" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="42"/>
       <c r="G117" s="10" t="s">
         <v>25</v>
       </c>
@@ -7399,15 +7391,15 @@
       </c>
       <c r="L117" s="10"/>
     </row>
-    <row r="118" spans="1:13" ht="42" customHeight="1">
-      <c r="A118" s="30"/>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30" t="s">
+    <row r="118" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="33"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="E118" s="30"/>
-      <c r="F118" s="31" t="s">
+      <c r="E118" s="33"/>
+      <c r="F118" s="42" t="s">
         <v>349</v>
       </c>
       <c r="G118" s="10" t="s">
@@ -7430,13 +7422,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A119" s="30"/>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="31"/>
+    <row r="119" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="33"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="42"/>
       <c r="G119" s="10" t="s">
         <v>25</v>
       </c>
@@ -7459,7 +7451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="30">
+    <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10" t="s">
@@ -7487,17 +7479,17 @@
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
     </row>
-    <row r="121" spans="1:13" ht="99" customHeight="1" thickTop="1">
-      <c r="A121" s="30"/>
-      <c r="B121" s="30"/>
-      <c r="C121" s="30" t="s">
+    <row r="121" spans="1:13" ht="99" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="33"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="D121" s="30" t="s">
+      <c r="D121" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="E121" s="30"/>
-      <c r="F121" s="38" t="s">
+      <c r="E121" s="33"/>
+      <c r="F121" s="36" t="s">
         <v>356</v>
       </c>
       <c r="G121" s="10" t="s">
@@ -7515,13 +7507,13 @@
       <c r="K121" s="10"/>
       <c r="L121" s="10"/>
     </row>
-    <row r="122" spans="1:13" ht="99" customHeight="1">
-      <c r="A122" s="30"/>
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="38"/>
+    <row r="122" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="33"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="36"/>
       <c r="G122" s="10" t="s">
         <v>25</v>
       </c>
@@ -7537,12 +7529,12 @@
       <c r="K122" s="10"/>
       <c r="L122" s="10"/>
     </row>
-    <row r="123" spans="1:13" ht="43.9" customHeight="1">
-      <c r="A123" s="30"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
+    <row r="123" spans="1:13" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="33"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
       <c r="F123" s="12" t="s">
         <v>359</v>
       </c>
@@ -7561,12 +7553,12 @@
       <c r="K123" s="10"/>
       <c r="L123" s="10"/>
     </row>
-    <row r="124" spans="1:13" ht="84" customHeight="1">
-      <c r="A124" s="30"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
+    <row r="124" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="33"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
       <c r="F124" s="12" t="s">
         <v>361</v>
       </c>
@@ -7579,11 +7571,11 @@
       <c r="K124" s="10"/>
       <c r="L124" s="10"/>
     </row>
-    <row r="125" spans="1:13" ht="106.9" customHeight="1">
-      <c r="A125" s="30"/>
-      <c r="B125" s="30"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
+    <row r="125" spans="1:13" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="33"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
       <c r="E125" s="32" t="s">
         <v>363</v>
       </c>
@@ -7607,11 +7599,11 @@
       </c>
       <c r="L125" s="10"/>
     </row>
-    <row r="126" spans="1:13" ht="106.9" customHeight="1">
-      <c r="A126" s="30"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
+    <row r="126" spans="1:13" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="33"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
       <c r="E126" s="32"/>
       <c r="F126" s="32"/>
       <c r="G126" s="7" t="s">
@@ -7629,11 +7621,11 @@
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
     </row>
-    <row r="127" spans="1:13" ht="60">
-      <c r="A127" s="30"/>
-      <c r="B127" s="30"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
+    <row r="127" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="33"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
       <c r="E127" s="32" t="s">
         <v>368</v>
       </c>
@@ -7662,11 +7654,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="167.25" customHeight="1">
-      <c r="A128" s="30"/>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
+    <row r="128" spans="1:13" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="33"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
       <c r="E128" s="32"/>
       <c r="F128" s="32"/>
       <c r="G128" s="7" t="s">
@@ -7691,10 +7683,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="76.150000000000006" customHeight="1">
-      <c r="A129" s="30"/>
-      <c r="B129" s="30"/>
-      <c r="C129" s="30"/>
+    <row r="129" spans="1:13" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="33"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
       <c r="D129" s="10" t="s">
         <v>372</v>
       </c>
@@ -7719,10 +7711,10 @@
       <c r="K129" s="10"/>
       <c r="L129" s="10"/>
     </row>
-    <row r="130" spans="1:13" ht="46.9" customHeight="1">
-      <c r="A130" s="30"/>
-      <c r="B130" s="30"/>
-      <c r="C130" s="30"/>
+    <row r="130" spans="1:13" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="33"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="33"/>
       <c r="D130" s="10" t="s">
         <v>375</v>
       </c>
@@ -7747,10 +7739,10 @@
       <c r="K130" s="10"/>
       <c r="L130" s="10"/>
     </row>
-    <row r="131" spans="1:13" ht="177.75" customHeight="1">
-      <c r="A131" s="30"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="30"/>
+    <row r="131" spans="1:13" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="33"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="33"/>
       <c r="D131" s="10" t="s">
         <v>377</v>
       </c>
@@ -7775,10 +7767,10 @@
       <c r="K131" s="10"/>
       <c r="L131" s="10"/>
     </row>
-    <row r="132" spans="1:13" ht="123.6" customHeight="1">
-      <c r="A132" s="30"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
+    <row r="132" spans="1:13" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="33"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="33"/>
       <c r="D132" s="10" t="s">
         <v>380</v>
       </c>
@@ -7803,7 +7795,7 @@
       <c r="K132" s="10"/>
       <c r="L132" s="10"/>
     </row>
-    <row r="133" spans="1:13" ht="95.65" customHeight="1">
+    <row r="133" spans="1:13" ht="95.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7" t="s">
@@ -7840,7 +7832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="92.45" customHeight="1">
+    <row r="134" spans="1:13" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>390</v>
       </c>
@@ -7869,7 +7861,7 @@
         <v>137</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K134" s="18" t="s">
         <v>395</v>
@@ -7881,7 +7873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -7893,7 +7885,7 @@
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -7905,7 +7897,7 @@
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="37" t="s">
         <v>396</v>
@@ -7921,42 +7913,212 @@
     </row>
   </sheetData>
   <mergeCells count="271">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B22:B35"/>
-    <mergeCell ref="C22:C35"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C121:C132"/>
-    <mergeCell ref="B121:B132"/>
-    <mergeCell ref="A121:A132"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="D121:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
     <mergeCell ref="B162:J162"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -7981,217 +8143,47 @@
     <mergeCell ref="D79:D80"/>
     <mergeCell ref="E79:E80"/>
     <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="C121:C132"/>
+    <mergeCell ref="B121:B132"/>
+    <mergeCell ref="A121:A132"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="D121:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B22:B35"/>
+    <mergeCell ref="C22:C35"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="B116:B119"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K3">
@@ -8254,7 +8246,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2 K10 K47 K49 K58:K59 K61 K63:K64 K68 K71 K73 K82 K84 K86 K88 K90 K92 K94 K124:K125 K133:K135 K137 K139 K66 K6 K96:K102 K120:L120 K116:L117">
+  <conditionalFormatting sqref="K10 K2 K47 K49 K58:K59 K61 K63:K64 K68 K71 K73 K82 K84 K86 K88 K90 K92 K94 K124:K125 K133:K135 K137 K139 K66 K6 K96:K102 K120:L120 K116:L117">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8278,7 +8270,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K106 K104">
+  <conditionalFormatting sqref="K104 K106">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8350,7 +8342,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2 L10 L47 L49 L58:L59 L61 L68 L82 L84 L86 L88 L90 L92 L94 L124:L125 L133:L135 L137 L139 L6 L96:L102 L71:L73 L63:L66">
+  <conditionalFormatting sqref="L10 L2 L47 L49 L58:L59 L61 L68 L82 L84 L86 L88 L90 L92 L94 L124:L125 L133:L135 L137 L139 L6 L96:L102 L71:L73 L63:L66">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8398,7 +8390,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L106 L104">
+  <conditionalFormatting sqref="L104 L106">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -8547,14 +8539,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -8567,7 +8559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -8578,7 +8570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>398</v>
       </c>
@@ -8589,7 +8581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -8600,7 +8592,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>400</v>
       </c>
@@ -8611,7 +8603,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -8619,7 +8611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>402</v>
       </c>
@@ -8641,49 +8633,49 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>411</v>
       </c>
